--- a/database/industries/methanol/zagros/cost/quarterly.xlsx
+++ b/database/industries/methanol/zagros/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\methanol\zagros\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C55155-36B4-4D90-89D4-00191C798A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -31,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
   </si>
   <si>
     <t>فصل دوم منتهی به 1400/06</t>
@@ -262,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,7 +448,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -444,7 +460,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -491,6 +507,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -526,6 +559,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,17 +727,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -696,8 +746,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,8 +763,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -720,8 +780,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -730,8 +795,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -742,8 +812,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -754,8 +829,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -764,8 +844,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -786,8 +871,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -796,98 +896,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>7325271</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9063325</v>
+      </c>
+      <c r="G10" s="9">
+        <v>18232383</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8912231</v>
+      </c>
+      <c r="I10" s="9">
+        <v>14951267</v>
+      </c>
+      <c r="J10" s="9">
         <v>20809319</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>27533527</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>41770886</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>33266140</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>29733894</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>96923</v>
+      </c>
+      <c r="F11" s="11">
+        <v>122315</v>
+      </c>
+      <c r="G11" s="11">
+        <v>90149</v>
+      </c>
+      <c r="H11" s="11">
+        <v>168965</v>
+      </c>
+      <c r="I11" s="11">
+        <v>185264</v>
+      </c>
+      <c r="J11" s="11">
         <v>268472</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>51263</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>303339</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>327183</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>242870</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>1356045</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2092008</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1376279</v>
+      </c>
+      <c r="H12" s="9">
+        <v>12821757</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4957787</v>
+      </c>
+      <c r="J12" s="9">
         <v>6802687</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>4712929</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>14900643</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>10139348</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>9649542</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>8778239</v>
+      </c>
+      <c r="F13" s="13">
+        <v>11277648</v>
+      </c>
+      <c r="G13" s="13">
+        <v>19698811</v>
+      </c>
+      <c r="H13" s="13">
+        <v>21902953</v>
+      </c>
+      <c r="I13" s="13">
+        <v>20094318</v>
+      </c>
+      <c r="J13" s="13">
         <v>27880478</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>32297719</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>56974868</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>43732671</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>39626306</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -906,54 +1071,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>8778239</v>
+      </c>
+      <c r="F15" s="13">
+        <v>11277648</v>
+      </c>
+      <c r="G15" s="13">
+        <v>19698811</v>
+      </c>
+      <c r="H15" s="13">
+        <v>21902953</v>
+      </c>
+      <c r="I15" s="13">
+        <v>20094318</v>
+      </c>
+      <c r="J15" s="13">
         <v>27880478</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>32297719</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>56974868</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>43732671</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>39626306</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>18897</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-18604</v>
+      </c>
+      <c r="G16" s="9">
+        <v>18604</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-32341</v>
+      </c>
+      <c r="I16" s="9">
+        <v>32341</v>
+      </c>
+      <c r="J16" s="9">
         <v>-43722</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>43722</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-74793</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>74793</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-108855</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -972,37 +1182,67 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>8797136</v>
+      </c>
+      <c r="F18" s="15">
+        <v>11259044</v>
+      </c>
+      <c r="G18" s="15">
+        <v>19717415</v>
+      </c>
+      <c r="H18" s="15">
+        <v>21870612</v>
+      </c>
+      <c r="I18" s="15">
+        <v>20126659</v>
+      </c>
+      <c r="J18" s="15">
         <v>27836756</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>32341441</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>56900075</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>43807464</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>39517451</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>617941</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -1011,101 +1251,176 @@
         <v>0</v>
       </c>
       <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>917924</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>5898432</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-884796</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-569988</v>
+      </c>
+      <c r="G20" s="9">
+        <v>467568</v>
+      </c>
+      <c r="H20" s="9">
+        <v>69292</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-1174241</v>
+      </c>
+      <c r="J20" s="9">
         <v>-532140</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-439922</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-3752129</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-8162443</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>7669709</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>8530281</v>
+      </c>
+      <c r="F21" s="13">
+        <v>10689056</v>
+      </c>
+      <c r="G21" s="13">
+        <v>20184983</v>
+      </c>
+      <c r="H21" s="13">
+        <v>21939904</v>
+      </c>
+      <c r="I21" s="13">
+        <v>19870342</v>
+      </c>
+      <c r="J21" s="13">
         <v>27304616</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>31901519</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>53147946</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>41543453</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>47187160</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1701583</v>
+      </c>
+      <c r="H22" s="9">
+        <v>-1701583</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1022793</v>
+      </c>
+      <c r="J22" s="9">
         <v>1632156</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>385305</v>
       </c>
-      <c r="G22" s="9">
+      <c r="L22" s="9">
         <v>-3040254</v>
       </c>
-      <c r="H22" s="9">
+      <c r="M22" s="9">
         <v>2598084</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>-2598084</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>8530281</v>
+      </c>
+      <c r="F23" s="13">
+        <v>10689056</v>
+      </c>
+      <c r="G23" s="13">
+        <v>21886566</v>
+      </c>
+      <c r="H23" s="13">
+        <v>20238321</v>
+      </c>
+      <c r="I23" s="13">
+        <v>20893135</v>
+      </c>
+      <c r="J23" s="13">
         <v>28936772</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>32286824</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>50107692</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>44141537</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>44589076</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1114,8 +1429,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1124,8 +1444,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1134,10 +1459,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1156,8 +1486,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1166,37 +1511,57 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
@@ -1205,8 +1570,8 @@
       <c r="F30" s="11">
         <v>0</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>26</v>
+      <c r="G30" s="11">
+        <v>0</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
@@ -1214,34 +1579,64 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1260,8 +1655,23 @@
       <c r="I32" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0</v>
+      </c>
+      <c r="N32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1270,8 +1680,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1280,8 +1695,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1290,10 +1710,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1312,8 +1737,23 @@
       <c r="I36" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1322,102 +1762,167 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>26</v>
+      <c r="E38" s="9">
+        <v>343220432</v>
+      </c>
+      <c r="F38" s="9">
+        <v>307240700</v>
+      </c>
+      <c r="G38" s="9">
+        <v>308151369</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
+        <v>792900792</v>
+      </c>
+      <c r="F39" s="11">
+        <v>685114591</v>
+      </c>
+      <c r="G39" s="11">
+        <v>723223052</v>
+      </c>
+      <c r="H39" s="11">
+        <v>582358299</v>
+      </c>
+      <c r="I39" s="11">
+        <v>737215879</v>
+      </c>
+      <c r="J39" s="11">
         <v>642819696</v>
       </c>
-      <c r="F39" s="11">
+      <c r="K39" s="11">
         <v>454478711</v>
       </c>
-      <c r="G39" s="11">
+      <c r="L39" s="11">
         <v>489202226</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>664140620</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>593621250</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>1136121224</v>
+      </c>
+      <c r="F41" s="13">
+        <v>992355291</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1031374421</v>
+      </c>
+      <c r="H41" s="13">
+        <v>582358299</v>
+      </c>
+      <c r="I41" s="13">
+        <v>737215879</v>
+      </c>
+      <c r="J41" s="13">
         <v>642819696</v>
       </c>
-      <c r="F41" s="13">
+      <c r="K41" s="13">
         <v>454478711</v>
       </c>
-      <c r="G41" s="13">
+      <c r="L41" s="13">
         <v>489202226</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>664140620</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>593621250</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1426,8 +1931,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1436,8 +1946,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1446,10 +1961,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1468,8 +1988,23 @@
       <c r="I45" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1478,102 +2013,167 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>26</v>
+      <c r="E47" s="9">
+        <v>343220432</v>
+      </c>
+      <c r="F47" s="9">
+        <v>307240700</v>
+      </c>
+      <c r="G47" s="9">
+        <v>308151369</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>792900792</v>
+      </c>
+      <c r="F48" s="11">
+        <v>685114591</v>
+      </c>
+      <c r="G48" s="11">
+        <v>723223052</v>
+      </c>
+      <c r="H48" s="11">
+        <v>582358299</v>
+      </c>
+      <c r="I48" s="11">
+        <v>737215879</v>
+      </c>
+      <c r="J48" s="11">
         <v>642819696</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>454478711</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>489202226</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>664140620</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>593621250</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
+        <v>1136121224</v>
+      </c>
+      <c r="F50" s="13">
+        <v>992355291</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1031374421</v>
+      </c>
+      <c r="H50" s="13">
+        <v>582358299</v>
+      </c>
+      <c r="I50" s="13">
+        <v>737215879</v>
+      </c>
+      <c r="J50" s="13">
         <v>642819696</v>
       </c>
-      <c r="F50" s="13">
+      <c r="K50" s="13">
         <v>454478711</v>
       </c>
-      <c r="G50" s="13">
+      <c r="L50" s="13">
         <v>489202226</v>
       </c>
-      <c r="H50" s="13">
+      <c r="M50" s="13">
         <v>664140620</v>
       </c>
-      <c r="I50" s="13">
+      <c r="N50" s="13">
         <v>593621250</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1582,8 +2182,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1592,8 +2197,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1602,10 +2212,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1624,8 +2239,23 @@
       <c r="I54" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1634,37 +2264,57 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>26</v>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
@@ -1682,34 +2332,64 @@
       <c r="I57" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="11">
+        <v>0</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0</v>
+      </c>
+      <c r="N57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -1728,8 +2408,23 @@
       <c r="I59" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="13">
+        <v>0</v>
+      </c>
+      <c r="K59" s="13">
+        <v>0</v>
+      </c>
+      <c r="L59" s="13">
+        <v>0</v>
+      </c>
+      <c r="M59" s="13">
+        <v>0</v>
+      </c>
+      <c r="N59" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1738,8 +2433,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1748,8 +2448,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1758,10 +2463,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1780,8 +2490,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1790,37 +2515,57 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>26</v>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
@@ -1829,8 +2574,8 @@
       <c r="F66" s="11">
         <v>0</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>26</v>
+      <c r="G66" s="11">
+        <v>0</v>
       </c>
       <c r="H66" s="11">
         <v>0</v>
@@ -1838,34 +2583,64 @@
       <c r="I66" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="11">
+        <v>0</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -1884,8 +2659,23 @@
       <c r="I68" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="13">
+        <v>0</v>
+      </c>
+      <c r="K68" s="13">
+        <v>0</v>
+      </c>
+      <c r="L68" s="13">
+        <v>0</v>
+      </c>
+      <c r="M68" s="13">
+        <v>0</v>
+      </c>
+      <c r="N68" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1894,8 +2684,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1904,8 +2699,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1914,10 +2714,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1936,8 +2741,23 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1946,102 +2766,167 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>26</v>
+      <c r="E74" s="9">
+        <v>2334585</v>
+      </c>
+      <c r="F74" s="9">
+        <v>2089852</v>
+      </c>
+      <c r="G74" s="9">
+        <v>2096044</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>4990686</v>
+      </c>
+      <c r="F75" s="11">
+        <v>6973473</v>
+      </c>
+      <c r="G75" s="11">
+        <v>16136339</v>
+      </c>
+      <c r="H75" s="11">
+        <v>15432712</v>
+      </c>
+      <c r="I75" s="11">
+        <v>14951267</v>
+      </c>
+      <c r="J75" s="11">
         <v>20809319</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>27533527</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>41770886</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>33266140</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>29733894</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>7325271</v>
+      </c>
+      <c r="F77" s="13">
+        <v>9063325</v>
+      </c>
+      <c r="G77" s="13">
+        <v>18232383</v>
+      </c>
+      <c r="H77" s="13">
+        <v>15432712</v>
+      </c>
+      <c r="I77" s="13">
+        <v>14951267</v>
+      </c>
+      <c r="J77" s="13">
         <v>20809319</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>27533527</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>41770886</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>33266140</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>29733894</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2050,8 +2935,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2060,8 +2950,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2070,10 +2965,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2092,8 +2992,23 @@
       <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2102,102 +3017,167 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>26</v>
+      <c r="E83" s="9">
+        <v>2334585</v>
+      </c>
+      <c r="F83" s="9">
+        <v>2089852</v>
+      </c>
+      <c r="G83" s="9">
+        <v>2096044</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>4990686</v>
+      </c>
+      <c r="F84" s="11">
+        <v>6973473</v>
+      </c>
+      <c r="G84" s="11">
+        <v>16136339</v>
+      </c>
+      <c r="H84" s="11">
+        <v>15432712</v>
+      </c>
+      <c r="I84" s="11">
+        <v>14951267</v>
+      </c>
+      <c r="J84" s="11">
         <v>20809319</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>27533527</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>41770886</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>33266140</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>29733894</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
+        <v>7325271</v>
+      </c>
+      <c r="F86" s="13">
+        <v>9063325</v>
+      </c>
+      <c r="G86" s="13">
+        <v>18232383</v>
+      </c>
+      <c r="H86" s="13">
+        <v>15432712</v>
+      </c>
+      <c r="I86" s="13">
+        <v>14951267</v>
+      </c>
+      <c r="J86" s="13">
         <v>20809319</v>
       </c>
-      <c r="F86" s="13">
+      <c r="K86" s="13">
         <v>27533527</v>
       </c>
-      <c r="G86" s="13">
+      <c r="L86" s="13">
         <v>41770886</v>
       </c>
-      <c r="H86" s="13">
+      <c r="M86" s="13">
         <v>33266140</v>
       </c>
-      <c r="I86" s="13">
+      <c r="N86" s="13">
         <v>29733894</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2206,8 +3186,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2216,8 +3201,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2226,10 +3216,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2248,8 +3243,23 @@
       <c r="I90" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2258,37 +3268,57 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>26</v>
+      <c r="E92" s="9">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9">
+        <v>0</v>
+      </c>
+      <c r="G92" s="9">
+        <v>0</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
@@ -2306,34 +3336,64 @@
       <c r="I93" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="11">
+        <v>0</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11">
+        <v>0</v>
+      </c>
+      <c r="M93" s="11">
+        <v>0</v>
+      </c>
+      <c r="N93" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -2352,8 +3412,23 @@
       <c r="I95" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="13">
+        <v>0</v>
+      </c>
+      <c r="K95" s="13">
+        <v>0</v>
+      </c>
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
+        <v>0</v>
+      </c>
+      <c r="N95" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2362,8 +3437,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2372,8 +3452,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2382,10 +3467,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2404,8 +3494,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2414,80 +3519,130 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>26</v>
+      <c r="E101" s="9">
+        <v>6802</v>
+      </c>
+      <c r="F101" s="9">
+        <v>6802</v>
+      </c>
+      <c r="G101" s="9">
+        <v>6802</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>6294</v>
+      </c>
+      <c r="F102" s="11">
+        <v>10179</v>
+      </c>
+      <c r="G102" s="11">
+        <v>22312</v>
+      </c>
+      <c r="H102" s="11">
+        <v>26500</v>
+      </c>
+      <c r="I102" s="11">
+        <v>20281</v>
+      </c>
+      <c r="J102" s="11">
         <v>32372</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>60583</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>85386</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>50089</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>50089</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2496,8 +3651,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2506,8 +3666,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2516,10 +3681,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2538,8 +3708,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2548,80 +3733,130 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>26</v>
+      <c r="E109" s="9">
+        <v>6802</v>
+      </c>
+      <c r="F109" s="9">
+        <v>6802</v>
+      </c>
+      <c r="G109" s="9">
+        <v>6802</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>6294</v>
+      </c>
+      <c r="F110" s="11">
+        <v>10179</v>
+      </c>
+      <c r="G110" s="11">
+        <v>22312</v>
+      </c>
+      <c r="H110" s="11">
+        <v>26500</v>
+      </c>
+      <c r="I110" s="11">
+        <v>20281</v>
+      </c>
+      <c r="J110" s="11">
         <v>32372</v>
       </c>
-      <c r="F110" s="11">
+      <c r="K110" s="11">
         <v>60583</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>85386</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>50089</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>50089</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2630,8 +3865,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2640,8 +3880,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2650,10 +3895,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2672,8 +3922,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2682,10 +3947,15 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2704,10 +3974,25 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -2726,10 +4011,25 @@
       <c r="I118" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="11">
+        <v>0</v>
+      </c>
+      <c r="K118" s="11">
+        <v>0</v>
+      </c>
+      <c r="L118" s="11">
+        <v>0</v>
+      </c>
+      <c r="M118" s="11">
+        <v>0</v>
+      </c>
+      <c r="N118" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -2748,10 +4048,25 @@
       <c r="I119" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="9">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9">
+        <v>0</v>
+      </c>
+      <c r="L119" s="9">
+        <v>0</v>
+      </c>
+      <c r="M119" s="9">
+        <v>0</v>
+      </c>
+      <c r="N119" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -2770,98 +4085,173 @@
       <c r="I120" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="11">
+        <v>0</v>
+      </c>
+      <c r="K120" s="11">
+        <v>0</v>
+      </c>
+      <c r="L120" s="11">
+        <v>0</v>
+      </c>
+      <c r="M120" s="11">
+        <v>0</v>
+      </c>
+      <c r="N120" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>111053</v>
+      </c>
+      <c r="F121" s="9">
+        <v>204730</v>
+      </c>
+      <c r="G121" s="9">
+        <v>203360</v>
+      </c>
+      <c r="H121" s="9">
+        <v>460099</v>
+      </c>
+      <c r="I121" s="9">
+        <v>194335</v>
+      </c>
+      <c r="J121" s="9">
         <v>455574</v>
       </c>
-      <c r="F121" s="9">
+      <c r="K121" s="9">
         <v>83060</v>
       </c>
-      <c r="G121" s="9">
+      <c r="L121" s="9">
         <v>1662789</v>
       </c>
-      <c r="H121" s="9">
+      <c r="M121" s="9">
         <v>268969</v>
       </c>
-      <c r="I121" s="9">
+      <c r="N121" s="9">
         <v>873627</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F122" s="11">
-        <v>0</v>
+        <v>1683</v>
       </c>
       <c r="G122" s="11">
-        <v>0</v>
+        <v>1079</v>
       </c>
       <c r="H122" s="11">
-        <v>0</v>
+        <v>-2929</v>
       </c>
       <c r="I122" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="11">
+        <v>0</v>
+      </c>
+      <c r="K122" s="11">
+        <v>0</v>
+      </c>
+      <c r="L122" s="11">
+        <v>0</v>
+      </c>
+      <c r="M122" s="11">
+        <v>0</v>
+      </c>
+      <c r="N122" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
+        <v>162748</v>
+      </c>
+      <c r="F123" s="9">
+        <v>166334</v>
+      </c>
+      <c r="G123" s="9">
+        <v>165796</v>
+      </c>
+      <c r="H123" s="9">
+        <v>222963</v>
+      </c>
+      <c r="I123" s="9">
+        <v>190851</v>
+      </c>
+      <c r="J123" s="9">
         <v>260643</v>
       </c>
-      <c r="F123" s="9">
+      <c r="K123" s="9">
         <v>212553</v>
       </c>
-      <c r="G123" s="9">
+      <c r="L123" s="9">
         <v>273324</v>
       </c>
-      <c r="H123" s="9">
+      <c r="M123" s="9">
         <v>265061</v>
       </c>
-      <c r="I123" s="9">
+      <c r="N123" s="9">
         <v>319007</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
+        <v>573897</v>
+      </c>
+      <c r="F124" s="11">
+        <v>876919</v>
+      </c>
+      <c r="G124" s="11">
+        <v>563431</v>
+      </c>
+      <c r="H124" s="11">
+        <v>957954</v>
+      </c>
+      <c r="I124" s="11">
+        <v>1048416</v>
+      </c>
+      <c r="J124" s="11">
         <v>1532913</v>
       </c>
-      <c r="F124" s="11">
+      <c r="K124" s="11">
         <v>366863</v>
       </c>
-      <c r="G124" s="11">
+      <c r="L124" s="11">
         <v>1780345</v>
       </c>
-      <c r="H124" s="11">
+      <c r="M124" s="11">
         <v>1889046</v>
       </c>
-      <c r="I124" s="11">
+      <c r="N124" s="11">
         <v>1492083</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -2880,52 +4270,97 @@
       <c r="I125" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="9">
+        <v>0</v>
+      </c>
+      <c r="K125" s="9">
+        <v>0</v>
+      </c>
+      <c r="L125" s="9">
+        <v>0</v>
+      </c>
+      <c r="M125" s="9">
+        <v>0</v>
+      </c>
+      <c r="N125" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>508180</v>
+      </c>
+      <c r="F126" s="11">
+        <v>842342</v>
+      </c>
+      <c r="G126" s="11">
+        <v>442613</v>
+      </c>
+      <c r="H126" s="11">
+        <v>11183670</v>
+      </c>
+      <c r="I126" s="11">
+        <v>3524185</v>
+      </c>
+      <c r="J126" s="11">
         <v>4553557</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>4050453</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>11184185</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>7716272</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>6964825</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
+        <v>1356045</v>
+      </c>
+      <c r="F127" s="15">
+        <v>2092008</v>
+      </c>
+      <c r="G127" s="15">
+        <v>1376279</v>
+      </c>
+      <c r="H127" s="15">
+        <v>12821757</v>
+      </c>
+      <c r="I127" s="15">
+        <v>4957787</v>
+      </c>
+      <c r="J127" s="15">
         <v>6802687</v>
       </c>
-      <c r="F127" s="15">
+      <c r="K127" s="15">
         <v>4712929</v>
       </c>
-      <c r="G127" s="15">
+      <c r="L127" s="15">
         <v>14900643</v>
       </c>
-      <c r="H127" s="15">
+      <c r="M127" s="15">
         <v>10139348</v>
       </c>
-      <c r="I127" s="15">
+      <c r="N127" s="15">
         <v>9649542</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2934,8 +4369,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2944,8 +4384,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2954,10 +4399,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -2966,8 +4416,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2976,13 +4431,18 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -2990,13 +4450,18 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -3004,13 +4469,18 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -3018,101 +4488,106 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>

--- a/database/industries/methanol/zagros/cost/quarterly.xlsx
+++ b/database/industries/methanol/zagros/cost/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C55155-36B4-4D90-89D4-00191C798A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF8CEDA-E321-40CD-80D3-9ADFDFAC1F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -34,24 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -62,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -728,16 +713,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N144"/>
+  <dimension ref="B1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -746,13 +731,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,13 +743,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -780,13 +755,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -795,13 +765,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -812,13 +777,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,13 +789,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -844,13 +799,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -871,23 +821,8 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -896,163 +831,98 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>7325271</v>
+        <v>27533527</v>
       </c>
       <c r="F10" s="9">
-        <v>9063325</v>
+        <v>41770886</v>
       </c>
       <c r="G10" s="9">
-        <v>18232383</v>
+        <v>33266140</v>
       </c>
       <c r="H10" s="9">
-        <v>8912231</v>
+        <v>29733894</v>
       </c>
       <c r="I10" s="9">
-        <v>14951267</v>
-      </c>
-      <c r="J10" s="9">
-        <v>20809319</v>
-      </c>
-      <c r="K10" s="9">
-        <v>27533527</v>
-      </c>
-      <c r="L10" s="9">
-        <v>41770886</v>
-      </c>
-      <c r="M10" s="9">
-        <v>33266140</v>
-      </c>
-      <c r="N10" s="9">
-        <v>29733894</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>28604286</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>96923</v>
+        <v>51263</v>
       </c>
       <c r="F11" s="11">
-        <v>122315</v>
+        <v>303339</v>
       </c>
       <c r="G11" s="11">
-        <v>90149</v>
+        <v>327183</v>
       </c>
       <c r="H11" s="11">
-        <v>168965</v>
+        <v>242870</v>
       </c>
       <c r="I11" s="11">
-        <v>185264</v>
-      </c>
-      <c r="J11" s="11">
-        <v>268472</v>
-      </c>
-      <c r="K11" s="11">
-        <v>51263</v>
-      </c>
-      <c r="L11" s="11">
-        <v>303339</v>
-      </c>
-      <c r="M11" s="11">
-        <v>327183</v>
-      </c>
-      <c r="N11" s="11">
-        <v>242870</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>286356</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1356045</v>
+        <v>4712929</v>
       </c>
       <c r="F12" s="9">
-        <v>2092008</v>
+        <v>29548778</v>
       </c>
       <c r="G12" s="9">
-        <v>1376279</v>
+        <v>10139348</v>
       </c>
       <c r="H12" s="9">
-        <v>12821757</v>
+        <v>9649542</v>
       </c>
       <c r="I12" s="9">
-        <v>4957787</v>
-      </c>
-      <c r="J12" s="9">
-        <v>6802687</v>
-      </c>
-      <c r="K12" s="9">
-        <v>4712929</v>
-      </c>
-      <c r="L12" s="9">
-        <v>14900643</v>
-      </c>
-      <c r="M12" s="9">
-        <v>10139348</v>
-      </c>
-      <c r="N12" s="9">
-        <v>9649542</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8970976</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>8778239</v>
+        <v>32297719</v>
       </c>
       <c r="F13" s="13">
-        <v>11277648</v>
+        <v>71623003</v>
       </c>
       <c r="G13" s="13">
-        <v>19698811</v>
+        <v>43732671</v>
       </c>
       <c r="H13" s="13">
-        <v>21902953</v>
+        <v>39626306</v>
       </c>
       <c r="I13" s="13">
-        <v>20094318</v>
-      </c>
-      <c r="J13" s="13">
-        <v>27880478</v>
-      </c>
-      <c r="K13" s="13">
-        <v>32297719</v>
-      </c>
-      <c r="L13" s="13">
-        <v>56974868</v>
-      </c>
-      <c r="M13" s="13">
-        <v>43732671</v>
-      </c>
-      <c r="N13" s="13">
-        <v>39626306</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>37861618</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1071,99 +941,54 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>8778239</v>
+        <v>32297719</v>
       </c>
       <c r="F15" s="13">
-        <v>11277648</v>
+        <v>71623003</v>
       </c>
       <c r="G15" s="13">
-        <v>19698811</v>
+        <v>43732671</v>
       </c>
       <c r="H15" s="13">
-        <v>21902953</v>
+        <v>39626306</v>
       </c>
       <c r="I15" s="13">
-        <v>20094318</v>
-      </c>
-      <c r="J15" s="13">
-        <v>27880478</v>
-      </c>
-      <c r="K15" s="13">
-        <v>32297719</v>
-      </c>
-      <c r="L15" s="13">
-        <v>56974868</v>
-      </c>
-      <c r="M15" s="13">
-        <v>43732671</v>
-      </c>
-      <c r="N15" s="13">
-        <v>39626306</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>37861618</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>18897</v>
+        <v>43722</v>
       </c>
       <c r="F16" s="9">
-        <v>-18604</v>
+        <v>-74793</v>
       </c>
       <c r="G16" s="9">
-        <v>18604</v>
+        <v>74793</v>
       </c>
       <c r="H16" s="9">
-        <v>-32341</v>
+        <v>-108855</v>
       </c>
       <c r="I16" s="9">
-        <v>32341</v>
-      </c>
-      <c r="J16" s="9">
-        <v>-43722</v>
-      </c>
-      <c r="K16" s="9">
-        <v>43722</v>
-      </c>
-      <c r="L16" s="9">
-        <v>-74793</v>
-      </c>
-      <c r="M16" s="9">
-        <v>74793</v>
-      </c>
-      <c r="N16" s="9">
-        <v>-108855</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+        <v>108855</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1182,245 +1007,140 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>8797136</v>
+        <v>32341441</v>
       </c>
       <c r="F18" s="15">
-        <v>11259044</v>
+        <v>71548210</v>
       </c>
       <c r="G18" s="15">
-        <v>19717415</v>
+        <v>43807464</v>
       </c>
       <c r="H18" s="15">
-        <v>21870612</v>
+        <v>39517451</v>
       </c>
       <c r="I18" s="15">
-        <v>20126659</v>
-      </c>
-      <c r="J18" s="15">
-        <v>27836756</v>
-      </c>
-      <c r="K18" s="15">
-        <v>32341441</v>
-      </c>
-      <c r="L18" s="15">
-        <v>56900075</v>
-      </c>
-      <c r="M18" s="15">
-        <v>43807464</v>
-      </c>
-      <c r="N18" s="15">
-        <v>39517451</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+        <v>37970473</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>617941</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>439922</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>5898432</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>8162443</v>
       </c>
       <c r="I19" s="11">
-        <v>917924</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>5898432</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>496196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-884796</v>
+        <v>-439922</v>
       </c>
       <c r="F20" s="9">
-        <v>-569988</v>
+        <v>-6524636</v>
       </c>
       <c r="G20" s="9">
-        <v>467568</v>
+        <v>-8162443</v>
       </c>
       <c r="H20" s="9">
-        <v>69292</v>
+        <v>-496196</v>
       </c>
       <c r="I20" s="9">
-        <v>-1174241</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-532140</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-439922</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-3752129</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-8162443</v>
-      </c>
-      <c r="N20" s="9">
-        <v>7669709</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-8432649</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>8530281</v>
+        <v>31901519</v>
       </c>
       <c r="F21" s="13">
-        <v>10689056</v>
+        <v>67169877</v>
       </c>
       <c r="G21" s="13">
-        <v>20184983</v>
+        <v>41543453</v>
       </c>
       <c r="H21" s="13">
-        <v>21939904</v>
+        <v>47809902</v>
       </c>
       <c r="I21" s="13">
-        <v>19870342</v>
-      </c>
-      <c r="J21" s="13">
-        <v>27304616</v>
-      </c>
-      <c r="K21" s="13">
-        <v>31901519</v>
-      </c>
-      <c r="L21" s="13">
-        <v>53147946</v>
-      </c>
-      <c r="M21" s="13">
-        <v>41543453</v>
-      </c>
-      <c r="N21" s="13">
-        <v>47187160</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>30034020</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>385305</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>-3040254</v>
       </c>
       <c r="G22" s="9">
-        <v>1701583</v>
+        <v>2598084</v>
       </c>
       <c r="H22" s="9">
-        <v>-1701583</v>
+        <v>-2598084</v>
       </c>
       <c r="I22" s="9">
-        <v>1022793</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1632156</v>
-      </c>
-      <c r="K22" s="9">
-        <v>385305</v>
-      </c>
-      <c r="L22" s="9">
-        <v>-3040254</v>
-      </c>
-      <c r="M22" s="9">
-        <v>2598084</v>
-      </c>
-      <c r="N22" s="9">
-        <v>-2598084</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>8530281</v>
+        <v>32286824</v>
       </c>
       <c r="F23" s="13">
-        <v>10689056</v>
+        <v>64129623</v>
       </c>
       <c r="G23" s="13">
-        <v>21886566</v>
+        <v>44141537</v>
       </c>
       <c r="H23" s="13">
-        <v>20238321</v>
+        <v>45211818</v>
       </c>
       <c r="I23" s="13">
-        <v>20893135</v>
-      </c>
-      <c r="J23" s="13">
-        <v>28936772</v>
-      </c>
-      <c r="K23" s="13">
-        <v>32286824</v>
-      </c>
-      <c r="L23" s="13">
-        <v>50107692</v>
-      </c>
-      <c r="M23" s="13">
-        <v>44141537</v>
-      </c>
-      <c r="N23" s="13">
-        <v>44589076</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>30034020</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1429,13 +1149,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1444,13 +1159,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1459,15 +1169,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1486,23 +1191,8 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1511,64 +1201,44 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
+      <c r="E29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
         <v>0</v>
       </c>
-      <c r="F30" s="11">
-        <v>0</v>
+      <c r="F30" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G30" s="11">
         <v>0</v>
@@ -1579,64 +1249,34 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1655,23 +1295,8 @@
       <c r="I32" s="13">
         <v>0</v>
       </c>
-      <c r="J32" s="13">
-        <v>0</v>
-      </c>
-      <c r="K32" s="13">
-        <v>0</v>
-      </c>
-      <c r="L32" s="13">
-        <v>0</v>
-      </c>
-      <c r="M32" s="13">
-        <v>0</v>
-      </c>
-      <c r="N32" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1680,13 +1305,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1695,13 +1315,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1710,15 +1325,10 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1737,23 +1347,8 @@
       <c r="I36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1762,167 +1357,102 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9">
-        <v>343220432</v>
-      </c>
-      <c r="F38" s="9">
-        <v>307240700</v>
-      </c>
-      <c r="G38" s="9">
-        <v>308151369</v>
+      <c r="E38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>792900792</v>
+        <v>454478711</v>
       </c>
       <c r="F39" s="11">
-        <v>685114591</v>
+        <v>489202226</v>
       </c>
       <c r="G39" s="11">
-        <v>723223052</v>
+        <v>664140620</v>
       </c>
       <c r="H39" s="11">
-        <v>582358299</v>
+        <v>593621250</v>
       </c>
       <c r="I39" s="11">
-        <v>737215879</v>
-      </c>
-      <c r="J39" s="11">
-        <v>642819696</v>
-      </c>
-      <c r="K39" s="11">
-        <v>454478711</v>
-      </c>
-      <c r="L39" s="11">
-        <v>489202226</v>
-      </c>
-      <c r="M39" s="11">
-        <v>664140620</v>
-      </c>
-      <c r="N39" s="11">
-        <v>593621250</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>571069216</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>1136121224</v>
+        <v>454478711</v>
       </c>
       <c r="F41" s="13">
-        <v>992355291</v>
+        <v>489202226</v>
       </c>
       <c r="G41" s="13">
-        <v>1031374421</v>
+        <v>664140620</v>
       </c>
       <c r="H41" s="13">
-        <v>582358299</v>
+        <v>593621250</v>
       </c>
       <c r="I41" s="13">
-        <v>737215879</v>
-      </c>
-      <c r="J41" s="13">
-        <v>642819696</v>
-      </c>
-      <c r="K41" s="13">
-        <v>454478711</v>
-      </c>
-      <c r="L41" s="13">
-        <v>489202226</v>
-      </c>
-      <c r="M41" s="13">
-        <v>664140620</v>
-      </c>
-      <c r="N41" s="13">
-        <v>593621250</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>571069216</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1931,13 +1461,8 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1946,13 +1471,8 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1961,15 +1481,10 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1988,23 +1503,8 @@
       <c r="I45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2013,167 +1513,102 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9">
-        <v>343220432</v>
-      </c>
-      <c r="F47" s="9">
-        <v>307240700</v>
-      </c>
-      <c r="G47" s="9">
-        <v>308151369</v>
+      <c r="E47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>792900792</v>
+        <v>454478711</v>
       </c>
       <c r="F48" s="11">
-        <v>685114591</v>
+        <v>489202226</v>
       </c>
       <c r="G48" s="11">
-        <v>723223052</v>
+        <v>664140620</v>
       </c>
       <c r="H48" s="11">
-        <v>582358299</v>
+        <v>593621250</v>
       </c>
       <c r="I48" s="11">
-        <v>737215879</v>
-      </c>
-      <c r="J48" s="11">
-        <v>642819696</v>
-      </c>
-      <c r="K48" s="11">
-        <v>454478711</v>
-      </c>
-      <c r="L48" s="11">
-        <v>489202226</v>
-      </c>
-      <c r="M48" s="11">
-        <v>664140620</v>
-      </c>
-      <c r="N48" s="11">
-        <v>593621250</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>571069216</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>1136121224</v>
+        <v>454478711</v>
       </c>
       <c r="F50" s="13">
-        <v>992355291</v>
+        <v>489202226</v>
       </c>
       <c r="G50" s="13">
-        <v>1031374421</v>
+        <v>664140620</v>
       </c>
       <c r="H50" s="13">
-        <v>582358299</v>
+        <v>593621250</v>
       </c>
       <c r="I50" s="13">
-        <v>737215879</v>
-      </c>
-      <c r="J50" s="13">
-        <v>642819696</v>
-      </c>
-      <c r="K50" s="13">
-        <v>454478711</v>
-      </c>
-      <c r="L50" s="13">
-        <v>489202226</v>
-      </c>
-      <c r="M50" s="13">
-        <v>664140620</v>
-      </c>
-      <c r="N50" s="13">
-        <v>593621250</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>571069216</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2182,13 +1617,8 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2197,13 +1627,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2212,15 +1637,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2239,23 +1659,8 @@
       <c r="I54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2264,57 +1669,37 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
+      <c r="E56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
@@ -2332,64 +1717,34 @@
       <c r="I57" s="11">
         <v>0</v>
       </c>
-      <c r="J57" s="11">
-        <v>0</v>
-      </c>
-      <c r="K57" s="11">
-        <v>0</v>
-      </c>
-      <c r="L57" s="11">
-        <v>0</v>
-      </c>
-      <c r="M57" s="11">
-        <v>0</v>
-      </c>
-      <c r="N57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -2408,23 +1763,8 @@
       <c r="I59" s="13">
         <v>0</v>
       </c>
-      <c r="J59" s="13">
-        <v>0</v>
-      </c>
-      <c r="K59" s="13">
-        <v>0</v>
-      </c>
-      <c r="L59" s="13">
-        <v>0</v>
-      </c>
-      <c r="M59" s="13">
-        <v>0</v>
-      </c>
-      <c r="N59" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2433,13 +1773,8 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2448,13 +1783,8 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2463,15 +1793,10 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2490,23 +1815,8 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2515,64 +1825,44 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
+      <c r="E65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
         <v>0</v>
       </c>
-      <c r="F66" s="11">
-        <v>0</v>
+      <c r="F66" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G66" s="11">
         <v>0</v>
@@ -2583,64 +1873,34 @@
       <c r="I66" s="11">
         <v>0</v>
       </c>
-      <c r="J66" s="11">
-        <v>0</v>
-      </c>
-      <c r="K66" s="11">
-        <v>0</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M66" s="11">
-        <v>0</v>
-      </c>
-      <c r="N66" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -2659,23 +1919,8 @@
       <c r="I68" s="13">
         <v>0</v>
       </c>
-      <c r="J68" s="13">
-        <v>0</v>
-      </c>
-      <c r="K68" s="13">
-        <v>0</v>
-      </c>
-      <c r="L68" s="13">
-        <v>0</v>
-      </c>
-      <c r="M68" s="13">
-        <v>0</v>
-      </c>
-      <c r="N68" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2684,13 +1929,8 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2699,13 +1939,8 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2714,15 +1949,10 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2741,23 +1971,8 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M72" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N72" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2766,167 +1981,102 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9">
-        <v>2334585</v>
-      </c>
-      <c r="F74" s="9">
-        <v>2089852</v>
-      </c>
-      <c r="G74" s="9">
-        <v>2096044</v>
+      <c r="E74" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>4990686</v>
+        <v>27533527</v>
       </c>
       <c r="F75" s="11">
-        <v>6973473</v>
+        <v>41770886</v>
       </c>
       <c r="G75" s="11">
-        <v>16136339</v>
+        <v>33266140</v>
       </c>
       <c r="H75" s="11">
-        <v>15432712</v>
+        <v>29733894</v>
       </c>
       <c r="I75" s="11">
-        <v>14951267</v>
-      </c>
-      <c r="J75" s="11">
-        <v>20809319</v>
-      </c>
-      <c r="K75" s="11">
-        <v>27533527</v>
-      </c>
-      <c r="L75" s="11">
-        <v>41770886</v>
-      </c>
-      <c r="M75" s="11">
-        <v>33266140</v>
-      </c>
-      <c r="N75" s="11">
-        <v>29733894</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+        <v>28604286</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N76" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>7325271</v>
+        <v>27533527</v>
       </c>
       <c r="F77" s="13">
-        <v>9063325</v>
+        <v>41770886</v>
       </c>
       <c r="G77" s="13">
-        <v>18232383</v>
+        <v>33266140</v>
       </c>
       <c r="H77" s="13">
-        <v>15432712</v>
+        <v>29733894</v>
       </c>
       <c r="I77" s="13">
-        <v>14951267</v>
-      </c>
-      <c r="J77" s="13">
-        <v>20809319</v>
-      </c>
-      <c r="K77" s="13">
-        <v>27533527</v>
-      </c>
-      <c r="L77" s="13">
-        <v>41770886</v>
-      </c>
-      <c r="M77" s="13">
-        <v>33266140</v>
-      </c>
-      <c r="N77" s="13">
-        <v>29733894</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+        <v>28604286</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2935,13 +2085,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2950,13 +2095,8 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2965,15 +2105,10 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2992,23 +2127,8 @@
       <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J81" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3017,167 +2137,102 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9">
-        <v>2334585</v>
-      </c>
-      <c r="F83" s="9">
-        <v>2089852</v>
-      </c>
-      <c r="G83" s="9">
-        <v>2096044</v>
+      <c r="E83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>4990686</v>
+        <v>27533527</v>
       </c>
       <c r="F84" s="11">
-        <v>6973473</v>
+        <v>41770886</v>
       </c>
       <c r="G84" s="11">
-        <v>16136339</v>
+        <v>33266140</v>
       </c>
       <c r="H84" s="11">
-        <v>15432712</v>
+        <v>29733894</v>
       </c>
       <c r="I84" s="11">
-        <v>14951267</v>
-      </c>
-      <c r="J84" s="11">
-        <v>20809319</v>
-      </c>
-      <c r="K84" s="11">
-        <v>27533527</v>
-      </c>
-      <c r="L84" s="11">
-        <v>41770886</v>
-      </c>
-      <c r="M84" s="11">
-        <v>33266140</v>
-      </c>
-      <c r="N84" s="11">
-        <v>29733894</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+        <v>28604286</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N85" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>7325271</v>
+        <v>27533527</v>
       </c>
       <c r="F86" s="13">
-        <v>9063325</v>
+        <v>41770886</v>
       </c>
       <c r="G86" s="13">
-        <v>18232383</v>
+        <v>33266140</v>
       </c>
       <c r="H86" s="13">
-        <v>15432712</v>
+        <v>29733894</v>
       </c>
       <c r="I86" s="13">
-        <v>14951267</v>
-      </c>
-      <c r="J86" s="13">
-        <v>20809319</v>
-      </c>
-      <c r="K86" s="13">
-        <v>27533527</v>
-      </c>
-      <c r="L86" s="13">
-        <v>41770886</v>
-      </c>
-      <c r="M86" s="13">
-        <v>33266140</v>
-      </c>
-      <c r="N86" s="13">
-        <v>29733894</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+        <v>28604286</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3186,13 +2241,8 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3201,13 +2251,8 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3216,15 +2261,10 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3243,23 +2283,8 @@
       <c r="I90" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M90" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N90" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3268,57 +2293,37 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
-        <v>0</v>
-      </c>
-      <c r="G92" s="9">
-        <v>0</v>
+      <c r="E92" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N92" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
@@ -3336,64 +2341,34 @@
       <c r="I93" s="11">
         <v>0</v>
       </c>
-      <c r="J93" s="11">
-        <v>0</v>
-      </c>
-      <c r="K93" s="11">
-        <v>0</v>
-      </c>
-      <c r="L93" s="11">
-        <v>0</v>
-      </c>
-      <c r="M93" s="11">
-        <v>0</v>
-      </c>
-      <c r="N93" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M94" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -3412,23 +2387,8 @@
       <c r="I95" s="13">
         <v>0</v>
       </c>
-      <c r="J95" s="13">
-        <v>0</v>
-      </c>
-      <c r="K95" s="13">
-        <v>0</v>
-      </c>
-      <c r="L95" s="13">
-        <v>0</v>
-      </c>
-      <c r="M95" s="13">
-        <v>0</v>
-      </c>
-      <c r="N95" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3437,13 +2397,8 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3452,13 +2407,8 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3467,15 +2417,10 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3494,23 +2439,8 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M99" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N99" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3519,130 +2449,80 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9">
-        <v>6802</v>
-      </c>
-      <c r="F101" s="9">
-        <v>6802</v>
-      </c>
-      <c r="G101" s="9">
-        <v>6802</v>
+      <c r="E101" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N101" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>6294</v>
+        <v>60583</v>
       </c>
       <c r="F102" s="11">
-        <v>10179</v>
+        <v>85386</v>
       </c>
       <c r="G102" s="11">
-        <v>22312</v>
+        <v>50089</v>
       </c>
       <c r="H102" s="11">
-        <v>26500</v>
+        <v>50089</v>
       </c>
       <c r="I102" s="11">
-        <v>20281</v>
-      </c>
-      <c r="J102" s="11">
-        <v>32372</v>
-      </c>
-      <c r="K102" s="11">
-        <v>60583</v>
-      </c>
-      <c r="L102" s="11">
-        <v>85386</v>
-      </c>
-      <c r="M102" s="11">
         <v>50089</v>
       </c>
-      <c r="N102" s="11">
-        <v>50089</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N103" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3651,13 +2531,8 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3666,13 +2541,8 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3681,15 +2551,10 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3708,23 +2573,8 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N107" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3733,130 +2583,80 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9">
-        <v>6802</v>
-      </c>
-      <c r="F109" s="9">
-        <v>6802</v>
-      </c>
-      <c r="G109" s="9">
-        <v>6802</v>
+      <c r="E109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N109" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>6294</v>
+        <v>60583</v>
       </c>
       <c r="F110" s="11">
-        <v>10179</v>
+        <v>85386</v>
       </c>
       <c r="G110" s="11">
-        <v>22312</v>
+        <v>50089</v>
       </c>
       <c r="H110" s="11">
-        <v>26500</v>
+        <v>50089</v>
       </c>
       <c r="I110" s="11">
-        <v>20281</v>
-      </c>
-      <c r="J110" s="11">
-        <v>32372</v>
-      </c>
-      <c r="K110" s="11">
-        <v>60583</v>
-      </c>
-      <c r="L110" s="11">
-        <v>85386</v>
-      </c>
-      <c r="M110" s="11">
         <v>50089</v>
       </c>
-      <c r="N110" s="11">
-        <v>50089</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K111" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L111" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M111" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N111" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3865,13 +2665,8 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3880,13 +2675,8 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3895,15 +2685,10 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3922,23 +2707,8 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J115" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L115" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N115" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3947,15 +2717,10 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -3974,25 +2739,10 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-      <c r="J117" s="9">
-        <v>0</v>
-      </c>
-      <c r="K117" s="9">
-        <v>0</v>
-      </c>
-      <c r="L117" s="9">
-        <v>0</v>
-      </c>
-      <c r="M117" s="9">
-        <v>0</v>
-      </c>
-      <c r="N117" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -4011,25 +2761,10 @@
       <c r="I118" s="11">
         <v>0</v>
       </c>
-      <c r="J118" s="11">
-        <v>0</v>
-      </c>
-      <c r="K118" s="11">
-        <v>0</v>
-      </c>
-      <c r="L118" s="11">
-        <v>0</v>
-      </c>
-      <c r="M118" s="11">
-        <v>0</v>
-      </c>
-      <c r="N118" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -4048,25 +2783,10 @@
       <c r="I119" s="9">
         <v>0</v>
       </c>
-      <c r="J119" s="9">
-        <v>0</v>
-      </c>
-      <c r="K119" s="9">
-        <v>0</v>
-      </c>
-      <c r="L119" s="9">
-        <v>0</v>
-      </c>
-      <c r="M119" s="9">
-        <v>0</v>
-      </c>
-      <c r="N119" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -4085,173 +2805,98 @@
       <c r="I120" s="11">
         <v>0</v>
       </c>
-      <c r="J120" s="11">
-        <v>0</v>
-      </c>
-      <c r="K120" s="11">
-        <v>0</v>
-      </c>
-      <c r="L120" s="11">
-        <v>0</v>
-      </c>
-      <c r="M120" s="11">
-        <v>0</v>
-      </c>
-      <c r="N120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>111053</v>
+        <v>83060</v>
       </c>
       <c r="F121" s="9">
-        <v>204730</v>
+        <v>1662789</v>
       </c>
       <c r="G121" s="9">
-        <v>203360</v>
+        <v>268969</v>
       </c>
       <c r="H121" s="9">
-        <v>460099</v>
+        <v>873627</v>
       </c>
       <c r="I121" s="9">
-        <v>194335</v>
-      </c>
-      <c r="J121" s="9">
-        <v>455574</v>
-      </c>
-      <c r="K121" s="9">
-        <v>83060</v>
-      </c>
-      <c r="L121" s="9">
-        <v>1662789</v>
-      </c>
-      <c r="M121" s="9">
-        <v>268969</v>
-      </c>
-      <c r="N121" s="9">
-        <v>873627</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+        <v>52559</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="F122" s="11">
-        <v>1683</v>
+        <v>0</v>
       </c>
       <c r="G122" s="11">
-        <v>1079</v>
+        <v>0</v>
       </c>
       <c r="H122" s="11">
-        <v>-2929</v>
+        <v>0</v>
       </c>
       <c r="I122" s="11">
         <v>0</v>
       </c>
-      <c r="J122" s="11">
-        <v>0</v>
-      </c>
-      <c r="K122" s="11">
-        <v>0</v>
-      </c>
-      <c r="L122" s="11">
-        <v>0</v>
-      </c>
-      <c r="M122" s="11">
-        <v>0</v>
-      </c>
-      <c r="N122" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>162748</v>
+        <v>212553</v>
       </c>
       <c r="F123" s="9">
-        <v>166334</v>
+        <v>273324</v>
       </c>
       <c r="G123" s="9">
-        <v>165796</v>
+        <v>265061</v>
       </c>
       <c r="H123" s="9">
-        <v>222963</v>
+        <v>319007</v>
       </c>
       <c r="I123" s="9">
-        <v>190851</v>
-      </c>
-      <c r="J123" s="9">
-        <v>260643</v>
-      </c>
-      <c r="K123" s="9">
-        <v>212553</v>
-      </c>
-      <c r="L123" s="9">
-        <v>273324</v>
-      </c>
-      <c r="M123" s="9">
-        <v>265061</v>
-      </c>
-      <c r="N123" s="9">
-        <v>319007</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+        <v>343777</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>573897</v>
+        <v>366863</v>
       </c>
       <c r="F124" s="11">
-        <v>876919</v>
+        <v>1780345</v>
       </c>
       <c r="G124" s="11">
-        <v>563431</v>
+        <v>1889046</v>
       </c>
       <c r="H124" s="11">
-        <v>957954</v>
+        <v>1492083</v>
       </c>
       <c r="I124" s="11">
-        <v>1048416</v>
-      </c>
-      <c r="J124" s="11">
-        <v>1532913</v>
-      </c>
-      <c r="K124" s="11">
-        <v>366863</v>
-      </c>
-      <c r="L124" s="11">
-        <v>1780345</v>
-      </c>
-      <c r="M124" s="11">
-        <v>1889046</v>
-      </c>
-      <c r="N124" s="11">
-        <v>1492083</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1749031</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -4270,97 +2915,52 @@
       <c r="I125" s="9">
         <v>0</v>
       </c>
-      <c r="J125" s="9">
-        <v>0</v>
-      </c>
-      <c r="K125" s="9">
-        <v>0</v>
-      </c>
-      <c r="L125" s="9">
-        <v>0</v>
-      </c>
-      <c r="M125" s="9">
-        <v>0</v>
-      </c>
-      <c r="N125" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>508180</v>
+        <v>4050453</v>
       </c>
       <c r="F126" s="11">
-        <v>842342</v>
+        <v>25832320</v>
       </c>
       <c r="G126" s="11">
-        <v>442613</v>
+        <v>7716272</v>
       </c>
       <c r="H126" s="11">
-        <v>11183670</v>
+        <v>6964825</v>
       </c>
       <c r="I126" s="11">
-        <v>3524185</v>
-      </c>
-      <c r="J126" s="11">
-        <v>4553557</v>
-      </c>
-      <c r="K126" s="11">
-        <v>4050453</v>
-      </c>
-      <c r="L126" s="11">
-        <v>11184185</v>
-      </c>
-      <c r="M126" s="11">
-        <v>7716272</v>
-      </c>
-      <c r="N126" s="11">
-        <v>6964825</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6825609</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
-        <v>1356045</v>
+        <v>4712929</v>
       </c>
       <c r="F127" s="15">
-        <v>2092008</v>
+        <v>29548778</v>
       </c>
       <c r="G127" s="15">
-        <v>1376279</v>
+        <v>10139348</v>
       </c>
       <c r="H127" s="15">
-        <v>12821757</v>
+        <v>9649542</v>
       </c>
       <c r="I127" s="15">
-        <v>4957787</v>
-      </c>
-      <c r="J127" s="15">
-        <v>6802687</v>
-      </c>
-      <c r="K127" s="15">
-        <v>4712929</v>
-      </c>
-      <c r="L127" s="15">
-        <v>14900643</v>
-      </c>
-      <c r="M127" s="15">
-        <v>10139348</v>
-      </c>
-      <c r="N127" s="15">
-        <v>9649542</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8970976</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4369,13 +2969,8 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4384,13 +2979,8 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4399,15 +2989,10 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4416,13 +3001,8 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4431,18 +3011,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -4450,18 +3025,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -4469,18 +3039,13 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -4488,106 +3053,101 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>

--- a/database/industries/methanol/zagros/cost/quarterly.xlsx
+++ b/database/industries/methanol/zagros/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF8CEDA-E321-40CD-80D3-9ADFDFAC1F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83066CF3-89DC-4EDD-8174-A98CA2C9C4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>متر مکعب</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>گاز خوراک</t>
@@ -713,16 +728,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I144"/>
+  <dimension ref="B1:N144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -731,8 +746,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,8 +763,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -755,8 +780,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -765,8 +795,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -777,8 +812,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -789,8 +829,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -799,8 +844,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -821,8 +871,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -831,98 +896,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>9063325</v>
+      </c>
+      <c r="F10" s="9">
+        <v>18232383</v>
+      </c>
+      <c r="G10" s="9">
+        <v>8912231</v>
+      </c>
+      <c r="H10" s="9">
+        <v>14951267</v>
+      </c>
+      <c r="I10" s="9">
+        <v>20809319</v>
+      </c>
+      <c r="J10" s="9">
         <v>27533527</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>41770886</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>33266140</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>29733894</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>28604286</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>122315</v>
+      </c>
+      <c r="F11" s="11">
+        <v>90149</v>
+      </c>
+      <c r="G11" s="11">
+        <v>168965</v>
+      </c>
+      <c r="H11" s="11">
+        <v>185264</v>
+      </c>
+      <c r="I11" s="11">
+        <v>268472</v>
+      </c>
+      <c r="J11" s="11">
         <v>51263</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>303339</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>327183</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>242870</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>286356</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>2092008</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1376279</v>
+      </c>
+      <c r="G12" s="9">
+        <v>12821757</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4957787</v>
+      </c>
+      <c r="I12" s="9">
+        <v>6802687</v>
+      </c>
+      <c r="J12" s="9">
         <v>4712929</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>29548778</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>10139348</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>9649542</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>8970976</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>11277648</v>
+      </c>
+      <c r="F13" s="13">
+        <v>19698811</v>
+      </c>
+      <c r="G13" s="13">
+        <v>21902953</v>
+      </c>
+      <c r="H13" s="13">
+        <v>20094318</v>
+      </c>
+      <c r="I13" s="13">
+        <v>27880478</v>
+      </c>
+      <c r="J13" s="13">
         <v>32297719</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>71623003</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>43732671</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>39626306</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>37861618</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -941,54 +1071,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>11277648</v>
+      </c>
+      <c r="F15" s="13">
+        <v>19698811</v>
+      </c>
+      <c r="G15" s="13">
+        <v>21902953</v>
+      </c>
+      <c r="H15" s="13">
+        <v>20094318</v>
+      </c>
+      <c r="I15" s="13">
+        <v>27880478</v>
+      </c>
+      <c r="J15" s="13">
         <v>32297719</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>71623003</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>43732671</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>39626306</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>37861618</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-18604</v>
+      </c>
+      <c r="F16" s="9">
+        <v>18604</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-32341</v>
+      </c>
+      <c r="H16" s="9">
+        <v>32341</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-43722</v>
+      </c>
+      <c r="J16" s="9">
         <v>43722</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-74793</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>74793</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-108855</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>108855</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1007,32 +1182,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>11259044</v>
+      </c>
+      <c r="F18" s="15">
+        <v>19717415</v>
+      </c>
+      <c r="G18" s="15">
+        <v>21870612</v>
+      </c>
+      <c r="H18" s="15">
+        <v>20126659</v>
+      </c>
+      <c r="I18" s="15">
+        <v>27836756</v>
+      </c>
+      <c r="J18" s="15">
         <v>32341441</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>71548210</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>43807464</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>39517451</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>37970473</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1040,107 +1245,182 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>467568</v>
+      </c>
+      <c r="H19" s="11">
+        <v>917924</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>439922</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>5898432</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>8162443</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>496196</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-569988</v>
+      </c>
+      <c r="F20" s="9">
+        <v>467568</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-1174241</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-532140</v>
+      </c>
+      <c r="J20" s="9">
         <v>-439922</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-6524636</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-8162443</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-496196</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-8432649</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>10689056</v>
+      </c>
+      <c r="F21" s="13">
+        <v>20184983</v>
+      </c>
+      <c r="G21" s="13">
+        <v>21939904</v>
+      </c>
+      <c r="H21" s="13">
+        <v>19870342</v>
+      </c>
+      <c r="I21" s="13">
+        <v>27304616</v>
+      </c>
+      <c r="J21" s="13">
         <v>31901519</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>67169877</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>41543453</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>47809902</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>30034020</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1701583</v>
+      </c>
+      <c r="G22" s="9">
+        <v>-1701583</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1022793</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1632156</v>
+      </c>
+      <c r="J22" s="9">
         <v>385305</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>-3040254</v>
       </c>
-      <c r="G22" s="9">
+      <c r="L22" s="9">
         <v>2598084</v>
       </c>
-      <c r="H22" s="9">
+      <c r="M22" s="9">
         <v>-2598084</v>
       </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>10689056</v>
+      </c>
+      <c r="F23" s="13">
+        <v>21886566</v>
+      </c>
+      <c r="G23" s="13">
+        <v>20238321</v>
+      </c>
+      <c r="H23" s="13">
+        <v>20893135</v>
+      </c>
+      <c r="I23" s="13">
+        <v>28936772</v>
+      </c>
+      <c r="J23" s="13">
         <v>32286824</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>64129623</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>44141537</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>45211818</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>30034020</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1149,8 +1429,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1159,8 +1444,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1169,10 +1459,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1191,8 +1486,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1201,44 +1511,64 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
         <v>0</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
+      <c r="F30" s="11">
+        <v>0</v>
       </c>
       <c r="G30" s="11">
         <v>0</v>
@@ -1249,34 +1579,64 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1295,8 +1655,23 @@
       <c r="I32" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0</v>
+      </c>
+      <c r="N32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1305,8 +1680,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1315,8 +1695,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1325,10 +1710,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1347,8 +1737,23 @@
       <c r="I36" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1357,102 +1762,167 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>26</v>
+      <c r="E38" s="9">
+        <v>307240700</v>
+      </c>
+      <c r="F38" s="9">
+        <v>308151369</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
+        <v>685114591</v>
+      </c>
+      <c r="F39" s="11">
+        <v>723223052</v>
+      </c>
+      <c r="G39" s="11">
+        <v>582358299</v>
+      </c>
+      <c r="H39" s="11">
+        <v>737215879</v>
+      </c>
+      <c r="I39" s="11">
+        <v>642819696</v>
+      </c>
+      <c r="J39" s="11">
         <v>454478711</v>
       </c>
-      <c r="F39" s="11">
+      <c r="K39" s="11">
         <v>489202226</v>
       </c>
-      <c r="G39" s="11">
+      <c r="L39" s="11">
         <v>664140620</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>593621250</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>571069216</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>992355291</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1031374421</v>
+      </c>
+      <c r="G41" s="13">
+        <v>582358299</v>
+      </c>
+      <c r="H41" s="13">
+        <v>737215879</v>
+      </c>
+      <c r="I41" s="13">
+        <v>642819696</v>
+      </c>
+      <c r="J41" s="13">
         <v>454478711</v>
       </c>
-      <c r="F41" s="13">
+      <c r="K41" s="13">
         <v>489202226</v>
       </c>
-      <c r="G41" s="13">
+      <c r="L41" s="13">
         <v>664140620</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>593621250</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>571069216</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1461,8 +1931,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1471,8 +1946,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1481,10 +1961,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1503,8 +1988,23 @@
       <c r="I45" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1513,102 +2013,167 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>26</v>
+      <c r="E47" s="9">
+        <v>307240700</v>
+      </c>
+      <c r="F47" s="9">
+        <v>308151369</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>685114591</v>
+      </c>
+      <c r="F48" s="11">
+        <v>723223052</v>
+      </c>
+      <c r="G48" s="11">
+        <v>582358299</v>
+      </c>
+      <c r="H48" s="11">
+        <v>737215879</v>
+      </c>
+      <c r="I48" s="11">
+        <v>642819696</v>
+      </c>
+      <c r="J48" s="11">
         <v>454478711</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>489202226</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>664140620</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>593621250</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>571069216</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
+        <v>992355291</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1031374421</v>
+      </c>
+      <c r="G50" s="13">
+        <v>582358299</v>
+      </c>
+      <c r="H50" s="13">
+        <v>737215879</v>
+      </c>
+      <c r="I50" s="13">
+        <v>642819696</v>
+      </c>
+      <c r="J50" s="13">
         <v>454478711</v>
       </c>
-      <c r="F50" s="13">
+      <c r="K50" s="13">
         <v>489202226</v>
       </c>
-      <c r="G50" s="13">
+      <c r="L50" s="13">
         <v>664140620</v>
       </c>
-      <c r="H50" s="13">
+      <c r="M50" s="13">
         <v>593621250</v>
       </c>
-      <c r="I50" s="13">
+      <c r="N50" s="13">
         <v>571069216</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1617,8 +2182,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1627,8 +2197,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1637,10 +2212,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1659,8 +2239,23 @@
       <c r="I54" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1669,37 +2264,57 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>26</v>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
@@ -1717,34 +2332,64 @@
       <c r="I57" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="11">
+        <v>0</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0</v>
+      </c>
+      <c r="N57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -1763,8 +2408,23 @@
       <c r="I59" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="13">
+        <v>0</v>
+      </c>
+      <c r="K59" s="13">
+        <v>0</v>
+      </c>
+      <c r="L59" s="13">
+        <v>0</v>
+      </c>
+      <c r="M59" s="13">
+        <v>0</v>
+      </c>
+      <c r="N59" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1773,8 +2433,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1783,8 +2448,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1793,10 +2463,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1815,8 +2490,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1825,44 +2515,64 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>26</v>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
         <v>0</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>26</v>
+      <c r="F66" s="11">
+        <v>0</v>
       </c>
       <c r="G66" s="11">
         <v>0</v>
@@ -1873,34 +2583,64 @@
       <c r="I66" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="11">
+        <v>0</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>0</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -1919,8 +2659,23 @@
       <c r="I68" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="13">
+        <v>0</v>
+      </c>
+      <c r="K68" s="13">
+        <v>0</v>
+      </c>
+      <c r="L68" s="13">
+        <v>0</v>
+      </c>
+      <c r="M68" s="13">
+        <v>0</v>
+      </c>
+      <c r="N68" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1929,8 +2684,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1939,8 +2699,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1949,10 +2714,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1971,8 +2741,23 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1981,102 +2766,167 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>26</v>
+      <c r="E74" s="9">
+        <v>2089852</v>
+      </c>
+      <c r="F74" s="9">
+        <v>2096044</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>6973473</v>
+      </c>
+      <c r="F75" s="11">
+        <v>16136339</v>
+      </c>
+      <c r="G75" s="11">
+        <v>15432712</v>
+      </c>
+      <c r="H75" s="11">
+        <v>14951267</v>
+      </c>
+      <c r="I75" s="11">
+        <v>20809319</v>
+      </c>
+      <c r="J75" s="11">
         <v>27533527</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>41770886</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>33266140</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>29733894</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>28604286</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>9063325</v>
+      </c>
+      <c r="F77" s="13">
+        <v>18232383</v>
+      </c>
+      <c r="G77" s="13">
+        <v>15432712</v>
+      </c>
+      <c r="H77" s="13">
+        <v>14951267</v>
+      </c>
+      <c r="I77" s="13">
+        <v>20809319</v>
+      </c>
+      <c r="J77" s="13">
         <v>27533527</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>41770886</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>33266140</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>29733894</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>28604286</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2085,8 +2935,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2095,8 +2950,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2105,10 +2965,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2127,8 +2992,23 @@
       <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2137,102 +3017,167 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>26</v>
+      <c r="E83" s="9">
+        <v>2089852</v>
+      </c>
+      <c r="F83" s="9">
+        <v>2096044</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>6973473</v>
+      </c>
+      <c r="F84" s="11">
+        <v>16136339</v>
+      </c>
+      <c r="G84" s="11">
+        <v>15432712</v>
+      </c>
+      <c r="H84" s="11">
+        <v>14951267</v>
+      </c>
+      <c r="I84" s="11">
+        <v>20809319</v>
+      </c>
+      <c r="J84" s="11">
         <v>27533527</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>41770886</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>33266140</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>29733894</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>28604286</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
+        <v>9063325</v>
+      </c>
+      <c r="F86" s="13">
+        <v>18232383</v>
+      </c>
+      <c r="G86" s="13">
+        <v>15432712</v>
+      </c>
+      <c r="H86" s="13">
+        <v>14951267</v>
+      </c>
+      <c r="I86" s="13">
+        <v>20809319</v>
+      </c>
+      <c r="J86" s="13">
         <v>27533527</v>
       </c>
-      <c r="F86" s="13">
+      <c r="K86" s="13">
         <v>41770886</v>
       </c>
-      <c r="G86" s="13">
+      <c r="L86" s="13">
         <v>33266140</v>
       </c>
-      <c r="H86" s="13">
+      <c r="M86" s="13">
         <v>29733894</v>
       </c>
-      <c r="I86" s="13">
+      <c r="N86" s="13">
         <v>28604286</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2241,8 +3186,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2251,8 +3201,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2261,10 +3216,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2283,8 +3243,23 @@
       <c r="I90" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2293,37 +3268,57 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>26</v>
+      <c r="E92" s="9">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9">
+        <v>0</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
@@ -2341,34 +3336,64 @@
       <c r="I93" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="11">
+        <v>0</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11">
+        <v>0</v>
+      </c>
+      <c r="M93" s="11">
+        <v>0</v>
+      </c>
+      <c r="N93" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -2387,8 +3412,23 @@
       <c r="I95" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="13">
+        <v>0</v>
+      </c>
+      <c r="K95" s="13">
+        <v>0</v>
+      </c>
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
+        <v>0</v>
+      </c>
+      <c r="N95" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2397,8 +3437,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2407,8 +3452,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2417,10 +3467,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2439,8 +3494,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2449,80 +3519,130 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>26</v>
+      <c r="E101" s="9">
+        <v>6802</v>
+      </c>
+      <c r="F101" s="9">
+        <v>6802</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>10179</v>
+      </c>
+      <c r="F102" s="11">
+        <v>22312</v>
+      </c>
+      <c r="G102" s="11">
+        <v>26500</v>
+      </c>
+      <c r="H102" s="11">
+        <v>20281</v>
+      </c>
+      <c r="I102" s="11">
+        <v>32372</v>
+      </c>
+      <c r="J102" s="11">
         <v>60583</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>85386</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>50089</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>50089</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>50089</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2531,8 +3651,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2541,8 +3666,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2551,10 +3681,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2573,8 +3708,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2583,80 +3733,130 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>26</v>
+      <c r="E109" s="9">
+        <v>6802</v>
+      </c>
+      <c r="F109" s="9">
+        <v>6802</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>10179</v>
+      </c>
+      <c r="F110" s="11">
+        <v>22312</v>
+      </c>
+      <c r="G110" s="11">
+        <v>26500</v>
+      </c>
+      <c r="H110" s="11">
+        <v>20281</v>
+      </c>
+      <c r="I110" s="11">
+        <v>32372</v>
+      </c>
+      <c r="J110" s="11">
         <v>60583</v>
       </c>
-      <c r="F110" s="11">
+      <c r="K110" s="11">
         <v>85386</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>50089</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>50089</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>50089</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M111" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2665,8 +3865,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2675,8 +3880,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2685,10 +3895,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2707,8 +3922,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2717,10 +3947,15 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2739,10 +3974,25 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -2761,10 +4011,25 @@
       <c r="I118" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="11">
+        <v>0</v>
+      </c>
+      <c r="K118" s="11">
+        <v>0</v>
+      </c>
+      <c r="L118" s="11">
+        <v>0</v>
+      </c>
+      <c r="M118" s="11">
+        <v>0</v>
+      </c>
+      <c r="N118" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -2783,10 +4048,25 @@
       <c r="I119" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="9">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9">
+        <v>0</v>
+      </c>
+      <c r="L119" s="9">
+        <v>0</v>
+      </c>
+      <c r="M119" s="9">
+        <v>0</v>
+      </c>
+      <c r="N119" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -2805,43 +4085,73 @@
       <c r="I120" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="11">
+        <v>0</v>
+      </c>
+      <c r="K120" s="11">
+        <v>0</v>
+      </c>
+      <c r="L120" s="11">
+        <v>0</v>
+      </c>
+      <c r="M120" s="11">
+        <v>0</v>
+      </c>
+      <c r="N120" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>204730</v>
+      </c>
+      <c r="F121" s="9">
+        <v>203360</v>
+      </c>
+      <c r="G121" s="9">
+        <v>460099</v>
+      </c>
+      <c r="H121" s="9">
+        <v>194335</v>
+      </c>
+      <c r="I121" s="9">
+        <v>455574</v>
+      </c>
+      <c r="J121" s="9">
         <v>83060</v>
       </c>
-      <c r="F121" s="9">
+      <c r="K121" s="9">
         <v>1662789</v>
       </c>
-      <c r="G121" s="9">
+      <c r="L121" s="9">
         <v>268969</v>
       </c>
-      <c r="H121" s="9">
+      <c r="M121" s="9">
         <v>873627</v>
       </c>
-      <c r="I121" s="9">
+      <c r="N121" s="9">
         <v>52559</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>0</v>
+        <v>1683</v>
       </c>
       <c r="F122" s="11">
-        <v>0</v>
+        <v>1079</v>
       </c>
       <c r="G122" s="11">
-        <v>0</v>
+        <v>-2929</v>
       </c>
       <c r="H122" s="11">
         <v>0</v>
@@ -2849,54 +4159,99 @@
       <c r="I122" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="11">
+        <v>0</v>
+      </c>
+      <c r="K122" s="11">
+        <v>0</v>
+      </c>
+      <c r="L122" s="11">
+        <v>0</v>
+      </c>
+      <c r="M122" s="11">
+        <v>0</v>
+      </c>
+      <c r="N122" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
+        <v>166334</v>
+      </c>
+      <c r="F123" s="9">
+        <v>165796</v>
+      </c>
+      <c r="G123" s="9">
+        <v>222963</v>
+      </c>
+      <c r="H123" s="9">
+        <v>190851</v>
+      </c>
+      <c r="I123" s="9">
+        <v>260643</v>
+      </c>
+      <c r="J123" s="9">
         <v>212553</v>
       </c>
-      <c r="F123" s="9">
+      <c r="K123" s="9">
         <v>273324</v>
       </c>
-      <c r="G123" s="9">
+      <c r="L123" s="9">
         <v>265061</v>
       </c>
-      <c r="H123" s="9">
+      <c r="M123" s="9">
         <v>319007</v>
       </c>
-      <c r="I123" s="9">
+      <c r="N123" s="9">
         <v>343777</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
+        <v>876919</v>
+      </c>
+      <c r="F124" s="11">
+        <v>563431</v>
+      </c>
+      <c r="G124" s="11">
+        <v>957954</v>
+      </c>
+      <c r="H124" s="11">
+        <v>1048416</v>
+      </c>
+      <c r="I124" s="11">
+        <v>1532913</v>
+      </c>
+      <c r="J124" s="11">
         <v>366863</v>
       </c>
-      <c r="F124" s="11">
+      <c r="K124" s="11">
         <v>1780345</v>
       </c>
-      <c r="G124" s="11">
+      <c r="L124" s="11">
         <v>1889046</v>
       </c>
-      <c r="H124" s="11">
+      <c r="M124" s="11">
         <v>1492083</v>
       </c>
-      <c r="I124" s="11">
+      <c r="N124" s="11">
         <v>1749031</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -2915,52 +4270,97 @@
       <c r="I125" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="9">
+        <v>0</v>
+      </c>
+      <c r="K125" s="9">
+        <v>0</v>
+      </c>
+      <c r="L125" s="9">
+        <v>0</v>
+      </c>
+      <c r="M125" s="9">
+        <v>0</v>
+      </c>
+      <c r="N125" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>842342</v>
+      </c>
+      <c r="F126" s="11">
+        <v>442613</v>
+      </c>
+      <c r="G126" s="11">
+        <v>11183670</v>
+      </c>
+      <c r="H126" s="11">
+        <v>3524185</v>
+      </c>
+      <c r="I126" s="11">
+        <v>4553557</v>
+      </c>
+      <c r="J126" s="11">
         <v>4050453</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>25832320</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>7716272</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>6964825</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>6825609</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
+        <v>2092008</v>
+      </c>
+      <c r="F127" s="15">
+        <v>1376279</v>
+      </c>
+      <c r="G127" s="15">
+        <v>12821757</v>
+      </c>
+      <c r="H127" s="15">
+        <v>4957787</v>
+      </c>
+      <c r="I127" s="15">
+        <v>6802687</v>
+      </c>
+      <c r="J127" s="15">
         <v>4712929</v>
       </c>
-      <c r="F127" s="15">
+      <c r="K127" s="15">
         <v>29548778</v>
       </c>
-      <c r="G127" s="15">
+      <c r="L127" s="15">
         <v>10139348</v>
       </c>
-      <c r="H127" s="15">
+      <c r="M127" s="15">
         <v>9649542</v>
       </c>
-      <c r="I127" s="15">
+      <c r="N127" s="15">
         <v>8970976</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2969,8 +4369,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2979,8 +4384,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2989,10 +4399,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3001,8 +4416,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3011,13 +4431,18 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -3025,13 +4450,18 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -3039,13 +4469,18 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -3053,101 +4488,106 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>

--- a/database/industries/methanol/zagros/cost/quarterly.xlsx
+++ b/database/industries/methanol/zagros/cost/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83066CF3-89DC-4EDD-8174-A98CA2C9C4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CECE977-E12F-4026-AD1B-29CCF97E412A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -97,25 +97,25 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>گاز اکسیژن</t>
+  </si>
+  <si>
+    <t>متر مکعب</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>گاز اکسیژن</t>
-  </si>
-  <si>
-    <t>متر مکعب</t>
   </si>
   <si>
     <t>گاز خوراک</t>
@@ -732,12 +732,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -752,7 +752,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -801,7 +801,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -850,7 +850,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -902,155 +902,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>9063325</v>
+        <v>18232383</v>
       </c>
       <c r="F10" s="9">
-        <v>18232383</v>
+        <v>8912231</v>
       </c>
       <c r="G10" s="9">
-        <v>8912231</v>
+        <v>14951267</v>
       </c>
       <c r="H10" s="9">
-        <v>14951267</v>
+        <v>20809319</v>
       </c>
       <c r="I10" s="9">
-        <v>20809319</v>
+        <v>27533527</v>
       </c>
       <c r="J10" s="9">
-        <v>27533527</v>
+        <v>41770886</v>
       </c>
       <c r="K10" s="9">
-        <v>41770886</v>
+        <v>33266140</v>
       </c>
       <c r="L10" s="9">
-        <v>33266140</v>
+        <v>29733894</v>
       </c>
       <c r="M10" s="9">
-        <v>29733894</v>
+        <v>28604286</v>
       </c>
       <c r="N10" s="9">
-        <v>28604286</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16206626</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>122315</v>
+        <v>90149</v>
       </c>
       <c r="F11" s="11">
-        <v>90149</v>
+        <v>168965</v>
       </c>
       <c r="G11" s="11">
-        <v>168965</v>
+        <v>185264</v>
       </c>
       <c r="H11" s="11">
-        <v>185264</v>
+        <v>268472</v>
       </c>
       <c r="I11" s="11">
-        <v>268472</v>
+        <v>51263</v>
       </c>
       <c r="J11" s="11">
-        <v>51263</v>
+        <v>303339</v>
       </c>
       <c r="K11" s="11">
-        <v>303339</v>
+        <v>327183</v>
       </c>
       <c r="L11" s="11">
-        <v>327183</v>
+        <v>242870</v>
       </c>
       <c r="M11" s="11">
-        <v>242870</v>
+        <v>286356</v>
       </c>
       <c r="N11" s="11">
-        <v>286356</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>396205</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>2092008</v>
+        <v>1376279</v>
       </c>
       <c r="F12" s="9">
-        <v>1376279</v>
+        <v>12821757</v>
       </c>
       <c r="G12" s="9">
-        <v>12821757</v>
+        <v>4957787</v>
       </c>
       <c r="H12" s="9">
-        <v>4957787</v>
+        <v>6802687</v>
       </c>
       <c r="I12" s="9">
-        <v>6802687</v>
+        <v>4712929</v>
       </c>
       <c r="J12" s="9">
-        <v>4712929</v>
+        <v>29548778</v>
       </c>
       <c r="K12" s="9">
-        <v>29548778</v>
+        <v>10139348</v>
       </c>
       <c r="L12" s="9">
-        <v>10139348</v>
+        <v>9649542</v>
       </c>
       <c r="M12" s="9">
-        <v>9649542</v>
+        <v>8970976</v>
       </c>
       <c r="N12" s="9">
-        <v>8970976</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9724491</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>11277648</v>
+        <v>19698811</v>
       </c>
       <c r="F13" s="13">
-        <v>19698811</v>
+        <v>21902953</v>
       </c>
       <c r="G13" s="13">
-        <v>21902953</v>
+        <v>20094318</v>
       </c>
       <c r="H13" s="13">
-        <v>20094318</v>
+        <v>27880478</v>
       </c>
       <c r="I13" s="13">
-        <v>27880478</v>
+        <v>32297719</v>
       </c>
       <c r="J13" s="13">
-        <v>32297719</v>
+        <v>71623003</v>
       </c>
       <c r="K13" s="13">
-        <v>71623003</v>
+        <v>43732671</v>
       </c>
       <c r="L13" s="13">
-        <v>43732671</v>
+        <v>39626306</v>
       </c>
       <c r="M13" s="13">
-        <v>39626306</v>
+        <v>37861618</v>
       </c>
       <c r="N13" s="13">
-        <v>37861618</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26327322</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1087,81 +1087,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>11277648</v>
+        <v>19698811</v>
       </c>
       <c r="F15" s="13">
-        <v>19698811</v>
+        <v>21902953</v>
       </c>
       <c r="G15" s="13">
-        <v>21902953</v>
+        <v>20094318</v>
       </c>
       <c r="H15" s="13">
-        <v>20094318</v>
+        <v>27880478</v>
       </c>
       <c r="I15" s="13">
-        <v>27880478</v>
+        <v>32297719</v>
       </c>
       <c r="J15" s="13">
-        <v>32297719</v>
+        <v>71623003</v>
       </c>
       <c r="K15" s="13">
-        <v>71623003</v>
+        <v>43732671</v>
       </c>
       <c r="L15" s="13">
-        <v>43732671</v>
+        <v>39626306</v>
       </c>
       <c r="M15" s="13">
-        <v>39626306</v>
+        <v>37861618</v>
       </c>
       <c r="N15" s="13">
-        <v>37861618</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26327322</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-18604</v>
+        <v>18604</v>
       </c>
       <c r="F16" s="9">
-        <v>18604</v>
+        <v>-32341</v>
       </c>
       <c r="G16" s="9">
-        <v>-32341</v>
+        <v>32341</v>
       </c>
       <c r="H16" s="9">
-        <v>32341</v>
+        <v>-43722</v>
       </c>
       <c r="I16" s="9">
-        <v>-43722</v>
+        <v>43722</v>
       </c>
       <c r="J16" s="9">
-        <v>43722</v>
+        <v>-74793</v>
       </c>
       <c r="K16" s="9">
-        <v>-74793</v>
+        <v>74793</v>
       </c>
       <c r="L16" s="9">
-        <v>74793</v>
+        <v>-108855</v>
       </c>
       <c r="M16" s="9">
-        <v>-108855</v>
+        <v>108855</v>
       </c>
       <c r="N16" s="9">
-        <v>108855</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-179631</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1198,44 +1198,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>11259044</v>
+        <v>19717415</v>
       </c>
       <c r="F18" s="15">
-        <v>19717415</v>
+        <v>21870612</v>
       </c>
       <c r="G18" s="15">
-        <v>21870612</v>
+        <v>20126659</v>
       </c>
       <c r="H18" s="15">
-        <v>20126659</v>
+        <v>27836756</v>
       </c>
       <c r="I18" s="15">
-        <v>27836756</v>
+        <v>32341441</v>
       </c>
       <c r="J18" s="15">
-        <v>32341441</v>
+        <v>71548210</v>
       </c>
       <c r="K18" s="15">
-        <v>71548210</v>
+        <v>43807464</v>
       </c>
       <c r="L18" s="15">
-        <v>43807464</v>
+        <v>39517451</v>
       </c>
       <c r="M18" s="15">
-        <v>39517451</v>
+        <v>37970473</v>
       </c>
       <c r="N18" s="15">
-        <v>37970473</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26147691</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1245,182 +1245,182 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>987216</v>
       </c>
       <c r="G19" s="11">
-        <v>467568</v>
+        <v>917924</v>
       </c>
       <c r="H19" s="11">
-        <v>917924</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>2146303</v>
       </c>
       <c r="K19" s="11">
-        <v>439922</v>
+        <v>5898432</v>
       </c>
       <c r="L19" s="11">
-        <v>5898432</v>
+        <v>8162443</v>
       </c>
       <c r="M19" s="11">
-        <v>8162443</v>
+        <v>496196</v>
       </c>
       <c r="N19" s="11">
-        <v>496196</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8432649</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-569988</v>
+        <v>467568</v>
       </c>
       <c r="F20" s="9">
-        <v>467568</v>
-      </c>
-      <c r="G20" s="9" t="s">
+        <v>-917924</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-1174241</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-532140</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-439922</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-6524636</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-8162443</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-496196</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-8432649</v>
+      </c>
+      <c r="N20" s="9">
+        <v>-6617105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="H20" s="9">
-        <v>-1174241</v>
-      </c>
-      <c r="I20" s="9">
-        <v>-532140</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-439922</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-6524636</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-8162443</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-496196</v>
-      </c>
-      <c r="N20" s="9">
-        <v>-8432649</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>10689056</v>
+        <v>20184983</v>
       </c>
       <c r="F21" s="13">
-        <v>20184983</v>
+        <v>21939904</v>
       </c>
       <c r="G21" s="13">
-        <v>21939904</v>
+        <v>19870342</v>
       </c>
       <c r="H21" s="13">
-        <v>19870342</v>
+        <v>27304616</v>
       </c>
       <c r="I21" s="13">
-        <v>27304616</v>
+        <v>31901519</v>
       </c>
       <c r="J21" s="13">
-        <v>31901519</v>
+        <v>67169877</v>
       </c>
       <c r="K21" s="13">
-        <v>67169877</v>
+        <v>41543453</v>
       </c>
       <c r="L21" s="13">
-        <v>41543453</v>
+        <v>47809902</v>
       </c>
       <c r="M21" s="13">
-        <v>47809902</v>
+        <v>30034020</v>
       </c>
       <c r="N21" s="13">
-        <v>30034020</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27963235</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>1701583</v>
       </c>
       <c r="F22" s="9">
-        <v>1701583</v>
+        <v>-1701583</v>
       </c>
       <c r="G22" s="9">
-        <v>-1701583</v>
+        <v>1022793</v>
       </c>
       <c r="H22" s="9">
-        <v>1022793</v>
+        <v>1632156</v>
       </c>
       <c r="I22" s="9">
-        <v>1632156</v>
+        <v>385305</v>
       </c>
       <c r="J22" s="9">
-        <v>385305</v>
+        <v>-3040254</v>
       </c>
       <c r="K22" s="9">
-        <v>-3040254</v>
+        <v>2598084</v>
       </c>
       <c r="L22" s="9">
-        <v>2598084</v>
+        <v>-2598084</v>
       </c>
       <c r="M22" s="9">
-        <v>-2598084</v>
+        <v>0</v>
       </c>
       <c r="N22" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>10689056</v>
+        <v>21886566</v>
       </c>
       <c r="F23" s="13">
-        <v>21886566</v>
+        <v>20238321</v>
       </c>
       <c r="G23" s="13">
-        <v>20238321</v>
+        <v>20893135</v>
       </c>
       <c r="H23" s="13">
-        <v>20893135</v>
+        <v>28936772</v>
       </c>
       <c r="I23" s="13">
-        <v>28936772</v>
+        <v>32286824</v>
       </c>
       <c r="J23" s="13">
-        <v>32286824</v>
+        <v>64129623</v>
       </c>
       <c r="K23" s="13">
-        <v>64129623</v>
+        <v>44141537</v>
       </c>
       <c r="L23" s="13">
-        <v>44141537</v>
+        <v>45211818</v>
       </c>
       <c r="M23" s="13">
-        <v>45211818</v>
+        <v>30034020</v>
       </c>
       <c r="N23" s="13">
-        <v>30034020</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27963235</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1435,7 +1435,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1450,7 +1450,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1465,9 +1465,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1517,51 +1517,51 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
         <v>0</v>
       </c>
-      <c r="F29" s="9">
-        <v>0</v>
+      <c r="F29" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1604,37 +1604,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>17</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1686,7 +1686,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1701,7 +1701,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1716,7 +1716,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1768,85 +1768,85 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>307240700</v>
-      </c>
-      <c r="F38" s="9">
         <v>308151369</v>
       </c>
+      <c r="F38" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>685114591</v>
+        <v>723223052</v>
       </c>
       <c r="F39" s="11">
-        <v>723223052</v>
+        <v>582358299</v>
       </c>
       <c r="G39" s="11">
-        <v>582358299</v>
+        <v>737215879</v>
       </c>
       <c r="H39" s="11">
-        <v>737215879</v>
+        <v>642819696</v>
       </c>
       <c r="I39" s="11">
-        <v>642819696</v>
+        <v>454478711</v>
       </c>
       <c r="J39" s="11">
-        <v>454478711</v>
+        <v>489202226</v>
       </c>
       <c r="K39" s="11">
-        <v>489202226</v>
+        <v>664140620</v>
       </c>
       <c r="L39" s="11">
-        <v>664140620</v>
+        <v>593621250</v>
       </c>
       <c r="M39" s="11">
-        <v>593621250</v>
+        <v>571069216</v>
       </c>
       <c r="N39" s="11">
-        <v>571069216</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>323127267</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>33</v>
       </c>
@@ -1855,74 +1855,74 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>992355291</v>
+        <v>1031374421</v>
       </c>
       <c r="F41" s="13">
-        <v>1031374421</v>
+        <v>582358299</v>
       </c>
       <c r="G41" s="13">
-        <v>582358299</v>
+        <v>737215879</v>
       </c>
       <c r="H41" s="13">
-        <v>737215879</v>
+        <v>642819696</v>
       </c>
       <c r="I41" s="13">
-        <v>642819696</v>
+        <v>454478711</v>
       </c>
       <c r="J41" s="13">
-        <v>454478711</v>
+        <v>489202226</v>
       </c>
       <c r="K41" s="13">
-        <v>489202226</v>
+        <v>664140620</v>
       </c>
       <c r="L41" s="13">
-        <v>664140620</v>
+        <v>593621250</v>
       </c>
       <c r="M41" s="13">
-        <v>593621250</v>
+        <v>571069216</v>
       </c>
       <c r="N41" s="13">
-        <v>571069216</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>323127267</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1937,7 +1937,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1952,7 +1952,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1967,7 +1967,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>36</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2019,85 +2019,85 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>307240700</v>
-      </c>
-      <c r="F47" s="9">
         <v>308151369</v>
       </c>
+      <c r="F47" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>685114591</v>
+        <v>723223052</v>
       </c>
       <c r="F48" s="11">
-        <v>723223052</v>
+        <v>582358299</v>
       </c>
       <c r="G48" s="11">
-        <v>582358299</v>
+        <v>737215879</v>
       </c>
       <c r="H48" s="11">
-        <v>737215879</v>
+        <v>642819696</v>
       </c>
       <c r="I48" s="11">
-        <v>642819696</v>
+        <v>454478711</v>
       </c>
       <c r="J48" s="11">
-        <v>454478711</v>
+        <v>489202226</v>
       </c>
       <c r="K48" s="11">
-        <v>489202226</v>
+        <v>664140620</v>
       </c>
       <c r="L48" s="11">
-        <v>664140620</v>
+        <v>593621250</v>
       </c>
       <c r="M48" s="11">
-        <v>593621250</v>
+        <v>571069216</v>
       </c>
       <c r="N48" s="11">
-        <v>571069216</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>323127267</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
@@ -2106,74 +2106,74 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>992355291</v>
+        <v>1031374421</v>
       </c>
       <c r="F50" s="13">
-        <v>1031374421</v>
+        <v>582358299</v>
       </c>
       <c r="G50" s="13">
-        <v>582358299</v>
+        <v>737215879</v>
       </c>
       <c r="H50" s="13">
-        <v>737215879</v>
+        <v>642819696</v>
       </c>
       <c r="I50" s="13">
-        <v>642819696</v>
+        <v>454478711</v>
       </c>
       <c r="J50" s="13">
-        <v>454478711</v>
+        <v>489202226</v>
       </c>
       <c r="K50" s="13">
-        <v>489202226</v>
+        <v>664140620</v>
       </c>
       <c r="L50" s="13">
-        <v>664140620</v>
+        <v>593621250</v>
       </c>
       <c r="M50" s="13">
-        <v>593621250</v>
+        <v>571069216</v>
       </c>
       <c r="N50" s="13">
-        <v>571069216</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>323127267</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2188,7 +2188,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2203,7 +2203,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2218,7 +2218,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>37</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2270,51 +2270,51 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
         <v>0</v>
       </c>
-      <c r="F56" s="9">
-        <v>0</v>
+      <c r="F56" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>33</v>
       </c>
@@ -2357,37 +2357,37 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>17</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2439,7 +2439,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2454,7 +2454,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2469,7 +2469,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>38</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2521,9 +2521,9 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>39</v>
@@ -2532,35 +2532,35 @@
       <c r="E65" s="9">
         <v>0</v>
       </c>
-      <c r="F65" s="9">
-        <v>0</v>
+      <c r="F65" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>32</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
@@ -2608,37 +2608,37 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>17</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2690,7 +2690,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2705,7 +2705,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2720,7 +2720,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>40</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2772,46 +2772,46 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <v>2089852</v>
-      </c>
-      <c r="F74" s="9">
         <v>2096044</v>
       </c>
+      <c r="F74" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>32</v>
       </c>
@@ -2820,37 +2820,37 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>6973473</v>
+        <v>16136339</v>
       </c>
       <c r="F75" s="11">
-        <v>16136339</v>
+        <v>15432712</v>
       </c>
       <c r="G75" s="11">
-        <v>15432712</v>
+        <v>14951267</v>
       </c>
       <c r="H75" s="11">
-        <v>14951267</v>
+        <v>20809319</v>
       </c>
       <c r="I75" s="11">
-        <v>20809319</v>
+        <v>27533527</v>
       </c>
       <c r="J75" s="11">
-        <v>27533527</v>
+        <v>41770886</v>
       </c>
       <c r="K75" s="11">
-        <v>41770886</v>
+        <v>33266140</v>
       </c>
       <c r="L75" s="11">
-        <v>33266140</v>
+        <v>29733894</v>
       </c>
       <c r="M75" s="11">
-        <v>29733894</v>
+        <v>28604286</v>
       </c>
       <c r="N75" s="11">
-        <v>28604286</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16206626</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>33</v>
       </c>
@@ -2859,74 +2859,74 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>9063325</v>
+        <v>18232383</v>
       </c>
       <c r="F77" s="13">
-        <v>18232383</v>
+        <v>15432712</v>
       </c>
       <c r="G77" s="13">
-        <v>15432712</v>
+        <v>14951267</v>
       </c>
       <c r="H77" s="13">
-        <v>14951267</v>
+        <v>20809319</v>
       </c>
       <c r="I77" s="13">
-        <v>20809319</v>
+        <v>27533527</v>
       </c>
       <c r="J77" s="13">
-        <v>27533527</v>
+        <v>41770886</v>
       </c>
       <c r="K77" s="13">
-        <v>41770886</v>
+        <v>33266140</v>
       </c>
       <c r="L77" s="13">
-        <v>33266140</v>
+        <v>29733894</v>
       </c>
       <c r="M77" s="13">
-        <v>29733894</v>
+        <v>28604286</v>
       </c>
       <c r="N77" s="13">
-        <v>28604286</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16206626</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2941,7 +2941,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2956,7 +2956,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2971,7 +2971,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>41</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3023,46 +3023,46 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>2089852</v>
-      </c>
-      <c r="F83" s="9">
         <v>2096044</v>
       </c>
+      <c r="F83" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>32</v>
       </c>
@@ -3071,37 +3071,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>6973473</v>
+        <v>16136339</v>
       </c>
       <c r="F84" s="11">
-        <v>16136339</v>
+        <v>15432712</v>
       </c>
       <c r="G84" s="11">
-        <v>15432712</v>
+        <v>14951267</v>
       </c>
       <c r="H84" s="11">
-        <v>14951267</v>
+        <v>20809319</v>
       </c>
       <c r="I84" s="11">
-        <v>20809319</v>
+        <v>27533527</v>
       </c>
       <c r="J84" s="11">
-        <v>27533527</v>
+        <v>41770886</v>
       </c>
       <c r="K84" s="11">
-        <v>41770886</v>
+        <v>33266140</v>
       </c>
       <c r="L84" s="11">
-        <v>33266140</v>
+        <v>29733894</v>
       </c>
       <c r="M84" s="11">
-        <v>29733894</v>
+        <v>28604286</v>
       </c>
       <c r="N84" s="11">
-        <v>28604286</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16206626</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>33</v>
       </c>
@@ -3110,74 +3110,74 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>9063325</v>
+        <v>18232383</v>
       </c>
       <c r="F86" s="13">
-        <v>18232383</v>
+        <v>15432712</v>
       </c>
       <c r="G86" s="13">
-        <v>15432712</v>
+        <v>14951267</v>
       </c>
       <c r="H86" s="13">
-        <v>14951267</v>
+        <v>20809319</v>
       </c>
       <c r="I86" s="13">
-        <v>20809319</v>
+        <v>27533527</v>
       </c>
       <c r="J86" s="13">
-        <v>27533527</v>
+        <v>41770886</v>
       </c>
       <c r="K86" s="13">
-        <v>41770886</v>
+        <v>33266140</v>
       </c>
       <c r="L86" s="13">
-        <v>33266140</v>
+        <v>29733894</v>
       </c>
       <c r="M86" s="13">
-        <v>29733894</v>
+        <v>28604286</v>
       </c>
       <c r="N86" s="13">
-        <v>28604286</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16206626</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3192,7 +3192,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3207,7 +3207,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3222,7 +3222,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>42</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3274,9 +3274,9 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>39</v>
@@ -3285,35 +3285,35 @@
       <c r="E92" s="9">
         <v>0</v>
       </c>
-      <c r="F92" s="9">
-        <v>0</v>
+      <c r="F92" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N92" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>32</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>33</v>
       </c>
@@ -3361,37 +3361,37 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>17</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3443,7 +3443,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3458,7 +3458,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3473,7 +3473,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>43</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3525,9 +3525,9 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>44</v>
@@ -3536,35 +3536,35 @@
       <c r="E101" s="9">
         <v>6802</v>
       </c>
-      <c r="F101" s="9">
-        <v>6802</v>
+      <c r="F101" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>32</v>
       </c>
@@ -3573,25 +3573,25 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>10179</v>
+        <v>22312</v>
       </c>
       <c r="F102" s="11">
-        <v>22312</v>
+        <v>26500</v>
       </c>
       <c r="G102" s="11">
-        <v>26500</v>
+        <v>20281</v>
       </c>
       <c r="H102" s="11">
-        <v>20281</v>
+        <v>32372</v>
       </c>
       <c r="I102" s="11">
-        <v>32372</v>
+        <v>60583</v>
       </c>
       <c r="J102" s="11">
-        <v>60583</v>
+        <v>85386</v>
       </c>
       <c r="K102" s="11">
-        <v>85386</v>
+        <v>50089</v>
       </c>
       <c r="L102" s="11">
         <v>50089</v>
@@ -3600,10 +3600,10 @@
         <v>50089</v>
       </c>
       <c r="N102" s="11">
-        <v>50089</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>50156</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>33</v>
       </c>
@@ -3612,37 +3612,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3657,7 +3657,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3672,7 +3672,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3687,7 +3687,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>46</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3739,9 +3739,9 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>44</v>
@@ -3750,35 +3750,35 @@
       <c r="E109" s="9">
         <v>6802</v>
       </c>
-      <c r="F109" s="9">
-        <v>6802</v>
+      <c r="F109" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>32</v>
       </c>
@@ -3787,25 +3787,25 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>10179</v>
+        <v>22312</v>
       </c>
       <c r="F110" s="11">
-        <v>22312</v>
+        <v>26500</v>
       </c>
       <c r="G110" s="11">
-        <v>26500</v>
+        <v>20281</v>
       </c>
       <c r="H110" s="11">
-        <v>20281</v>
+        <v>32372</v>
       </c>
       <c r="I110" s="11">
-        <v>32372</v>
+        <v>60583</v>
       </c>
       <c r="J110" s="11">
-        <v>60583</v>
+        <v>85386</v>
       </c>
       <c r="K110" s="11">
-        <v>85386</v>
+        <v>50089</v>
       </c>
       <c r="L110" s="11">
         <v>50089</v>
@@ -3814,10 +3814,10 @@
         <v>50089</v>
       </c>
       <c r="N110" s="11">
-        <v>50089</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>50156</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>33</v>
       </c>
@@ -3826,37 +3826,37 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N111" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3871,7 +3871,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3886,7 +3886,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3901,7 +3901,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>47</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3953,7 +3953,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>48</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>49</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>50</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>51</v>
       </c>
@@ -4101,57 +4101,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>204730</v>
+        <v>203360</v>
       </c>
       <c r="F121" s="9">
-        <v>203360</v>
+        <v>460099</v>
       </c>
       <c r="G121" s="9">
-        <v>460099</v>
+        <v>194335</v>
       </c>
       <c r="H121" s="9">
-        <v>194335</v>
+        <v>455574</v>
       </c>
       <c r="I121" s="9">
-        <v>455574</v>
+        <v>83060</v>
       </c>
       <c r="J121" s="9">
-        <v>83060</v>
+        <v>1662789</v>
       </c>
       <c r="K121" s="9">
-        <v>1662789</v>
+        <v>268969</v>
       </c>
       <c r="L121" s="9">
-        <v>268969</v>
+        <v>873627</v>
       </c>
       <c r="M121" s="9">
-        <v>873627</v>
+        <v>52559</v>
       </c>
       <c r="N121" s="9">
-        <v>52559</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1375749</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>1683</v>
+        <v>1079</v>
       </c>
       <c r="F122" s="11">
-        <v>1079</v>
+        <v>-2929</v>
       </c>
       <c r="G122" s="11">
-        <v>-2929</v>
+        <v>0</v>
       </c>
       <c r="H122" s="11">
         <v>0</v>
@@ -4175,81 +4175,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>166334</v>
+        <v>165796</v>
       </c>
       <c r="F123" s="9">
-        <v>165796</v>
+        <v>222963</v>
       </c>
       <c r="G123" s="9">
-        <v>222963</v>
+        <v>190851</v>
       </c>
       <c r="H123" s="9">
-        <v>190851</v>
+        <v>260643</v>
       </c>
       <c r="I123" s="9">
-        <v>260643</v>
+        <v>212553</v>
       </c>
       <c r="J123" s="9">
-        <v>212553</v>
+        <v>273324</v>
       </c>
       <c r="K123" s="9">
-        <v>273324</v>
+        <v>265061</v>
       </c>
       <c r="L123" s="9">
-        <v>265061</v>
+        <v>319007</v>
       </c>
       <c r="M123" s="9">
-        <v>319007</v>
+        <v>343777</v>
       </c>
       <c r="N123" s="9">
-        <v>343777</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>340207</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>876919</v>
+        <v>563431</v>
       </c>
       <c r="F124" s="11">
-        <v>563431</v>
+        <v>957954</v>
       </c>
       <c r="G124" s="11">
-        <v>957954</v>
+        <v>1048416</v>
       </c>
       <c r="H124" s="11">
-        <v>1048416</v>
+        <v>1532913</v>
       </c>
       <c r="I124" s="11">
-        <v>1532913</v>
+        <v>366863</v>
       </c>
       <c r="J124" s="11">
-        <v>366863</v>
+        <v>1780345</v>
       </c>
       <c r="K124" s="11">
-        <v>1780345</v>
+        <v>1889046</v>
       </c>
       <c r="L124" s="11">
-        <v>1889046</v>
+        <v>1492083</v>
       </c>
       <c r="M124" s="11">
-        <v>1492083</v>
+        <v>1749031</v>
       </c>
       <c r="N124" s="11">
-        <v>1749031</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2549825</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>56</v>
       </c>
@@ -4286,81 +4286,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>842342</v>
+        <v>442613</v>
       </c>
       <c r="F126" s="11">
-        <v>442613</v>
+        <v>11183670</v>
       </c>
       <c r="G126" s="11">
-        <v>11183670</v>
+        <v>3524185</v>
       </c>
       <c r="H126" s="11">
-        <v>3524185</v>
+        <v>4553557</v>
       </c>
       <c r="I126" s="11">
-        <v>4553557</v>
+        <v>4050453</v>
       </c>
       <c r="J126" s="11">
-        <v>4050453</v>
+        <v>25832320</v>
       </c>
       <c r="K126" s="11">
-        <v>25832320</v>
+        <v>7716272</v>
       </c>
       <c r="L126" s="11">
-        <v>7716272</v>
+        <v>6964825</v>
       </c>
       <c r="M126" s="11">
-        <v>6964825</v>
+        <v>6825609</v>
       </c>
       <c r="N126" s="11">
-        <v>6825609</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5458710</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
-        <v>2092008</v>
+        <v>1376279</v>
       </c>
       <c r="F127" s="15">
-        <v>1376279</v>
+        <v>12821757</v>
       </c>
       <c r="G127" s="15">
-        <v>12821757</v>
+        <v>4957787</v>
       </c>
       <c r="H127" s="15">
-        <v>4957787</v>
+        <v>6802687</v>
       </c>
       <c r="I127" s="15">
-        <v>6802687</v>
+        <v>4712929</v>
       </c>
       <c r="J127" s="15">
-        <v>4712929</v>
+        <v>29548778</v>
       </c>
       <c r="K127" s="15">
-        <v>29548778</v>
+        <v>10139348</v>
       </c>
       <c r="L127" s="15">
-        <v>10139348</v>
+        <v>9649542</v>
       </c>
       <c r="M127" s="15">
-        <v>9649542</v>
+        <v>8970976</v>
       </c>
       <c r="N127" s="15">
-        <v>8970976</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9724491</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4375,7 +4375,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4390,7 +4390,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4405,7 +4405,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>58</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4437,7 +4437,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>59</v>
       </c>
@@ -4456,7 +4456,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>61</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>63</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>65</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>67</v>
       </c>
@@ -4516,7 +4516,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>69</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>71</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>73</v>
       </c>
@@ -4549,7 +4549,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>75</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>77</v>
       </c>
@@ -4571,7 +4571,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>79</v>
       </c>
@@ -4582,7 +4582,7 @@
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>81</v>
       </c>

--- a/database/industries/methanol/zagros/cost/quarterly.xlsx
+++ b/database/industries/methanol/zagros/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF87399-E71D-462F-AE92-FCE39048C319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB147121-BC51-40C0-9616-30182D766675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,33 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1397/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +91,9 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -109,30 +139,30 @@
     <t>مقدار موجودی اول دوره</t>
   </si>
   <si>
+    <t>گاز طبیعی - خوراک</t>
+  </si>
+  <si>
+    <t>متر مکعب</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>گاز خوراک</t>
+  </si>
+  <si>
+    <t>SM3</t>
+  </si>
+  <si>
+    <t>استاندارد متر مکعب</t>
+  </si>
+  <si>
     <t>اکسیژن</t>
   </si>
   <si>
-    <t>متر مکعب</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>گاز خوراک</t>
-  </si>
-  <si>
-    <t>استاندارد متر مکعب</t>
-  </si>
-  <si>
-    <t>SM3</t>
-  </si>
-  <si>
     <t>NM3</t>
   </si>
   <si>
-    <t>گاز طبیعی - خوراک</t>
-  </si>
-  <si>
     <t>مقدار خرید طی دوره</t>
   </si>
   <si>
@@ -161,6 +191,9 @@
   </si>
   <si>
     <t>متر مکعب / ریال</t>
+  </si>
+  <si>
+    <t>استاندارد متر مکعب / ریال</t>
   </si>
   <si>
     <t>نرخ مصرف طی دوره</t>
@@ -731,18 +764,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N166"/>
+  <dimension ref="B1:X166"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -756,8 +787,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,8 +814,18 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -790,8 +841,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -805,8 +866,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -822,8 +893,18 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -839,8 +920,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -854,8 +945,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -891,8 +992,38 @@
       <c r="N8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -906,158 +1037,288 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>7763769</v>
+      </c>
+      <c r="F10" s="9">
+        <v>10178674</v>
+      </c>
+      <c r="G10" s="9">
+        <v>7377026</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5816766</v>
+      </c>
+      <c r="I10" s="9">
+        <v>6576962</v>
+      </c>
+      <c r="J10" s="9">
+        <v>8874700</v>
+      </c>
+      <c r="K10" s="9">
+        <v>-728409</v>
+      </c>
+      <c r="L10" s="9">
+        <v>7325271</v>
+      </c>
+      <c r="M10" s="9">
+        <v>9063325</v>
+      </c>
+      <c r="N10" s="9">
         <v>18232383</v>
       </c>
-      <c r="F10" s="9">
+      <c r="O10" s="9">
         <v>8912231</v>
       </c>
-      <c r="G10" s="9">
+      <c r="P10" s="9">
         <v>14951267</v>
       </c>
-      <c r="H10" s="9">
+      <c r="Q10" s="9">
         <v>20809319</v>
       </c>
-      <c r="I10" s="9">
+      <c r="R10" s="9">
         <v>27533527</v>
       </c>
-      <c r="J10" s="9">
+      <c r="S10" s="9">
         <v>41770886</v>
       </c>
-      <c r="K10" s="9">
+      <c r="T10" s="9">
         <v>33266140</v>
       </c>
-      <c r="L10" s="9">
+      <c r="U10" s="9">
         <v>29733894</v>
       </c>
-      <c r="M10" s="9">
+      <c r="V10" s="9">
         <v>28604286</v>
       </c>
-      <c r="N10" s="9">
+      <c r="W10" s="9">
         <v>16206626</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X10" s="9">
+        <v>25760017</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>81072</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45362</v>
+      </c>
+      <c r="G11" s="11">
+        <v>59773</v>
+      </c>
+      <c r="H11" s="11">
+        <v>74993</v>
+      </c>
+      <c r="I11" s="11">
+        <v>90661</v>
+      </c>
+      <c r="J11" s="11">
+        <v>61513</v>
+      </c>
+      <c r="K11" s="11">
+        <v>105955</v>
+      </c>
+      <c r="L11" s="11">
+        <v>96923</v>
+      </c>
+      <c r="M11" s="11">
+        <v>122315</v>
+      </c>
+      <c r="N11" s="11">
         <v>90149</v>
       </c>
-      <c r="F11" s="11">
+      <c r="O11" s="11">
         <v>168965</v>
       </c>
-      <c r="G11" s="11">
+      <c r="P11" s="11">
         <v>185264</v>
       </c>
-      <c r="H11" s="11">
+      <c r="Q11" s="11">
         <v>268472</v>
       </c>
-      <c r="I11" s="11">
+      <c r="R11" s="11">
         <v>51263</v>
       </c>
-      <c r="J11" s="11">
+      <c r="S11" s="11">
         <v>303339</v>
       </c>
-      <c r="K11" s="11">
+      <c r="T11" s="11">
         <v>327183</v>
       </c>
-      <c r="L11" s="11">
+      <c r="U11" s="11">
         <v>242870</v>
       </c>
-      <c r="M11" s="11">
+      <c r="V11" s="11">
         <v>286356</v>
       </c>
-      <c r="N11" s="11">
+      <c r="W11" s="11">
         <v>396205</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X11" s="11">
+        <v>405551</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>2361996</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1097502</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1406860</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1034966</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1634737</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1891388</v>
+      </c>
+      <c r="K12" s="9">
+        <v>8640565</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1356045</v>
+      </c>
+      <c r="M12" s="9">
+        <v>2092008</v>
+      </c>
+      <c r="N12" s="9">
         <v>1376279</v>
       </c>
-      <c r="F12" s="9">
+      <c r="O12" s="9">
         <v>12821757</v>
       </c>
-      <c r="G12" s="9">
+      <c r="P12" s="9">
         <v>4957787</v>
       </c>
-      <c r="H12" s="9">
+      <c r="Q12" s="9">
         <v>6802687</v>
       </c>
-      <c r="I12" s="9">
+      <c r="R12" s="9">
         <v>4712929</v>
       </c>
-      <c r="J12" s="9">
+      <c r="S12" s="9">
         <v>29548778</v>
       </c>
-      <c r="K12" s="9">
+      <c r="T12" s="9">
         <v>10139348</v>
       </c>
-      <c r="L12" s="9">
+      <c r="U12" s="9">
         <v>9649542</v>
       </c>
-      <c r="M12" s="9">
+      <c r="V12" s="9">
         <v>8970976</v>
       </c>
-      <c r="N12" s="9">
+      <c r="W12" s="9">
         <v>9724491</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X12" s="9">
+        <v>10068695</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>10206837</v>
+      </c>
+      <c r="F13" s="13">
+        <v>11321538</v>
+      </c>
+      <c r="G13" s="13">
+        <v>8843659</v>
+      </c>
+      <c r="H13" s="13">
+        <v>6926725</v>
+      </c>
+      <c r="I13" s="13">
+        <v>8302360</v>
+      </c>
+      <c r="J13" s="13">
+        <v>10827601</v>
+      </c>
+      <c r="K13" s="13">
+        <v>8018111</v>
+      </c>
+      <c r="L13" s="13">
+        <v>8778239</v>
+      </c>
+      <c r="M13" s="13">
+        <v>11277648</v>
+      </c>
+      <c r="N13" s="13">
         <v>19698811</v>
       </c>
-      <c r="F13" s="13">
+      <c r="O13" s="13">
         <v>21902953</v>
       </c>
-      <c r="G13" s="13">
+      <c r="P13" s="13">
         <v>20094318</v>
       </c>
-      <c r="H13" s="13">
+      <c r="Q13" s="13">
         <v>27880478</v>
       </c>
-      <c r="I13" s="13">
+      <c r="R13" s="13">
         <v>32297719</v>
       </c>
-      <c r="J13" s="13">
+      <c r="S13" s="13">
         <v>71623003</v>
       </c>
-      <c r="K13" s="13">
+      <c r="T13" s="13">
         <v>43732671</v>
       </c>
-      <c r="L13" s="13">
+      <c r="U13" s="13">
         <v>39626306</v>
       </c>
-      <c r="M13" s="13">
+      <c r="V13" s="13">
         <v>37861618</v>
       </c>
-      <c r="N13" s="13">
+      <c r="W13" s="13">
         <v>26327322</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X13" s="13">
+        <v>36234263</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1089,86 +1350,176 @@
         <v>0</v>
       </c>
       <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
         <v>-2242023</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>10206837</v>
+      </c>
+      <c r="F15" s="13">
+        <v>11321538</v>
+      </c>
+      <c r="G15" s="13">
+        <v>8843659</v>
+      </c>
+      <c r="H15" s="13">
+        <v>6926725</v>
+      </c>
+      <c r="I15" s="13">
+        <v>8302360</v>
+      </c>
+      <c r="J15" s="13">
+        <v>10827601</v>
+      </c>
+      <c r="K15" s="13">
+        <v>8018111</v>
+      </c>
+      <c r="L15" s="13">
+        <v>8778239</v>
+      </c>
+      <c r="M15" s="13">
+        <v>11277648</v>
+      </c>
+      <c r="N15" s="13">
         <v>19698811</v>
       </c>
-      <c r="F15" s="13">
+      <c r="O15" s="13">
         <v>21902953</v>
       </c>
-      <c r="G15" s="13">
+      <c r="P15" s="13">
         <v>20094318</v>
       </c>
-      <c r="H15" s="13">
+      <c r="Q15" s="13">
         <v>27880478</v>
       </c>
-      <c r="I15" s="13">
+      <c r="R15" s="13">
         <v>32297719</v>
       </c>
-      <c r="J15" s="13">
+      <c r="S15" s="13">
         <v>71623003</v>
       </c>
-      <c r="K15" s="13">
+      <c r="T15" s="13">
         <v>43732671</v>
       </c>
-      <c r="L15" s="13">
+      <c r="U15" s="13">
         <v>39626306</v>
       </c>
-      <c r="M15" s="13">
+      <c r="V15" s="13">
         <v>37861618</v>
       </c>
-      <c r="N15" s="13">
+      <c r="W15" s="13">
         <v>24085299</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X15" s="13">
+        <v>36234263</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-5061</v>
+      </c>
+      <c r="F16" s="9">
+        <v>18451</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-21630</v>
+      </c>
+      <c r="H16" s="9">
+        <v>21630</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-14718</v>
+      </c>
+      <c r="J16" s="9">
+        <v>14718</v>
+      </c>
+      <c r="K16" s="9">
+        <v>-18897</v>
+      </c>
+      <c r="L16" s="9">
+        <v>18897</v>
+      </c>
+      <c r="M16" s="9">
+        <v>-18604</v>
+      </c>
+      <c r="N16" s="9">
         <v>18604</v>
       </c>
-      <c r="F16" s="9">
+      <c r="O16" s="9">
         <v>-32341</v>
       </c>
-      <c r="G16" s="9">
+      <c r="P16" s="9">
         <v>32341</v>
       </c>
-      <c r="H16" s="9">
+      <c r="Q16" s="9">
         <v>-43722</v>
       </c>
-      <c r="I16" s="9">
+      <c r="R16" s="9">
         <v>43722</v>
       </c>
-      <c r="J16" s="9">
+      <c r="S16" s="9">
         <v>-74793</v>
       </c>
-      <c r="K16" s="9">
+      <c r="T16" s="9">
         <v>74793</v>
       </c>
-      <c r="L16" s="9">
+      <c r="U16" s="9">
         <v>-108855</v>
       </c>
-      <c r="M16" s="9">
+      <c r="V16" s="9">
         <v>108855</v>
       </c>
-      <c r="N16" s="9">
+      <c r="W16" s="9">
         <v>-179631</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X16" s="9">
+        <v>179631</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1202,230 +1553,440 @@
       <c r="N17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>10201776</v>
+      </c>
+      <c r="F18" s="15">
+        <v>11339989</v>
+      </c>
+      <c r="G18" s="15">
+        <v>8822029</v>
+      </c>
+      <c r="H18" s="15">
+        <v>6948355</v>
+      </c>
+      <c r="I18" s="15">
+        <v>8287642</v>
+      </c>
+      <c r="J18" s="15">
+        <v>10842319</v>
+      </c>
+      <c r="K18" s="15">
+        <v>7999214</v>
+      </c>
+      <c r="L18" s="15">
+        <v>8797136</v>
+      </c>
+      <c r="M18" s="15">
+        <v>11259044</v>
+      </c>
+      <c r="N18" s="15">
         <v>19717415</v>
       </c>
-      <c r="F18" s="15">
+      <c r="O18" s="15">
         <v>21870612</v>
       </c>
-      <c r="G18" s="15">
+      <c r="P18" s="15">
         <v>20126659</v>
       </c>
-      <c r="H18" s="15">
+      <c r="Q18" s="15">
         <v>27836756</v>
       </c>
-      <c r="I18" s="15">
+      <c r="R18" s="15">
         <v>32341441</v>
       </c>
-      <c r="J18" s="15">
+      <c r="S18" s="15">
         <v>71548210</v>
       </c>
-      <c r="K18" s="15">
+      <c r="T18" s="15">
         <v>43807464</v>
       </c>
-      <c r="L18" s="15">
+      <c r="U18" s="15">
         <v>39517451</v>
       </c>
-      <c r="M18" s="15">
+      <c r="V18" s="15">
         <v>37970473</v>
       </c>
-      <c r="N18" s="15">
+      <c r="W18" s="15">
         <v>23905668</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X18" s="15">
+        <v>36413894</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>443147</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>973751</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>617941</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
         <v>987216</v>
       </c>
-      <c r="G19" s="11">
+      <c r="P19" s="11">
         <v>917924</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
         <v>2146303</v>
       </c>
-      <c r="K19" s="11">
+      <c r="T19" s="11">
         <v>5898432</v>
       </c>
-      <c r="L19" s="11">
+      <c r="U19" s="11">
         <v>8162443</v>
       </c>
-      <c r="M19" s="11">
+      <c r="V19" s="11">
         <v>496196</v>
       </c>
-      <c r="N19" s="11">
+      <c r="W19" s="11">
         <v>8432649</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X19" s="11">
+        <v>6617105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-667931</v>
+      </c>
+      <c r="F20" s="9">
+        <v>47164</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-352984</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-432200</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-968225</v>
+      </c>
+      <c r="J20" s="9">
+        <v>829740</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-47256</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-884796</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-569988</v>
+      </c>
+      <c r="N20" s="9">
         <v>467568</v>
       </c>
-      <c r="F20" s="9">
+      <c r="O20" s="9">
         <v>-917924</v>
       </c>
-      <c r="G20" s="9">
+      <c r="P20" s="9">
         <v>-1174241</v>
       </c>
-      <c r="H20" s="9">
+      <c r="Q20" s="9">
         <v>-532140</v>
       </c>
-      <c r="I20" s="9">
+      <c r="R20" s="9">
         <v>-439922</v>
       </c>
-      <c r="J20" s="9">
+      <c r="S20" s="9">
         <v>-6524636</v>
       </c>
-      <c r="K20" s="9">
+      <c r="T20" s="9">
         <v>-8162443</v>
       </c>
-      <c r="L20" s="9">
+      <c r="U20" s="9">
         <v>-496196</v>
       </c>
-      <c r="M20" s="9">
+      <c r="V20" s="9">
         <v>-8432649</v>
       </c>
-      <c r="N20" s="9">
+      <c r="W20" s="9">
         <v>-6617105</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X20" s="9">
+        <v>-3954857</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>9976992</v>
+      </c>
+      <c r="F21" s="13">
+        <v>11387153</v>
+      </c>
+      <c r="G21" s="13">
+        <v>8469045</v>
+      </c>
+      <c r="H21" s="13">
+        <v>7489906</v>
+      </c>
+      <c r="I21" s="13">
+        <v>7319417</v>
+      </c>
+      <c r="J21" s="13">
+        <v>11672059</v>
+      </c>
+      <c r="K21" s="13">
+        <v>7951958</v>
+      </c>
+      <c r="L21" s="13">
+        <v>8530281</v>
+      </c>
+      <c r="M21" s="13">
+        <v>10689056</v>
+      </c>
+      <c r="N21" s="13">
         <v>20184983</v>
       </c>
-      <c r="F21" s="13">
+      <c r="O21" s="13">
         <v>21939904</v>
       </c>
-      <c r="G21" s="13">
+      <c r="P21" s="13">
         <v>19870342</v>
       </c>
-      <c r="H21" s="13">
+      <c r="Q21" s="13">
         <v>27304616</v>
       </c>
-      <c r="I21" s="13">
+      <c r="R21" s="13">
         <v>31901519</v>
       </c>
-      <c r="J21" s="13">
+      <c r="S21" s="13">
         <v>67169877</v>
       </c>
-      <c r="K21" s="13">
+      <c r="T21" s="13">
         <v>41543453</v>
       </c>
-      <c r="L21" s="13">
+      <c r="U21" s="13">
         <v>47809902</v>
       </c>
-      <c r="M21" s="13">
+      <c r="V21" s="13">
         <v>30034020</v>
       </c>
-      <c r="N21" s="13">
+      <c r="W21" s="13">
         <v>25721212</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X21" s="13">
+        <v>39076142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>950218</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
         <v>1701583</v>
       </c>
-      <c r="F22" s="9">
+      <c r="O22" s="9">
         <v>-1701583</v>
       </c>
-      <c r="G22" s="9">
+      <c r="P22" s="9">
         <v>1022793</v>
       </c>
-      <c r="H22" s="9">
+      <c r="Q22" s="9">
         <v>1632156</v>
       </c>
-      <c r="I22" s="9">
+      <c r="R22" s="9">
         <v>385305</v>
       </c>
-      <c r="J22" s="9">
+      <c r="S22" s="9">
         <v>-3040254</v>
       </c>
-      <c r="K22" s="9">
+      <c r="T22" s="9">
         <v>2598084</v>
       </c>
-      <c r="L22" s="9">
+      <c r="U22" s="9">
         <v>-2598084</v>
       </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>-336157</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>9976992</v>
+      </c>
+      <c r="F23" s="13">
+        <v>11387153</v>
+      </c>
+      <c r="G23" s="13">
+        <v>8469045</v>
+      </c>
+      <c r="H23" s="13">
+        <v>7489906</v>
+      </c>
+      <c r="I23" s="13">
+        <v>7319417</v>
+      </c>
+      <c r="J23" s="13">
+        <v>11672059</v>
+      </c>
+      <c r="K23" s="13">
+        <v>8902176</v>
+      </c>
+      <c r="L23" s="13">
+        <v>8530281</v>
+      </c>
+      <c r="M23" s="13">
+        <v>10689056</v>
+      </c>
+      <c r="N23" s="13">
         <v>21886566</v>
       </c>
-      <c r="F23" s="13">
+      <c r="O23" s="13">
         <v>20238321</v>
       </c>
-      <c r="G23" s="13">
+      <c r="P23" s="13">
         <v>20893135</v>
       </c>
-      <c r="H23" s="13">
+      <c r="Q23" s="13">
         <v>28936772</v>
       </c>
-      <c r="I23" s="13">
+      <c r="R23" s="13">
         <v>32286824</v>
       </c>
-      <c r="J23" s="13">
+      <c r="S23" s="13">
         <v>64129623</v>
       </c>
-      <c r="K23" s="13">
+      <c r="T23" s="13">
         <v>44141537</v>
       </c>
-      <c r="L23" s="13">
+      <c r="U23" s="13">
         <v>45211818</v>
       </c>
-      <c r="M23" s="13">
+      <c r="V23" s="13">
         <v>30034020</v>
       </c>
-      <c r="N23" s="13">
+      <c r="W23" s="13">
         <v>25721212</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X23" s="13">
+        <v>38739985</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1439,8 +2000,18 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1454,8 +2025,18 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1469,10 +2050,20 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1506,8 +2097,38 @@
       <c r="N27" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1521,8 +2142,18 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1536,140 +2167,240 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11">
-        <v>0</v>
+      <c r="E30" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" s="11">
+        <v>0</v>
+      </c>
+      <c r="T30" s="11">
+        <v>0</v>
+      </c>
+      <c r="U30" s="11">
+        <v>0</v>
+      </c>
+      <c r="V30" s="11">
+        <v>0</v>
+      </c>
+      <c r="W30" s="11">
+        <v>0</v>
+      </c>
+      <c r="X30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
+      <c r="E31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H33" s="9">
         <v>0</v>
@@ -1677,103 +2408,193 @@
       <c r="I33" s="9">
         <v>0</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -1807,8 +2628,38 @@
       <c r="N36" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="13">
+        <v>0</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>0</v>
+      </c>
+      <c r="R36" s="13">
+        <v>0</v>
+      </c>
+      <c r="S36" s="13">
+        <v>0</v>
+      </c>
+      <c r="T36" s="13">
+        <v>0</v>
+      </c>
+      <c r="U36" s="13">
+        <v>0</v>
+      </c>
+      <c r="V36" s="13">
+        <v>0</v>
+      </c>
+      <c r="W36" s="13">
+        <v>0</v>
+      </c>
+      <c r="X36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1822,8 +2673,18 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1837,8 +2698,18 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1852,10 +2723,20 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1889,8 +2770,38 @@
       <c r="N40" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X40" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1904,8 +2815,18 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1919,279 +2840,499 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11">
-        <v>308151369</v>
+      <c r="E43" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S43" s="11">
+        <v>489202226</v>
+      </c>
+      <c r="T43" s="11">
+        <v>664140620</v>
+      </c>
+      <c r="U43" s="11">
+        <v>593621250</v>
+      </c>
+      <c r="V43" s="11">
+        <v>571069216</v>
+      </c>
+      <c r="W43" s="11">
+        <v>323127267</v>
+      </c>
+      <c r="X43" s="11">
+        <v>514284920</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9">
-        <v>723223052</v>
-      </c>
-      <c r="F44" s="9">
-        <v>582358299</v>
-      </c>
-      <c r="G44" s="9">
-        <v>737215879</v>
+      <c r="E44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>642819696</v>
+      </c>
+      <c r="R44" s="9">
+        <v>454478711</v>
+      </c>
+      <c r="S44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F46" s="9">
+        <v>752363710</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H46" s="9">
-        <v>642819696</v>
+        <v>657785800</v>
       </c>
       <c r="I46" s="9">
-        <v>454478711</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+        <v>781070748</v>
+      </c>
+      <c r="J46" s="9">
+        <v>712600896</v>
+      </c>
+      <c r="K46" s="9">
+        <v>349702014</v>
+      </c>
+      <c r="L46" s="9">
+        <v>792900792</v>
+      </c>
+      <c r="M46" s="9">
+        <v>685114591</v>
+      </c>
+      <c r="N46" s="9">
+        <v>723223052</v>
+      </c>
+      <c r="O46" s="9">
+        <v>582358299</v>
+      </c>
+      <c r="P46" s="9">
+        <v>737215879</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X46" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F47" s="11">
+        <v>329834425</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="H47" s="11">
+        <v>279449343</v>
+      </c>
+      <c r="I47" s="11">
+        <v>337397739</v>
+      </c>
+      <c r="J47" s="11">
+        <v>308590962</v>
+      </c>
+      <c r="K47" s="11">
+        <v>156064255</v>
+      </c>
+      <c r="L47" s="11">
+        <v>343220432</v>
+      </c>
+      <c r="M47" s="11">
+        <v>307240700</v>
+      </c>
+      <c r="N47" s="11">
+        <v>308151369</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X47" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="9">
-        <v>489202226</v>
-      </c>
-      <c r="K48" s="9">
-        <v>664140620</v>
-      </c>
-      <c r="L48" s="9">
-        <v>593621250</v>
-      </c>
-      <c r="M48" s="9">
-        <v>571069216</v>
-      </c>
-      <c r="N48" s="9">
-        <v>323127267</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X48" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1082198135</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>937235143</v>
+      </c>
+      <c r="I49" s="13">
+        <v>1118468487</v>
+      </c>
+      <c r="J49" s="13">
+        <v>1021191858</v>
+      </c>
+      <c r="K49" s="13">
+        <v>505766269</v>
+      </c>
+      <c r="L49" s="13">
+        <v>1136121224</v>
+      </c>
+      <c r="M49" s="13">
+        <v>992355291</v>
+      </c>
+      <c r="N49" s="13">
         <v>1031374421</v>
       </c>
-      <c r="F49" s="13">
+      <c r="O49" s="13">
         <v>582358299</v>
       </c>
-      <c r="G49" s="13">
+      <c r="P49" s="13">
         <v>737215879</v>
       </c>
-      <c r="H49" s="13">
+      <c r="Q49" s="13">
         <v>642819696</v>
       </c>
-      <c r="I49" s="13">
+      <c r="R49" s="13">
         <v>454478711</v>
       </c>
-      <c r="J49" s="13">
+      <c r="S49" s="13">
         <v>489202226</v>
       </c>
-      <c r="K49" s="13">
+      <c r="T49" s="13">
         <v>664140620</v>
       </c>
-      <c r="L49" s="13">
+      <c r="U49" s="13">
         <v>593621250</v>
       </c>
-      <c r="M49" s="13">
+      <c r="V49" s="13">
         <v>571069216</v>
       </c>
-      <c r="N49" s="13">
+      <c r="W49" s="13">
         <v>323127267</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X49" s="13">
+        <v>514284920</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2205,8 +3346,18 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2220,8 +3371,18 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2235,10 +3396,20 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2272,8 +3443,38 @@
       <c r="N53" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X53" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2287,8 +3488,18 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2302,279 +3513,499 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11">
-        <v>308151369</v>
+      <c r="E56" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S56" s="11">
+        <v>489202226</v>
+      </c>
+      <c r="T56" s="11">
+        <v>664140620</v>
+      </c>
+      <c r="U56" s="11">
+        <v>593621250</v>
+      </c>
+      <c r="V56" s="11">
+        <v>571069216</v>
+      </c>
+      <c r="W56" s="11">
+        <v>323127267</v>
+      </c>
+      <c r="X56" s="11">
+        <v>514284920</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>723223052</v>
-      </c>
-      <c r="F57" s="9">
-        <v>582358299</v>
-      </c>
-      <c r="G57" s="9">
-        <v>737215879</v>
+      <c r="E57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>642819696</v>
+      </c>
+      <c r="R57" s="9">
+        <v>454478711</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X57" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X58" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F59" s="9">
+        <v>752363710</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H59" s="9">
-        <v>642819696</v>
+        <v>657785800</v>
       </c>
       <c r="I59" s="9">
-        <v>454478711</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+        <v>781070748</v>
+      </c>
+      <c r="J59" s="9">
+        <v>712600896</v>
+      </c>
+      <c r="K59" s="9">
+        <v>349702014</v>
+      </c>
+      <c r="L59" s="9">
+        <v>792900792</v>
+      </c>
+      <c r="M59" s="9">
+        <v>685114591</v>
+      </c>
+      <c r="N59" s="9">
+        <v>723223052</v>
+      </c>
+      <c r="O59" s="9">
+        <v>582358299</v>
+      </c>
+      <c r="P59" s="9">
+        <v>737215879</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X59" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F60" s="11">
+        <v>329834425</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="H60" s="11">
+        <v>279449343</v>
+      </c>
+      <c r="I60" s="11">
+        <v>337397739</v>
+      </c>
+      <c r="J60" s="11">
+        <v>308590962</v>
+      </c>
+      <c r="K60" s="11">
+        <v>156064255</v>
+      </c>
+      <c r="L60" s="11">
+        <v>343220432</v>
+      </c>
+      <c r="M60" s="11">
+        <v>307240700</v>
+      </c>
+      <c r="N60" s="11">
+        <v>308151369</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X60" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J61" s="9">
-        <v>489202226</v>
-      </c>
-      <c r="K61" s="9">
-        <v>664140620</v>
-      </c>
-      <c r="L61" s="9">
-        <v>593621250</v>
-      </c>
-      <c r="M61" s="9">
-        <v>571069216</v>
-      </c>
-      <c r="N61" s="9">
-        <v>323127267</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X61" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1082198135</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0</v>
+      </c>
+      <c r="H62" s="13">
+        <v>937235143</v>
+      </c>
+      <c r="I62" s="13">
+        <v>1118468487</v>
+      </c>
+      <c r="J62" s="13">
+        <v>1021191858</v>
+      </c>
+      <c r="K62" s="13">
+        <v>505766269</v>
+      </c>
+      <c r="L62" s="13">
+        <v>1136121224</v>
+      </c>
+      <c r="M62" s="13">
+        <v>992355291</v>
+      </c>
+      <c r="N62" s="13">
         <v>1031374421</v>
       </c>
-      <c r="F62" s="13">
+      <c r="O62" s="13">
         <v>582358299</v>
       </c>
-      <c r="G62" s="13">
+      <c r="P62" s="13">
         <v>737215879</v>
       </c>
-      <c r="H62" s="13">
+      <c r="Q62" s="13">
         <v>642819696</v>
       </c>
-      <c r="I62" s="13">
+      <c r="R62" s="13">
         <v>454478711</v>
       </c>
-      <c r="J62" s="13">
+      <c r="S62" s="13">
         <v>489202226</v>
       </c>
-      <c r="K62" s="13">
+      <c r="T62" s="13">
         <v>664140620</v>
       </c>
-      <c r="L62" s="13">
+      <c r="U62" s="13">
         <v>593621250</v>
       </c>
-      <c r="M62" s="13">
+      <c r="V62" s="13">
         <v>571069216</v>
       </c>
-      <c r="N62" s="13">
+      <c r="W62" s="13">
         <v>323127267</v>
       </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X62" s="13">
+        <v>514284920</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2588,8 +4019,18 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2603,8 +4044,18 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2618,10 +4069,20 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2655,8 +4116,38 @@
       <c r="N66" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U66" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V66" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X66" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2670,8 +4161,18 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -2685,140 +4186,240 @@
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <v>0</v>
+      <c r="E69" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S69" s="11">
+        <v>0</v>
+      </c>
+      <c r="T69" s="11">
+        <v>0</v>
+      </c>
+      <c r="U69" s="11">
+        <v>0</v>
+      </c>
+      <c r="V69" s="11">
+        <v>0</v>
+      </c>
+      <c r="W69" s="11">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
-        <v>0</v>
-      </c>
-      <c r="G70" s="9">
-        <v>0</v>
+      <c r="E70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>0</v>
+      </c>
+      <c r="R70" s="9">
+        <v>0</v>
+      </c>
+      <c r="S70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X70" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P71" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R71" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S71" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T71" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U71" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V71" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W71" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X71" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>31</v>
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9">
+        <v>0</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H72" s="9">
         <v>0</v>
@@ -2826,103 +4427,193 @@
       <c r="I72" s="9">
         <v>0</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N72" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J72" s="9">
+        <v>0</v>
+      </c>
+      <c r="K72" s="9">
+        <v>0</v>
+      </c>
+      <c r="L72" s="9">
+        <v>0</v>
+      </c>
+      <c r="M72" s="9">
+        <v>0</v>
+      </c>
+      <c r="N72" s="9">
+        <v>0</v>
+      </c>
+      <c r="O72" s="9">
+        <v>0</v>
+      </c>
+      <c r="P72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X72" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>31</v>
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L73" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N73" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0</v>
+      </c>
+      <c r="K73" s="11">
+        <v>0</v>
+      </c>
+      <c r="L73" s="11">
+        <v>0</v>
+      </c>
+      <c r="M73" s="11">
+        <v>0</v>
+      </c>
+      <c r="N73" s="11">
+        <v>0</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X73" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J74" s="9">
-        <v>0</v>
-      </c>
-      <c r="K74" s="9">
-        <v>0</v>
-      </c>
-      <c r="L74" s="9">
-        <v>0</v>
-      </c>
-      <c r="M74" s="9">
-        <v>0</v>
-      </c>
-      <c r="N74" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X74" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -2956,8 +4647,38 @@
       <c r="N75" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O75" s="13">
+        <v>0</v>
+      </c>
+      <c r="P75" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>0</v>
+      </c>
+      <c r="R75" s="13">
+        <v>0</v>
+      </c>
+      <c r="S75" s="13">
+        <v>0</v>
+      </c>
+      <c r="T75" s="13">
+        <v>0</v>
+      </c>
+      <c r="U75" s="13">
+        <v>0</v>
+      </c>
+      <c r="V75" s="13">
+        <v>0</v>
+      </c>
+      <c r="W75" s="13">
+        <v>0</v>
+      </c>
+      <c r="X75" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2971,8 +4692,18 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2986,8 +4717,18 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3001,10 +4742,20 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3038,8 +4789,38 @@
       <c r="N79" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U79" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V79" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X79" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3053,8 +4834,18 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -3068,56 +4859,96 @@
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11">
-        <v>0</v>
+      <c r="E82" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N82" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q82" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R82" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S82" s="11">
+        <v>0</v>
+      </c>
+      <c r="T82" s="11">
+        <v>0</v>
+      </c>
+      <c r="U82" s="11">
+        <v>0</v>
+      </c>
+      <c r="V82" s="11">
+        <v>0</v>
+      </c>
+      <c r="W82" s="11">
+        <v>0</v>
+      </c>
+      <c r="X82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9">
-        <v>0</v>
+      <c r="E83" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F83" s="9">
         <v>0</v>
@@ -3131,44 +4962,74 @@
       <c r="I83" s="9">
         <v>0</v>
       </c>
-      <c r="J83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J83" s="9">
+        <v>0</v>
+      </c>
+      <c r="K83" s="9">
+        <v>0</v>
+      </c>
+      <c r="L83" s="9">
+        <v>0</v>
+      </c>
+      <c r="M83" s="9">
+        <v>0</v>
+      </c>
+      <c r="N83" s="9">
+        <v>0</v>
+      </c>
+      <c r="O83" s="9">
+        <v>0</v>
+      </c>
+      <c r="P83" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="9">
+        <v>0</v>
+      </c>
+      <c r="R83" s="9">
+        <v>0</v>
+      </c>
+      <c r="S83" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T83" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U83" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V83" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W83" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X83" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
+      </c>
+      <c r="I84" s="11">
+        <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0</v>
@@ -3185,10 +5046,40 @@
       <c r="N84" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X84" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
@@ -3222,8 +5113,38 @@
       <c r="N85" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O85" s="15">
+        <v>0</v>
+      </c>
+      <c r="P85" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="15">
+        <v>0</v>
+      </c>
+      <c r="R85" s="15">
+        <v>0</v>
+      </c>
+      <c r="S85" s="15">
+        <v>0</v>
+      </c>
+      <c r="T85" s="15">
+        <v>0</v>
+      </c>
+      <c r="U85" s="15">
+        <v>0</v>
+      </c>
+      <c r="V85" s="15">
+        <v>0</v>
+      </c>
+      <c r="W85" s="15">
+        <v>0</v>
+      </c>
+      <c r="X85" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3237,8 +5158,18 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3252,8 +5183,18 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3267,10 +5208,20 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3304,8 +5255,38 @@
       <c r="N89" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X89" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3319,8 +5300,18 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -3334,162 +5325,292 @@
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11">
-        <v>2096044</v>
+      <c r="E92" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N92" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P92" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q92" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R92" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S92" s="11">
+        <v>41770886</v>
+      </c>
+      <c r="T92" s="11">
+        <v>33266140</v>
+      </c>
+      <c r="U92" s="11">
+        <v>29733894</v>
+      </c>
+      <c r="V92" s="11">
+        <v>28604286</v>
+      </c>
+      <c r="W92" s="11">
+        <v>16206626</v>
+      </c>
+      <c r="X92" s="11">
+        <v>25760017</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9">
+      <c r="E93" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="9">
+        <v>8628492</v>
+      </c>
+      <c r="G93" s="9">
+        <v>6278342</v>
+      </c>
+      <c r="H93" s="9">
+        <v>4572658</v>
+      </c>
+      <c r="I93" s="9">
+        <v>5328350</v>
+      </c>
+      <c r="J93" s="9">
+        <v>6145173</v>
+      </c>
+      <c r="K93" s="9">
+        <v>4493838</v>
+      </c>
+      <c r="L93" s="9">
+        <v>4990686</v>
+      </c>
+      <c r="M93" s="9">
+        <v>6973473</v>
+      </c>
+      <c r="N93" s="9">
         <v>16136339</v>
       </c>
-      <c r="F93" s="9">
+      <c r="O93" s="9">
         <v>15432712</v>
       </c>
-      <c r="G93" s="9">
+      <c r="P93" s="9">
         <v>14951267</v>
       </c>
-      <c r="H93" s="9">
+      <c r="Q93" s="9">
         <v>20809319</v>
       </c>
-      <c r="I93" s="9">
+      <c r="R93" s="9">
         <v>27533527</v>
       </c>
-      <c r="J93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N93" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="S93" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T93" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U93" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V93" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W93" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X93" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F94" s="11">
+        <v>1550182</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="H94" s="11">
+        <v>1244108</v>
+      </c>
+      <c r="I94" s="11">
+        <v>1248612</v>
       </c>
       <c r="J94" s="11">
-        <v>41770886</v>
+        <v>2729527</v>
       </c>
       <c r="K94" s="11">
-        <v>33266140</v>
+        <v>2134131</v>
       </c>
       <c r="L94" s="11">
-        <v>29733894</v>
+        <v>2334585</v>
       </c>
       <c r="M94" s="11">
-        <v>28604286</v>
+        <v>2089852</v>
       </c>
       <c r="N94" s="11">
-        <v>16206626</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2096044</v>
+      </c>
+      <c r="O94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X94" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>0</v>
+      </c>
+      <c r="F95" s="15">
+        <v>10178674</v>
+      </c>
+      <c r="G95" s="15">
+        <v>6278342</v>
+      </c>
+      <c r="H95" s="15">
+        <v>5816766</v>
+      </c>
+      <c r="I95" s="15">
+        <v>6576962</v>
+      </c>
+      <c r="J95" s="15">
+        <v>8874700</v>
+      </c>
+      <c r="K95" s="15">
+        <v>6627969</v>
+      </c>
+      <c r="L95" s="15">
+        <v>7325271</v>
+      </c>
+      <c r="M95" s="15">
+        <v>9063325</v>
+      </c>
+      <c r="N95" s="15">
         <v>18232383</v>
       </c>
-      <c r="F95" s="15">
+      <c r="O95" s="15">
         <v>15432712</v>
       </c>
-      <c r="G95" s="15">
+      <c r="P95" s="15">
         <v>14951267</v>
       </c>
-      <c r="H95" s="15">
+      <c r="Q95" s="15">
         <v>20809319</v>
       </c>
-      <c r="I95" s="15">
+      <c r="R95" s="15">
         <v>27533527</v>
       </c>
-      <c r="J95" s="15">
+      <c r="S95" s="15">
         <v>41770886</v>
       </c>
-      <c r="K95" s="15">
+      <c r="T95" s="15">
         <v>33266140</v>
       </c>
-      <c r="L95" s="15">
+      <c r="U95" s="15">
         <v>29733894</v>
       </c>
-      <c r="M95" s="15">
+      <c r="V95" s="15">
         <v>28604286</v>
       </c>
-      <c r="N95" s="15">
+      <c r="W95" s="15">
         <v>16206626</v>
       </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X95" s="15">
+        <v>25760017</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3503,8 +5624,18 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3518,8 +5649,18 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3533,10 +5674,20 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+    </row>
+    <row r="99" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3570,8 +5721,38 @@
       <c r="N99" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O99" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U99" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V99" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X99" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3585,8 +5766,18 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -3600,162 +5791,292 @@
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11">
+      <c r="E102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S102" s="11">
+        <v>41770886</v>
+      </c>
+      <c r="T102" s="11">
+        <v>33266140</v>
+      </c>
+      <c r="U102" s="11">
+        <v>29733894</v>
+      </c>
+      <c r="V102" s="11">
+        <v>28604286</v>
+      </c>
+      <c r="W102" s="11">
+        <v>16206626</v>
+      </c>
+      <c r="X102" s="11">
+        <v>25760017</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B103" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F103" s="9">
+        <v>8628492</v>
+      </c>
+      <c r="G103" s="9">
+        <v>6278342</v>
+      </c>
+      <c r="H103" s="9">
+        <v>4572658</v>
+      </c>
+      <c r="I103" s="9">
+        <v>5328350</v>
+      </c>
+      <c r="J103" s="9">
+        <v>6145173</v>
+      </c>
+      <c r="K103" s="9">
+        <v>4493838</v>
+      </c>
+      <c r="L103" s="9">
+        <v>4990686</v>
+      </c>
+      <c r="M103" s="9">
+        <v>6973473</v>
+      </c>
+      <c r="N103" s="9">
+        <v>16136339</v>
+      </c>
+      <c r="O103" s="9">
+        <v>15432712</v>
+      </c>
+      <c r="P103" s="9">
+        <v>14951267</v>
+      </c>
+      <c r="Q103" s="9">
+        <v>20809319</v>
+      </c>
+      <c r="R103" s="9">
+        <v>27533527</v>
+      </c>
+      <c r="S103" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T103" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U103" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V103" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W103" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X103" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B104" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F104" s="11">
+        <v>1550182</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H104" s="11">
+        <v>1244108</v>
+      </c>
+      <c r="I104" s="11">
+        <v>1248612</v>
+      </c>
+      <c r="J104" s="11">
+        <v>2729527</v>
+      </c>
+      <c r="K104" s="11">
+        <v>2134131</v>
+      </c>
+      <c r="L104" s="11">
+        <v>2334585</v>
+      </c>
+      <c r="M104" s="11">
+        <v>2089852</v>
+      </c>
+      <c r="N104" s="11">
         <v>2096044</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J102" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K102" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L102" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M102" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N102" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B103" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9">
-        <v>16136339</v>
-      </c>
-      <c r="F103" s="9">
-        <v>15432712</v>
-      </c>
-      <c r="G103" s="9">
-        <v>14951267</v>
-      </c>
-      <c r="H103" s="9">
-        <v>20809319</v>
-      </c>
-      <c r="I103" s="9">
-        <v>27533527</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N103" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B104" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="9">
-        <v>16136339</v>
-      </c>
-      <c r="F104" s="9">
-        <v>15432712</v>
-      </c>
-      <c r="G104" s="9">
-        <v>14951267</v>
-      </c>
-      <c r="H104" s="9">
-        <v>20809319</v>
-      </c>
-      <c r="I104" s="9">
-        <v>27533527</v>
-      </c>
-      <c r="J104" s="11">
-        <v>41770886</v>
-      </c>
-      <c r="K104" s="11">
-        <v>33266140</v>
-      </c>
-      <c r="L104" s="11">
-        <v>29733894</v>
-      </c>
-      <c r="M104" s="11">
-        <v>28604286</v>
-      </c>
-      <c r="N104" s="11">
-        <v>16206626</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X104" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
+        <v>0</v>
+      </c>
+      <c r="F105" s="15">
+        <v>10178674</v>
+      </c>
+      <c r="G105" s="15">
+        <v>6278342</v>
+      </c>
+      <c r="H105" s="15">
+        <v>5816766</v>
+      </c>
+      <c r="I105" s="15">
+        <v>6576962</v>
+      </c>
+      <c r="J105" s="15">
+        <v>8874700</v>
+      </c>
+      <c r="K105" s="15">
+        <v>6627969</v>
+      </c>
+      <c r="L105" s="15">
+        <v>7325271</v>
+      </c>
+      <c r="M105" s="15">
+        <v>9063325</v>
+      </c>
+      <c r="N105" s="15">
         <v>18232383</v>
       </c>
-      <c r="F105" s="15">
+      <c r="O105" s="15">
         <v>15432712</v>
       </c>
-      <c r="G105" s="15">
+      <c r="P105" s="15">
         <v>14951267</v>
       </c>
-      <c r="H105" s="15">
+      <c r="Q105" s="15">
         <v>20809319</v>
       </c>
-      <c r="I105" s="15">
+      <c r="R105" s="15">
         <v>27533527</v>
       </c>
-      <c r="J105" s="15">
+      <c r="S105" s="15">
         <v>41770886</v>
       </c>
-      <c r="K105" s="15">
+      <c r="T105" s="15">
         <v>33266140</v>
       </c>
-      <c r="L105" s="15">
+      <c r="U105" s="15">
         <v>29733894</v>
       </c>
-      <c r="M105" s="15">
+      <c r="V105" s="15">
         <v>28604286</v>
       </c>
-      <c r="N105" s="15">
+      <c r="W105" s="15">
         <v>16206626</v>
       </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X105" s="15">
+        <v>25760017</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3769,8 +6090,18 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3784,8 +6115,18 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3799,10 +6140,20 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+    </row>
+    <row r="109" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3836,8 +6187,38 @@
       <c r="N109" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O109" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q109" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U109" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V109" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W109" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X109" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3851,8 +6232,18 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -3866,52 +6257,92 @@
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9"/>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11">
-        <v>0</v>
+      <c r="E112" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J112" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K112" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L112" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M112" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N112" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O112" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P112" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q112" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R112" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S112" s="11">
+        <v>0</v>
+      </c>
+      <c r="T112" s="11">
+        <v>0</v>
+      </c>
+      <c r="U112" s="11">
+        <v>0</v>
+      </c>
+      <c r="V112" s="11">
+        <v>0</v>
+      </c>
+      <c r="W112" s="11">
+        <v>0</v>
+      </c>
+      <c r="X112" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
@@ -3929,44 +6360,74 @@
       <c r="I113" s="9">
         <v>0</v>
       </c>
-      <c r="J113" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K113" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L113" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M113" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N113" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J113" s="9">
+        <v>0</v>
+      </c>
+      <c r="K113" s="9">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9">
+        <v>0</v>
+      </c>
+      <c r="M113" s="9">
+        <v>0</v>
+      </c>
+      <c r="N113" s="9">
+        <v>0</v>
+      </c>
+      <c r="O113" s="9">
+        <v>0</v>
+      </c>
+      <c r="P113" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="9">
+        <v>0</v>
+      </c>
+      <c r="R113" s="9">
+        <v>0</v>
+      </c>
+      <c r="S113" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T113" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U113" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V113" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W113" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X113" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>31</v>
+      <c r="E114" s="11">
+        <v>0</v>
+      </c>
+      <c r="F114" s="11">
+        <v>0</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I114" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0</v>
+      </c>
+      <c r="I114" s="11">
+        <v>0</v>
       </c>
       <c r="J114" s="11">
         <v>0</v>
@@ -3983,10 +6444,40 @@
       <c r="N114" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X114" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
@@ -4020,8 +6511,38 @@
       <c r="N115" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O115" s="15">
+        <v>0</v>
+      </c>
+      <c r="P115" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="15">
+        <v>0</v>
+      </c>
+      <c r="R115" s="15">
+        <v>0</v>
+      </c>
+      <c r="S115" s="15">
+        <v>0</v>
+      </c>
+      <c r="T115" s="15">
+        <v>0</v>
+      </c>
+      <c r="U115" s="15">
+        <v>0</v>
+      </c>
+      <c r="V115" s="15">
+        <v>0</v>
+      </c>
+      <c r="W115" s="15">
+        <v>0</v>
+      </c>
+      <c r="X115" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4035,8 +6556,18 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+    </row>
+    <row r="117" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4050,8 +6581,18 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+    </row>
+    <row r="118" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4065,10 +6606,20 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+    </row>
+    <row r="119" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4102,8 +6653,38 @@
       <c r="N119" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O119" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P119" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q119" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R119" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S119" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U119" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V119" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W119" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X119" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4117,8 +6698,18 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+    </row>
+    <row r="121" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -4132,125 +6723,225 @@
       <c r="L121" s="9"/>
       <c r="M121" s="9"/>
       <c r="N121" s="9"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="U121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9"/>
+      <c r="X121" s="9"/>
+    </row>
+    <row r="122" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="11">
-        <v>6802</v>
+      <c r="E122" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J122" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K122" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L122" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N122" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O122" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P122" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q122" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R122" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S122" s="11">
+        <v>85386</v>
+      </c>
+      <c r="T122" s="11">
+        <v>50089</v>
+      </c>
+      <c r="U122" s="11">
+        <v>50089</v>
+      </c>
+      <c r="V122" s="11">
+        <v>50089</v>
+      </c>
+      <c r="W122" s="11">
+        <v>50156</v>
+      </c>
+      <c r="X122" s="11">
+        <v>50089</v>
+      </c>
+    </row>
+    <row r="123" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D123" s="9"/>
-      <c r="E123" s="9">
+      <c r="E123" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123" s="9">
+        <v>11469</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="9">
+        <v>6952</v>
+      </c>
+      <c r="I123" s="9">
+        <v>6822</v>
+      </c>
+      <c r="J123" s="9">
+        <v>8624</v>
+      </c>
+      <c r="K123" s="9">
+        <v>12850</v>
+      </c>
+      <c r="L123" s="9">
+        <v>6294</v>
+      </c>
+      <c r="M123" s="9">
+        <v>10179</v>
+      </c>
+      <c r="N123" s="9">
         <v>22312</v>
       </c>
-      <c r="F123" s="9">
+      <c r="O123" s="9">
         <v>26500</v>
       </c>
-      <c r="G123" s="9">
+      <c r="P123" s="9">
         <v>20281</v>
       </c>
-      <c r="H123" s="9">
+      <c r="Q123" s="9">
         <v>32372</v>
       </c>
-      <c r="I123" s="9">
+      <c r="R123" s="9">
         <v>60583</v>
       </c>
-      <c r="J123" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K123" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L123" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M123" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N123" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="S123" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T123" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U123" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V123" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W123" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X123" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F124" s="11">
+        <v>4700</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I124" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="H124" s="11">
+        <v>4452</v>
+      </c>
+      <c r="I124" s="11">
+        <v>3701</v>
       </c>
       <c r="J124" s="11">
-        <v>85386</v>
+        <v>8845</v>
       </c>
       <c r="K124" s="11">
-        <v>50089</v>
+        <v>13675</v>
       </c>
       <c r="L124" s="11">
-        <v>50089</v>
+        <v>6802</v>
       </c>
       <c r="M124" s="11">
-        <v>50089</v>
+        <v>6802</v>
       </c>
       <c r="N124" s="11">
-        <v>50156</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6802</v>
+      </c>
+      <c r="O124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X124" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4264,8 +6955,18 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
+    </row>
+    <row r="126" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4279,8 +6980,18 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+    </row>
+    <row r="127" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4294,10 +7005,20 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+    </row>
+    <row r="128" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -4331,8 +7052,38 @@
       <c r="N128" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O128" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R128" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S128" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T128" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U128" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V128" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W128" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X128" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4346,8 +7097,18 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+    </row>
+    <row r="130" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
@@ -4361,125 +7122,225 @@
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+      <c r="U130" s="9"/>
+      <c r="V130" s="9"/>
+      <c r="W130" s="9"/>
+      <c r="X130" s="9"/>
+    </row>
+    <row r="131" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D131" s="11"/>
-      <c r="E131" s="11">
-        <v>6802</v>
+      <c r="E131" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L131" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M131" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O131" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P131" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q131" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R131" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S131" s="11">
+        <v>85386</v>
+      </c>
+      <c r="T131" s="11">
+        <v>50089</v>
+      </c>
+      <c r="U131" s="11">
+        <v>50089</v>
+      </c>
+      <c r="V131" s="11">
+        <v>50089</v>
+      </c>
+      <c r="W131" s="11">
+        <v>50156</v>
+      </c>
+      <c r="X131" s="11">
+        <v>50089</v>
+      </c>
+    </row>
+    <row r="132" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D132" s="9"/>
-      <c r="E132" s="9">
+      <c r="E132" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" s="9">
+        <v>11469</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H132" s="9">
+        <v>6952</v>
+      </c>
+      <c r="I132" s="9">
+        <v>6822</v>
+      </c>
+      <c r="J132" s="9">
+        <v>8624</v>
+      </c>
+      <c r="K132" s="9">
+        <v>12850</v>
+      </c>
+      <c r="L132" s="9">
+        <v>6294</v>
+      </c>
+      <c r="M132" s="9">
+        <v>10179</v>
+      </c>
+      <c r="N132" s="9">
         <v>22312</v>
       </c>
-      <c r="F132" s="9">
+      <c r="O132" s="9">
         <v>26500</v>
       </c>
-      <c r="G132" s="9">
+      <c r="P132" s="9">
         <v>20281</v>
       </c>
-      <c r="H132" s="9">
+      <c r="Q132" s="9">
         <v>32372</v>
       </c>
-      <c r="I132" s="9">
+      <c r="R132" s="9">
         <v>60583</v>
       </c>
-      <c r="J132" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K132" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L132" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M132" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N132" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="S132" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T132" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U132" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V132" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W132" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X132" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F133" s="11">
+        <v>4700</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H133" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I133" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="H133" s="11">
+        <v>4452</v>
+      </c>
+      <c r="I133" s="11">
+        <v>3701</v>
       </c>
       <c r="J133" s="11">
-        <v>85386</v>
+        <v>8845</v>
       </c>
       <c r="K133" s="11">
-        <v>50089</v>
+        <v>13675</v>
       </c>
       <c r="L133" s="11">
-        <v>50089</v>
+        <v>6802</v>
       </c>
       <c r="M133" s="11">
-        <v>50089</v>
+        <v>6802</v>
       </c>
       <c r="N133" s="11">
-        <v>50156</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6802</v>
+      </c>
+      <c r="O133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X133" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4493,8 +7354,18 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+    </row>
+    <row r="135" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4508,8 +7379,18 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
+    </row>
+    <row r="136" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4523,10 +7404,20 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
+    </row>
+    <row r="137" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4560,8 +7451,38 @@
       <c r="N137" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O137" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P137" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q137" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R137" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S137" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T137" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U137" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V137" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W137" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X137" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4575,15 +7496,25 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+    </row>
+    <row r="139" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="9">
-        <v>0</v>
+      <c r="E139" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F139" s="9">
         <v>0</v>
@@ -4612,15 +7543,45 @@
       <c r="N139" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O139" s="9">
+        <v>0</v>
+      </c>
+      <c r="P139" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="9">
+        <v>0</v>
+      </c>
+      <c r="R139" s="9">
+        <v>0</v>
+      </c>
+      <c r="S139" s="9">
+        <v>0</v>
+      </c>
+      <c r="T139" s="9">
+        <v>0</v>
+      </c>
+      <c r="U139" s="9">
+        <v>0</v>
+      </c>
+      <c r="V139" s="9">
+        <v>0</v>
+      </c>
+      <c r="W139" s="9">
+        <v>0</v>
+      </c>
+      <c r="X139" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
-      <c r="E140" s="11">
-        <v>0</v>
+      <c r="E140" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F140" s="11">
         <v>0</v>
@@ -4649,15 +7610,45 @@
       <c r="N140" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O140" s="11">
+        <v>0</v>
+      </c>
+      <c r="P140" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="11">
+        <v>0</v>
+      </c>
+      <c r="R140" s="11">
+        <v>0</v>
+      </c>
+      <c r="S140" s="11">
+        <v>0</v>
+      </c>
+      <c r="T140" s="11">
+        <v>0</v>
+      </c>
+      <c r="U140" s="11">
+        <v>0</v>
+      </c>
+      <c r="V140" s="11">
+        <v>0</v>
+      </c>
+      <c r="W140" s="11">
+        <v>0</v>
+      </c>
+      <c r="X140" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="9">
-        <v>0</v>
+      <c r="E141" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F141" s="9">
         <v>0</v>
@@ -4686,15 +7677,45 @@
       <c r="N141" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O141" s="9">
+        <v>0</v>
+      </c>
+      <c r="P141" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="9">
+        <v>0</v>
+      </c>
+      <c r="R141" s="9">
+        <v>0</v>
+      </c>
+      <c r="S141" s="9">
+        <v>0</v>
+      </c>
+      <c r="T141" s="9">
+        <v>0</v>
+      </c>
+      <c r="U141" s="9">
+        <v>0</v>
+      </c>
+      <c r="V141" s="9">
+        <v>0</v>
+      </c>
+      <c r="W141" s="9">
+        <v>0</v>
+      </c>
+      <c r="X141" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
-      <c r="E142" s="11">
-        <v>0</v>
+      <c r="E142" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F142" s="11">
         <v>0</v>
@@ -4723,163 +7744,313 @@
       <c r="N142" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O142" s="11">
+        <v>0</v>
+      </c>
+      <c r="P142" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="11">
+        <v>0</v>
+      </c>
+      <c r="R142" s="11">
+        <v>0</v>
+      </c>
+      <c r="S142" s="11">
+        <v>0</v>
+      </c>
+      <c r="T142" s="11">
+        <v>0</v>
+      </c>
+      <c r="U142" s="11">
+        <v>0</v>
+      </c>
+      <c r="V142" s="11">
+        <v>0</v>
+      </c>
+      <c r="W142" s="11">
+        <v>0</v>
+      </c>
+      <c r="X142" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="9">
+      <c r="E143" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F143" s="9">
+        <v>-81133</v>
+      </c>
+      <c r="G143" s="9">
+        <v>391548</v>
+      </c>
+      <c r="H143" s="9">
+        <v>87806</v>
+      </c>
+      <c r="I143" s="9">
+        <v>102835</v>
+      </c>
+      <c r="J143" s="9">
+        <v>38788</v>
+      </c>
+      <c r="K143" s="9">
+        <v>325999</v>
+      </c>
+      <c r="L143" s="9">
+        <v>111053</v>
+      </c>
+      <c r="M143" s="9">
+        <v>204730</v>
+      </c>
+      <c r="N143" s="9">
         <v>203360</v>
       </c>
-      <c r="F143" s="9">
+      <c r="O143" s="9">
         <v>460099</v>
       </c>
-      <c r="G143" s="9">
+      <c r="P143" s="9">
         <v>194335</v>
       </c>
-      <c r="H143" s="9">
+      <c r="Q143" s="9">
         <v>455574</v>
       </c>
-      <c r="I143" s="9">
+      <c r="R143" s="9">
         <v>83060</v>
       </c>
-      <c r="J143" s="9">
+      <c r="S143" s="9">
         <v>1662789</v>
       </c>
-      <c r="K143" s="9">
+      <c r="T143" s="9">
         <v>268969</v>
       </c>
-      <c r="L143" s="9">
+      <c r="U143" s="9">
         <v>873627</v>
       </c>
-      <c r="M143" s="9">
+      <c r="V143" s="9">
         <v>52559</v>
       </c>
-      <c r="N143" s="9">
+      <c r="W143" s="9">
         <v>1375749</v>
       </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X143" s="9">
+        <v>239039</v>
+      </c>
+    </row>
+    <row r="144" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
-      <c r="E144" s="11">
+      <c r="E144" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F144" s="11">
+        <v>1133</v>
+      </c>
+      <c r="G144" s="11">
+        <v>945</v>
+      </c>
+      <c r="H144" s="11">
+        <v>532</v>
+      </c>
+      <c r="I144" s="11">
+        <v>1593</v>
+      </c>
+      <c r="J144" s="11">
+        <v>1043</v>
+      </c>
+      <c r="K144" s="11">
+        <v>-3168</v>
+      </c>
+      <c r="L144" s="11">
+        <v>167</v>
+      </c>
+      <c r="M144" s="11">
+        <v>1683</v>
+      </c>
+      <c r="N144" s="11">
         <v>1079</v>
       </c>
-      <c r="F144" s="11">
+      <c r="O144" s="11">
         <v>-2929</v>
       </c>
-      <c r="G144" s="11">
-        <v>0</v>
-      </c>
-      <c r="H144" s="11">
-        <v>0</v>
-      </c>
-      <c r="I144" s="11">
-        <v>0</v>
-      </c>
-      <c r="J144" s="11">
+      <c r="P144" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="11">
+        <v>0</v>
+      </c>
+      <c r="R144" s="11">
+        <v>0</v>
+      </c>
+      <c r="S144" s="11">
         <v>36047411</v>
       </c>
-      <c r="K144" s="11">
-        <v>0</v>
-      </c>
-      <c r="L144" s="11">
-        <v>0</v>
-      </c>
-      <c r="M144" s="11">
-        <v>0</v>
-      </c>
-      <c r="N144" s="11">
+      <c r="T144" s="11">
+        <v>0</v>
+      </c>
+      <c r="U144" s="11">
+        <v>0</v>
+      </c>
+      <c r="V144" s="11">
+        <v>0</v>
+      </c>
+      <c r="W144" s="11">
         <v>23089420</v>
       </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X144" s="11">
+        <v>6198010</v>
+      </c>
+    </row>
+    <row r="145" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="9">
+      <c r="E145" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F145" s="9">
+        <v>163818</v>
+      </c>
+      <c r="G145" s="9">
+        <v>143049</v>
+      </c>
+      <c r="H145" s="9">
+        <v>153922</v>
+      </c>
+      <c r="I145" s="9">
+        <v>155029</v>
+      </c>
+      <c r="J145" s="9">
+        <v>157082</v>
+      </c>
+      <c r="K145" s="9">
+        <v>159130</v>
+      </c>
+      <c r="L145" s="9">
+        <v>162748</v>
+      </c>
+      <c r="M145" s="9">
+        <v>166334</v>
+      </c>
+      <c r="N145" s="9">
         <v>165796</v>
       </c>
-      <c r="F145" s="9">
+      <c r="O145" s="9">
         <v>222963</v>
       </c>
-      <c r="G145" s="9">
+      <c r="P145" s="9">
         <v>190851</v>
       </c>
-      <c r="H145" s="9">
+      <c r="Q145" s="9">
         <v>260643</v>
       </c>
-      <c r="I145" s="9">
+      <c r="R145" s="9">
         <v>212553</v>
       </c>
-      <c r="J145" s="9">
+      <c r="S145" s="9">
         <v>273324</v>
       </c>
-      <c r="K145" s="9">
+      <c r="T145" s="9">
         <v>265061</v>
       </c>
-      <c r="L145" s="9">
+      <c r="U145" s="9">
         <v>319007</v>
       </c>
-      <c r="M145" s="9">
+      <c r="V145" s="9">
         <v>343777</v>
       </c>
-      <c r="N145" s="9">
+      <c r="W145" s="9">
         <v>340207</v>
       </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X145" s="9">
+        <v>334344</v>
+      </c>
+    </row>
+    <row r="146" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
-      <c r="E146" s="11">
+      <c r="E146" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F146" s="11">
+        <v>379061</v>
+      </c>
+      <c r="G146" s="11">
+        <v>569647</v>
+      </c>
+      <c r="H146" s="11">
+        <v>468791</v>
+      </c>
+      <c r="I146" s="11">
+        <v>574815</v>
+      </c>
+      <c r="J146" s="11">
+        <v>416751</v>
+      </c>
+      <c r="K146" s="11">
+        <v>630825</v>
+      </c>
+      <c r="L146" s="11">
+        <v>573897</v>
+      </c>
+      <c r="M146" s="11">
+        <v>876919</v>
+      </c>
+      <c r="N146" s="11">
         <v>563431</v>
       </c>
-      <c r="F146" s="11">
+      <c r="O146" s="11">
         <v>957954</v>
       </c>
-      <c r="G146" s="11">
+      <c r="P146" s="11">
         <v>1048416</v>
       </c>
-      <c r="H146" s="11">
+      <c r="Q146" s="11">
         <v>1532913</v>
       </c>
-      <c r="I146" s="11">
+      <c r="R146" s="11">
         <v>366863</v>
       </c>
-      <c r="J146" s="11">
+      <c r="S146" s="11">
         <v>1780345</v>
       </c>
-      <c r="K146" s="11">
+      <c r="T146" s="11">
         <v>1889046</v>
       </c>
-      <c r="L146" s="11">
+      <c r="U146" s="11">
         <v>1492083</v>
       </c>
-      <c r="M146" s="11">
+      <c r="V146" s="11">
         <v>1749031</v>
       </c>
-      <c r="N146" s="11">
+      <c r="W146" s="11">
         <v>2549825</v>
       </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X146" s="11">
+        <v>2373964</v>
+      </c>
+    </row>
+    <row r="147" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="9">
-        <v>0</v>
+      <c r="E147" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F147" s="9">
         <v>0</v>
@@ -4908,82 +8079,172 @@
       <c r="N147" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O147" s="9">
+        <v>0</v>
+      </c>
+      <c r="P147" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="9">
+        <v>0</v>
+      </c>
+      <c r="R147" s="9">
+        <v>0</v>
+      </c>
+      <c r="S147" s="9">
+        <v>0</v>
+      </c>
+      <c r="T147" s="9">
+        <v>0</v>
+      </c>
+      <c r="U147" s="9">
+        <v>0</v>
+      </c>
+      <c r="V147" s="9">
+        <v>0</v>
+      </c>
+      <c r="W147" s="9">
+        <v>0</v>
+      </c>
+      <c r="X147" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
-      <c r="E148" s="11">
+      <c r="E148" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" s="11">
+        <v>634623</v>
+      </c>
+      <c r="G148" s="11">
+        <v>301671</v>
+      </c>
+      <c r="H148" s="11">
+        <v>323915</v>
+      </c>
+      <c r="I148" s="11">
+        <v>800465</v>
+      </c>
+      <c r="J148" s="11">
+        <v>1277724</v>
+      </c>
+      <c r="K148" s="11">
+        <v>7527779</v>
+      </c>
+      <c r="L148" s="11">
+        <v>508180</v>
+      </c>
+      <c r="M148" s="11">
+        <v>842342</v>
+      </c>
+      <c r="N148" s="11">
         <v>442613</v>
       </c>
-      <c r="F148" s="11">
+      <c r="O148" s="11">
         <v>11183670</v>
       </c>
-      <c r="G148" s="11">
+      <c r="P148" s="11">
         <v>3524185</v>
       </c>
-      <c r="H148" s="11">
+      <c r="Q148" s="11">
         <v>4553557</v>
       </c>
-      <c r="I148" s="11">
+      <c r="R148" s="11">
         <v>4050453</v>
       </c>
-      <c r="J148" s="11">
+      <c r="S148" s="11">
         <v>-10215091</v>
       </c>
-      <c r="K148" s="11">
+      <c r="T148" s="11">
         <v>7716272</v>
       </c>
-      <c r="L148" s="11">
+      <c r="U148" s="11">
         <v>6964825</v>
       </c>
-      <c r="M148" s="11">
+      <c r="V148" s="11">
         <v>6825609</v>
       </c>
-      <c r="N148" s="11">
+      <c r="W148" s="11">
         <v>-17630710</v>
       </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X148" s="11">
+        <v>923338</v>
+      </c>
+    </row>
+    <row r="149" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
+        <v>0</v>
+      </c>
+      <c r="F149" s="15">
+        <v>1097502</v>
+      </c>
+      <c r="G149" s="15">
+        <v>1406860</v>
+      </c>
+      <c r="H149" s="15">
+        <v>1034966</v>
+      </c>
+      <c r="I149" s="15">
+        <v>1634737</v>
+      </c>
+      <c r="J149" s="15">
+        <v>1891388</v>
+      </c>
+      <c r="K149" s="15">
+        <v>8640565</v>
+      </c>
+      <c r="L149" s="15">
+        <v>1356045</v>
+      </c>
+      <c r="M149" s="15">
+        <v>2092008</v>
+      </c>
+      <c r="N149" s="15">
         <v>1376279</v>
       </c>
-      <c r="F149" s="15">
+      <c r="O149" s="15">
         <v>12821757</v>
       </c>
-      <c r="G149" s="15">
+      <c r="P149" s="15">
         <v>4957787</v>
       </c>
-      <c r="H149" s="15">
+      <c r="Q149" s="15">
         <v>6802687</v>
       </c>
-      <c r="I149" s="15">
+      <c r="R149" s="15">
         <v>4712929</v>
       </c>
-      <c r="J149" s="15">
+      <c r="S149" s="15">
         <v>29548778</v>
       </c>
-      <c r="K149" s="15">
+      <c r="T149" s="15">
         <v>10139348</v>
       </c>
-      <c r="L149" s="15">
+      <c r="U149" s="15">
         <v>9649542</v>
       </c>
-      <c r="M149" s="15">
+      <c r="V149" s="15">
         <v>8970976</v>
       </c>
-      <c r="N149" s="15">
+      <c r="W149" s="15">
         <v>9724491</v>
       </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X149" s="15">
+        <v>10068695</v>
+      </c>
+    </row>
+    <row r="150" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -4997,8 +8258,18 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+    </row>
+    <row r="151" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5012,8 +8283,18 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+    </row>
+    <row r="152" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5027,10 +8308,20 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
-    </row>
-    <row r="153" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+    </row>
+    <row r="153" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -5044,8 +8335,18 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+    </row>
+    <row r="154" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5059,13 +8360,23 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+      <c r="X154" s="1"/>
+    </row>
+    <row r="155" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -5078,13 +8389,23 @@
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="X155" s="1"/>
+    </row>
+    <row r="156" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
@@ -5097,13 +8418,23 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
+    </row>
+    <row r="157" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -5116,35 +8447,45 @@
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+    </row>
+    <row r="158" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
@@ -5152,10 +8493,10 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -5163,10 +8504,10 @@
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
@@ -5174,10 +8515,10 @@
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -5185,10 +8526,10 @@
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
@@ -5196,10 +8537,10 @@
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -5207,10 +8548,10 @@
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>

--- a/database/industries/methanol/zagros/cost/quarterly.xlsx
+++ b/database/industries/methanol/zagros/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB147121-BC51-40C0-9616-30182D766675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C2F54F-BEE9-4ACF-82FF-FDE665F305B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1397/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1397/09</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -1055,64 +1055,64 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>7763769</v>
+        <v>10178674</v>
       </c>
       <c r="F10" s="9">
-        <v>10178674</v>
+        <v>7377026</v>
       </c>
       <c r="G10" s="9">
-        <v>7377026</v>
+        <v>5816766</v>
       </c>
       <c r="H10" s="9">
-        <v>5816766</v>
+        <v>6576962</v>
       </c>
       <c r="I10" s="9">
-        <v>6576962</v>
+        <v>8874700</v>
       </c>
       <c r="J10" s="9">
-        <v>8874700</v>
+        <v>-728409</v>
       </c>
       <c r="K10" s="9">
-        <v>-728409</v>
+        <v>7325271</v>
       </c>
       <c r="L10" s="9">
-        <v>7325271</v>
+        <v>9063325</v>
       </c>
       <c r="M10" s="9">
-        <v>9063325</v>
+        <v>18232383</v>
       </c>
       <c r="N10" s="9">
-        <v>18232383</v>
+        <v>8912231</v>
       </c>
       <c r="O10" s="9">
-        <v>8912231</v>
+        <v>14951267</v>
       </c>
       <c r="P10" s="9">
-        <v>14951267</v>
+        <v>20809319</v>
       </c>
       <c r="Q10" s="9">
-        <v>20809319</v>
+        <v>27533527</v>
       </c>
       <c r="R10" s="9">
-        <v>27533527</v>
+        <v>41770886</v>
       </c>
       <c r="S10" s="9">
-        <v>41770886</v>
+        <v>33266140</v>
       </c>
       <c r="T10" s="9">
-        <v>33266140</v>
+        <v>29733894</v>
       </c>
       <c r="U10" s="9">
-        <v>29733894</v>
+        <v>28604286</v>
       </c>
       <c r="V10" s="9">
-        <v>28604286</v>
+        <v>16206626</v>
       </c>
       <c r="W10" s="9">
-        <v>16206626</v>
+        <v>25760017</v>
       </c>
       <c r="X10" s="9">
-        <v>25760017</v>
+        <v>40047353</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
@@ -1122,64 +1122,64 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>81072</v>
+        <v>45362</v>
       </c>
       <c r="F11" s="11">
-        <v>45362</v>
+        <v>59773</v>
       </c>
       <c r="G11" s="11">
-        <v>59773</v>
+        <v>74993</v>
       </c>
       <c r="H11" s="11">
-        <v>74993</v>
+        <v>90661</v>
       </c>
       <c r="I11" s="11">
-        <v>90661</v>
+        <v>61513</v>
       </c>
       <c r="J11" s="11">
-        <v>61513</v>
+        <v>105955</v>
       </c>
       <c r="K11" s="11">
-        <v>105955</v>
+        <v>96923</v>
       </c>
       <c r="L11" s="11">
-        <v>96923</v>
+        <v>122315</v>
       </c>
       <c r="M11" s="11">
-        <v>122315</v>
+        <v>90149</v>
       </c>
       <c r="N11" s="11">
-        <v>90149</v>
+        <v>168965</v>
       </c>
       <c r="O11" s="11">
-        <v>168965</v>
+        <v>185264</v>
       </c>
       <c r="P11" s="11">
-        <v>185264</v>
+        <v>268472</v>
       </c>
       <c r="Q11" s="11">
-        <v>268472</v>
+        <v>51263</v>
       </c>
       <c r="R11" s="11">
-        <v>51263</v>
+        <v>303339</v>
       </c>
       <c r="S11" s="11">
-        <v>303339</v>
+        <v>327183</v>
       </c>
       <c r="T11" s="11">
-        <v>327183</v>
+        <v>242870</v>
       </c>
       <c r="U11" s="11">
-        <v>242870</v>
+        <v>286356</v>
       </c>
       <c r="V11" s="11">
-        <v>286356</v>
+        <v>396205</v>
       </c>
       <c r="W11" s="11">
-        <v>396205</v>
+        <v>405551</v>
       </c>
       <c r="X11" s="11">
-        <v>405551</v>
+        <v>392592</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
@@ -1189,64 +1189,64 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>2361996</v>
+        <v>1097502</v>
       </c>
       <c r="F12" s="9">
-        <v>1097502</v>
+        <v>1406860</v>
       </c>
       <c r="G12" s="9">
-        <v>1406860</v>
+        <v>1034966</v>
       </c>
       <c r="H12" s="9">
-        <v>1034966</v>
+        <v>1634737</v>
       </c>
       <c r="I12" s="9">
-        <v>1634737</v>
+        <v>1891388</v>
       </c>
       <c r="J12" s="9">
-        <v>1891388</v>
+        <v>8640565</v>
       </c>
       <c r="K12" s="9">
-        <v>8640565</v>
+        <v>1356045</v>
       </c>
       <c r="L12" s="9">
-        <v>1356045</v>
+        <v>2092008</v>
       </c>
       <c r="M12" s="9">
-        <v>2092008</v>
+        <v>1376279</v>
       </c>
       <c r="N12" s="9">
-        <v>1376279</v>
+        <v>12821757</v>
       </c>
       <c r="O12" s="9">
-        <v>12821757</v>
+        <v>4957787</v>
       </c>
       <c r="P12" s="9">
-        <v>4957787</v>
+        <v>6802687</v>
       </c>
       <c r="Q12" s="9">
-        <v>6802687</v>
+        <v>4712929</v>
       </c>
       <c r="R12" s="9">
-        <v>4712929</v>
+        <v>29548778</v>
       </c>
       <c r="S12" s="9">
-        <v>29548778</v>
+        <v>10139348</v>
       </c>
       <c r="T12" s="9">
-        <v>10139348</v>
+        <v>9649542</v>
       </c>
       <c r="U12" s="9">
-        <v>9649542</v>
+        <v>8970976</v>
       </c>
       <c r="V12" s="9">
-        <v>8970976</v>
+        <v>9724491</v>
       </c>
       <c r="W12" s="9">
-        <v>9724491</v>
+        <v>10068695</v>
       </c>
       <c r="X12" s="9">
-        <v>10068695</v>
+        <v>19634695</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
@@ -1256,64 +1256,64 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>10206837</v>
+        <v>11321538</v>
       </c>
       <c r="F13" s="13">
-        <v>11321538</v>
+        <v>8843659</v>
       </c>
       <c r="G13" s="13">
-        <v>8843659</v>
+        <v>6926725</v>
       </c>
       <c r="H13" s="13">
-        <v>6926725</v>
+        <v>8302360</v>
       </c>
       <c r="I13" s="13">
-        <v>8302360</v>
+        <v>10827601</v>
       </c>
       <c r="J13" s="13">
-        <v>10827601</v>
+        <v>8018111</v>
       </c>
       <c r="K13" s="13">
-        <v>8018111</v>
+        <v>8778239</v>
       </c>
       <c r="L13" s="13">
-        <v>8778239</v>
+        <v>11277648</v>
       </c>
       <c r="M13" s="13">
-        <v>11277648</v>
+        <v>19698811</v>
       </c>
       <c r="N13" s="13">
-        <v>19698811</v>
+        <v>21902953</v>
       </c>
       <c r="O13" s="13">
-        <v>21902953</v>
+        <v>20094318</v>
       </c>
       <c r="P13" s="13">
-        <v>20094318</v>
+        <v>27880478</v>
       </c>
       <c r="Q13" s="13">
-        <v>27880478</v>
+        <v>32297719</v>
       </c>
       <c r="R13" s="13">
-        <v>32297719</v>
+        <v>71623003</v>
       </c>
       <c r="S13" s="13">
-        <v>71623003</v>
+        <v>43732671</v>
       </c>
       <c r="T13" s="13">
-        <v>43732671</v>
+        <v>39626306</v>
       </c>
       <c r="U13" s="13">
-        <v>39626306</v>
+        <v>37861618</v>
       </c>
       <c r="V13" s="13">
-        <v>37861618</v>
+        <v>26327322</v>
       </c>
       <c r="W13" s="13">
-        <v>26327322</v>
+        <v>36234263</v>
       </c>
       <c r="X13" s="13">
-        <v>36234263</v>
+        <v>60074640</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="V14" s="9">
-        <v>0</v>
+        <v>-2242023</v>
       </c>
       <c r="W14" s="9">
-        <v>-2242023</v>
+        <v>0</v>
       </c>
       <c r="X14" s="9">
         <v>0</v>
@@ -1390,64 +1390,64 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>10206837</v>
+        <v>11321538</v>
       </c>
       <c r="F15" s="13">
-        <v>11321538</v>
+        <v>8843659</v>
       </c>
       <c r="G15" s="13">
-        <v>8843659</v>
+        <v>6926725</v>
       </c>
       <c r="H15" s="13">
-        <v>6926725</v>
+        <v>8302360</v>
       </c>
       <c r="I15" s="13">
-        <v>8302360</v>
+        <v>10827601</v>
       </c>
       <c r="J15" s="13">
-        <v>10827601</v>
+        <v>8018111</v>
       </c>
       <c r="K15" s="13">
-        <v>8018111</v>
+        <v>8778239</v>
       </c>
       <c r="L15" s="13">
-        <v>8778239</v>
+        <v>11277648</v>
       </c>
       <c r="M15" s="13">
-        <v>11277648</v>
+        <v>19698811</v>
       </c>
       <c r="N15" s="13">
-        <v>19698811</v>
+        <v>21902953</v>
       </c>
       <c r="O15" s="13">
-        <v>21902953</v>
+        <v>20094318</v>
       </c>
       <c r="P15" s="13">
-        <v>20094318</v>
+        <v>27880478</v>
       </c>
       <c r="Q15" s="13">
-        <v>27880478</v>
+        <v>32297719</v>
       </c>
       <c r="R15" s="13">
-        <v>32297719</v>
+        <v>71623003</v>
       </c>
       <c r="S15" s="13">
-        <v>71623003</v>
+        <v>43732671</v>
       </c>
       <c r="T15" s="13">
-        <v>43732671</v>
+        <v>39626306</v>
       </c>
       <c r="U15" s="13">
-        <v>39626306</v>
+        <v>37861618</v>
       </c>
       <c r="V15" s="13">
-        <v>37861618</v>
+        <v>24085299</v>
       </c>
       <c r="W15" s="13">
-        <v>24085299</v>
+        <v>36234263</v>
       </c>
       <c r="X15" s="13">
-        <v>36234263</v>
+        <v>60074640</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
@@ -1457,64 +1457,64 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-5061</v>
+        <v>18451</v>
       </c>
       <c r="F16" s="9">
-        <v>18451</v>
+        <v>-21630</v>
       </c>
       <c r="G16" s="9">
-        <v>-21630</v>
+        <v>21630</v>
       </c>
       <c r="H16" s="9">
-        <v>21630</v>
+        <v>-14718</v>
       </c>
       <c r="I16" s="9">
-        <v>-14718</v>
+        <v>14718</v>
       </c>
       <c r="J16" s="9">
-        <v>14718</v>
+        <v>-18897</v>
       </c>
       <c r="K16" s="9">
-        <v>-18897</v>
+        <v>18897</v>
       </c>
       <c r="L16" s="9">
-        <v>18897</v>
+        <v>-18604</v>
       </c>
       <c r="M16" s="9">
-        <v>-18604</v>
+        <v>18604</v>
       </c>
       <c r="N16" s="9">
-        <v>18604</v>
+        <v>-32341</v>
       </c>
       <c r="O16" s="9">
-        <v>-32341</v>
+        <v>32341</v>
       </c>
       <c r="P16" s="9">
-        <v>32341</v>
+        <v>-43722</v>
       </c>
       <c r="Q16" s="9">
-        <v>-43722</v>
+        <v>43722</v>
       </c>
       <c r="R16" s="9">
-        <v>43722</v>
+        <v>-74793</v>
       </c>
       <c r="S16" s="9">
-        <v>-74793</v>
+        <v>74793</v>
       </c>
       <c r="T16" s="9">
-        <v>74793</v>
+        <v>-108855</v>
       </c>
       <c r="U16" s="9">
-        <v>-108855</v>
+        <v>108855</v>
       </c>
       <c r="V16" s="9">
-        <v>108855</v>
+        <v>-179631</v>
       </c>
       <c r="W16" s="9">
-        <v>-179631</v>
+        <v>179631</v>
       </c>
       <c r="X16" s="9">
-        <v>179631</v>
+        <v>-85982</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.3">
@@ -1591,64 +1591,64 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>10201776</v>
+        <v>11339989</v>
       </c>
       <c r="F18" s="15">
-        <v>11339989</v>
+        <v>8822029</v>
       </c>
       <c r="G18" s="15">
-        <v>8822029</v>
+        <v>6948355</v>
       </c>
       <c r="H18" s="15">
-        <v>6948355</v>
+        <v>8287642</v>
       </c>
       <c r="I18" s="15">
-        <v>8287642</v>
+        <v>10842319</v>
       </c>
       <c r="J18" s="15">
-        <v>10842319</v>
+        <v>7999214</v>
       </c>
       <c r="K18" s="15">
-        <v>7999214</v>
+        <v>8797136</v>
       </c>
       <c r="L18" s="15">
-        <v>8797136</v>
+        <v>11259044</v>
       </c>
       <c r="M18" s="15">
-        <v>11259044</v>
+        <v>19717415</v>
       </c>
       <c r="N18" s="15">
-        <v>19717415</v>
+        <v>21870612</v>
       </c>
       <c r="O18" s="15">
-        <v>21870612</v>
+        <v>20126659</v>
       </c>
       <c r="P18" s="15">
-        <v>20126659</v>
+        <v>27836756</v>
       </c>
       <c r="Q18" s="15">
-        <v>27836756</v>
+        <v>32341441</v>
       </c>
       <c r="R18" s="15">
-        <v>32341441</v>
+        <v>71548210</v>
       </c>
       <c r="S18" s="15">
-        <v>71548210</v>
+        <v>43807464</v>
       </c>
       <c r="T18" s="15">
-        <v>43807464</v>
+        <v>39517451</v>
       </c>
       <c r="U18" s="15">
-        <v>39517451</v>
+        <v>37970473</v>
       </c>
       <c r="V18" s="15">
-        <v>37970473</v>
+        <v>23905668</v>
       </c>
       <c r="W18" s="15">
-        <v>23905668</v>
+        <v>36413894</v>
       </c>
       <c r="X18" s="15">
-        <v>36413894</v>
+        <v>59988658</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
@@ -1658,16 +1658,16 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>443147</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>973751</v>
       </c>
       <c r="H19" s="11">
-        <v>973751</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
@@ -1676,46 +1676,46 @@
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <v>0</v>
+        <v>617941</v>
       </c>
       <c r="L19" s="11">
-        <v>617941</v>
+        <v>0</v>
       </c>
       <c r="M19" s="11">
         <v>0</v>
       </c>
       <c r="N19" s="11">
-        <v>0</v>
+        <v>987216</v>
       </c>
       <c r="O19" s="11">
-        <v>987216</v>
+        <v>917924</v>
       </c>
       <c r="P19" s="11">
-        <v>917924</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="11">
         <v>0</v>
       </c>
       <c r="R19" s="11">
-        <v>0</v>
+        <v>2146303</v>
       </c>
       <c r="S19" s="11">
-        <v>2146303</v>
+        <v>5898432</v>
       </c>
       <c r="T19" s="11">
-        <v>5898432</v>
+        <v>8162443</v>
       </c>
       <c r="U19" s="11">
-        <v>8162443</v>
+        <v>496196</v>
       </c>
       <c r="V19" s="11">
-        <v>496196</v>
+        <v>8432649</v>
       </c>
       <c r="W19" s="11">
-        <v>8432649</v>
+        <v>6617105</v>
       </c>
       <c r="X19" s="11">
-        <v>6617105</v>
+        <v>3954857</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.3">
@@ -1725,64 +1725,64 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-667931</v>
+        <v>47164</v>
       </c>
       <c r="F20" s="9">
-        <v>47164</v>
+        <v>-352984</v>
       </c>
       <c r="G20" s="9">
-        <v>-352984</v>
+        <v>-432200</v>
       </c>
       <c r="H20" s="9">
-        <v>-432200</v>
+        <v>-968225</v>
       </c>
       <c r="I20" s="9">
-        <v>-968225</v>
+        <v>829740</v>
       </c>
       <c r="J20" s="9">
-        <v>829740</v>
+        <v>-47256</v>
       </c>
       <c r="K20" s="9">
-        <v>-47256</v>
+        <v>-884796</v>
       </c>
       <c r="L20" s="9">
-        <v>-884796</v>
+        <v>-569988</v>
       </c>
       <c r="M20" s="9">
-        <v>-569988</v>
+        <v>467568</v>
       </c>
       <c r="N20" s="9">
-        <v>467568</v>
+        <v>-917924</v>
       </c>
       <c r="O20" s="9">
-        <v>-917924</v>
+        <v>-1174241</v>
       </c>
       <c r="P20" s="9">
-        <v>-1174241</v>
+        <v>-532140</v>
       </c>
       <c r="Q20" s="9">
-        <v>-532140</v>
+        <v>-439922</v>
       </c>
       <c r="R20" s="9">
-        <v>-439922</v>
+        <v>-6524636</v>
       </c>
       <c r="S20" s="9">
-        <v>-6524636</v>
+        <v>-8162443</v>
       </c>
       <c r="T20" s="9">
-        <v>-8162443</v>
+        <v>-496196</v>
       </c>
       <c r="U20" s="9">
-        <v>-496196</v>
+        <v>-8432649</v>
       </c>
       <c r="V20" s="9">
-        <v>-8432649</v>
+        <v>-6617104</v>
       </c>
       <c r="W20" s="9">
-        <v>-6617105</v>
+        <v>-3954857</v>
       </c>
       <c r="X20" s="9">
-        <v>-3954857</v>
+        <v>-5347921</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
@@ -1792,64 +1792,64 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>9976992</v>
+        <v>11387153</v>
       </c>
       <c r="F21" s="13">
-        <v>11387153</v>
+        <v>8469045</v>
       </c>
       <c r="G21" s="13">
-        <v>8469045</v>
+        <v>7489906</v>
       </c>
       <c r="H21" s="13">
-        <v>7489906</v>
+        <v>7319417</v>
       </c>
       <c r="I21" s="13">
-        <v>7319417</v>
+        <v>11672059</v>
       </c>
       <c r="J21" s="13">
-        <v>11672059</v>
+        <v>7951958</v>
       </c>
       <c r="K21" s="13">
-        <v>7951958</v>
+        <v>8530281</v>
       </c>
       <c r="L21" s="13">
-        <v>8530281</v>
+        <v>10689056</v>
       </c>
       <c r="M21" s="13">
-        <v>10689056</v>
+        <v>20184983</v>
       </c>
       <c r="N21" s="13">
-        <v>20184983</v>
+        <v>21939904</v>
       </c>
       <c r="O21" s="13">
-        <v>21939904</v>
+        <v>19870342</v>
       </c>
       <c r="P21" s="13">
-        <v>19870342</v>
+        <v>27304616</v>
       </c>
       <c r="Q21" s="13">
-        <v>27304616</v>
+        <v>31901519</v>
       </c>
       <c r="R21" s="13">
-        <v>31901519</v>
+        <v>67169877</v>
       </c>
       <c r="S21" s="13">
-        <v>67169877</v>
+        <v>41543453</v>
       </c>
       <c r="T21" s="13">
-        <v>41543453</v>
+        <v>47809902</v>
       </c>
       <c r="U21" s="13">
-        <v>47809902</v>
+        <v>30034020</v>
       </c>
       <c r="V21" s="13">
-        <v>30034020</v>
+        <v>25721212</v>
       </c>
       <c r="W21" s="13">
-        <v>25721212</v>
+        <v>39076142</v>
       </c>
       <c r="X21" s="13">
-        <v>39076142</v>
+        <v>58595593</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
@@ -1874,49 +1874,49 @@
         <v>0</v>
       </c>
       <c r="J22" s="9">
-        <v>0</v>
+        <v>950218</v>
       </c>
       <c r="K22" s="9">
-        <v>950218</v>
+        <v>0</v>
       </c>
       <c r="L22" s="9">
         <v>0</v>
       </c>
       <c r="M22" s="9">
-        <v>0</v>
+        <v>1701583</v>
       </c>
       <c r="N22" s="9">
-        <v>1701583</v>
+        <v>-1701583</v>
       </c>
       <c r="O22" s="9">
-        <v>-1701583</v>
+        <v>1022793</v>
       </c>
       <c r="P22" s="9">
-        <v>1022793</v>
+        <v>1632156</v>
       </c>
       <c r="Q22" s="9">
-        <v>1632156</v>
+        <v>385305</v>
       </c>
       <c r="R22" s="9">
-        <v>385305</v>
+        <v>-3040254</v>
       </c>
       <c r="S22" s="9">
-        <v>-3040254</v>
+        <v>2598084</v>
       </c>
       <c r="T22" s="9">
-        <v>2598084</v>
+        <v>-2598084</v>
       </c>
       <c r="U22" s="9">
-        <v>-2598084</v>
+        <v>0</v>
       </c>
       <c r="V22" s="9">
         <v>0</v>
       </c>
       <c r="W22" s="9">
-        <v>0</v>
+        <v>-336157</v>
       </c>
       <c r="X22" s="9">
-        <v>-336157</v>
+        <v>336157</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.3">
@@ -1926,64 +1926,64 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>9976992</v>
+        <v>11387153</v>
       </c>
       <c r="F23" s="13">
-        <v>11387153</v>
+        <v>8469045</v>
       </c>
       <c r="G23" s="13">
-        <v>8469045</v>
+        <v>7489906</v>
       </c>
       <c r="H23" s="13">
-        <v>7489906</v>
+        <v>7319417</v>
       </c>
       <c r="I23" s="13">
-        <v>7319417</v>
+        <v>11672059</v>
       </c>
       <c r="J23" s="13">
-        <v>11672059</v>
+        <v>8902176</v>
       </c>
       <c r="K23" s="13">
-        <v>8902176</v>
+        <v>8530281</v>
       </c>
       <c r="L23" s="13">
-        <v>8530281</v>
+        <v>10689056</v>
       </c>
       <c r="M23" s="13">
-        <v>10689056</v>
+        <v>21886566</v>
       </c>
       <c r="N23" s="13">
-        <v>21886566</v>
+        <v>20238321</v>
       </c>
       <c r="O23" s="13">
-        <v>20238321</v>
+        <v>20893135</v>
       </c>
       <c r="P23" s="13">
-        <v>20893135</v>
+        <v>28936772</v>
       </c>
       <c r="Q23" s="13">
-        <v>28936772</v>
+        <v>32286824</v>
       </c>
       <c r="R23" s="13">
-        <v>32286824</v>
+        <v>64129623</v>
       </c>
       <c r="S23" s="13">
-        <v>64129623</v>
+        <v>44141537</v>
       </c>
       <c r="T23" s="13">
-        <v>44141537</v>
+        <v>45211818</v>
       </c>
       <c r="U23" s="13">
-        <v>45211818</v>
+        <v>30034020</v>
       </c>
       <c r="V23" s="13">
-        <v>30034020</v>
+        <v>25721212</v>
       </c>
       <c r="W23" s="13">
-        <v>25721212</v>
+        <v>38739985</v>
       </c>
       <c r="X23" s="13">
-        <v>38739985</v>
+        <v>58931750</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.3">
@@ -2225,8 +2225,8 @@
       <c r="Q30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R30" s="11" t="s">
-        <v>41</v>
+      <c r="R30" s="11">
+        <v>0</v>
       </c>
       <c r="S30" s="11">
         <v>0</v>
@@ -2288,14 +2288,14 @@
       <c r="O31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P31" s="9" t="s">
-        <v>41</v>
+      <c r="P31" s="9">
+        <v>0</v>
       </c>
       <c r="Q31" s="9">
         <v>0</v>
       </c>
-      <c r="R31" s="9">
-        <v>0</v>
+      <c r="R31" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="S31" s="9" t="s">
         <v>41</v>
@@ -2393,14 +2393,14 @@
         <v>44</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>41</v>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
       </c>
       <c r="H33" s="9">
         <v>0</v>
@@ -2426,8 +2426,8 @@
       <c r="O33" s="9">
         <v>0</v>
       </c>
-      <c r="P33" s="9">
-        <v>0</v>
+      <c r="P33" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>41</v>
@@ -2462,14 +2462,14 @@
         <v>40</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>41</v>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
@@ -2489,8 +2489,8 @@
       <c r="M34" s="11">
         <v>0</v>
       </c>
-      <c r="N34" s="11">
-        <v>0</v>
+      <c r="N34" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="O34" s="11" t="s">
         <v>41</v>
@@ -2898,26 +2898,26 @@
       <c r="Q43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R43" s="11" t="s">
-        <v>41</v>
+      <c r="R43" s="11">
+        <v>489202226</v>
       </c>
       <c r="S43" s="11">
-        <v>489202226</v>
+        <v>664140620</v>
       </c>
       <c r="T43" s="11">
-        <v>664140620</v>
+        <v>593621250</v>
       </c>
       <c r="U43" s="11">
-        <v>593621250</v>
+        <v>571069216</v>
       </c>
       <c r="V43" s="11">
-        <v>571069216</v>
+        <v>323127267</v>
       </c>
       <c r="W43" s="11">
-        <v>323127267</v>
+        <v>514284920</v>
       </c>
       <c r="X43" s="11">
-        <v>514284920</v>
+        <v>691890405</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.3">
@@ -2961,14 +2961,14 @@
       <c r="O44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P44" s="9" t="s">
-        <v>41</v>
+      <c r="P44" s="9">
+        <v>642819696</v>
       </c>
       <c r="Q44" s="9">
-        <v>642819696</v>
-      </c>
-      <c r="R44" s="9">
         <v>454478711</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="S44" s="9" t="s">
         <v>41</v>
@@ -3066,41 +3066,41 @@
         <v>44</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="9">
+      <c r="E46" s="9">
         <v>752363710</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>41</v>
+      <c r="F46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="9">
+        <v>657785800</v>
       </c>
       <c r="H46" s="9">
-        <v>657785800</v>
+        <v>781070748</v>
       </c>
       <c r="I46" s="9">
-        <v>781070748</v>
+        <v>712600896</v>
       </c>
       <c r="J46" s="9">
-        <v>712600896</v>
+        <v>349702014</v>
       </c>
       <c r="K46" s="9">
-        <v>349702014</v>
+        <v>792900792</v>
       </c>
       <c r="L46" s="9">
-        <v>792900792</v>
+        <v>685114591</v>
       </c>
       <c r="M46" s="9">
-        <v>685114591</v>
+        <v>723223052</v>
       </c>
       <c r="N46" s="9">
-        <v>723223052</v>
+        <v>582358299</v>
       </c>
       <c r="O46" s="9">
-        <v>582358299</v>
-      </c>
-      <c r="P46" s="9">
         <v>737215879</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="Q46" s="9" t="s">
         <v>41</v>
@@ -3135,35 +3135,35 @@
         <v>40</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="11">
+      <c r="E47" s="11">
         <v>329834425</v>
       </c>
-      <c r="G47" s="11" t="s">
-        <v>41</v>
+      <c r="F47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="11">
+        <v>279449343</v>
       </c>
       <c r="H47" s="11">
-        <v>279449343</v>
+        <v>337397739</v>
       </c>
       <c r="I47" s="11">
-        <v>337397739</v>
+        <v>308590962</v>
       </c>
       <c r="J47" s="11">
-        <v>308590962</v>
+        <v>156064255</v>
       </c>
       <c r="K47" s="11">
-        <v>156064255</v>
+        <v>343220432</v>
       </c>
       <c r="L47" s="11">
-        <v>343220432</v>
+        <v>307240700</v>
       </c>
       <c r="M47" s="11">
-        <v>307240700</v>
-      </c>
-      <c r="N47" s="11">
         <v>308151369</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>41</v>
@@ -3272,64 +3272,64 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>0</v>
+        <v>1082198135</v>
       </c>
       <c r="F49" s="13">
-        <v>1082198135</v>
+        <v>0</v>
       </c>
       <c r="G49" s="13">
-        <v>0</v>
+        <v>937235143</v>
       </c>
       <c r="H49" s="13">
-        <v>937235143</v>
+        <v>1118468487</v>
       </c>
       <c r="I49" s="13">
-        <v>1118468487</v>
+        <v>1021191858</v>
       </c>
       <c r="J49" s="13">
-        <v>1021191858</v>
+        <v>505766269</v>
       </c>
       <c r="K49" s="13">
-        <v>505766269</v>
+        <v>1136121224</v>
       </c>
       <c r="L49" s="13">
-        <v>1136121224</v>
+        <v>992355291</v>
       </c>
       <c r="M49" s="13">
-        <v>992355291</v>
+        <v>1031374421</v>
       </c>
       <c r="N49" s="13">
-        <v>1031374421</v>
+        <v>582358299</v>
       </c>
       <c r="O49" s="13">
-        <v>582358299</v>
+        <v>737215879</v>
       </c>
       <c r="P49" s="13">
-        <v>737215879</v>
+        <v>642819696</v>
       </c>
       <c r="Q49" s="13">
-        <v>642819696</v>
+        <v>454478711</v>
       </c>
       <c r="R49" s="13">
-        <v>454478711</v>
+        <v>489202226</v>
       </c>
       <c r="S49" s="13">
-        <v>489202226</v>
+        <v>664140620</v>
       </c>
       <c r="T49" s="13">
-        <v>664140620</v>
+        <v>593621250</v>
       </c>
       <c r="U49" s="13">
-        <v>593621250</v>
+        <v>571069216</v>
       </c>
       <c r="V49" s="13">
-        <v>571069216</v>
+        <v>323127267</v>
       </c>
       <c r="W49" s="13">
-        <v>323127267</v>
+        <v>514284920</v>
       </c>
       <c r="X49" s="13">
-        <v>514284920</v>
+        <v>691890405</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.3">
@@ -3571,26 +3571,26 @@
       <c r="Q56" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R56" s="11" t="s">
-        <v>41</v>
+      <c r="R56" s="11">
+        <v>489202226</v>
       </c>
       <c r="S56" s="11">
-        <v>489202226</v>
+        <v>664140620</v>
       </c>
       <c r="T56" s="11">
-        <v>664140620</v>
+        <v>593621250</v>
       </c>
       <c r="U56" s="11">
-        <v>593621250</v>
+        <v>571069216</v>
       </c>
       <c r="V56" s="11">
-        <v>571069216</v>
+        <v>323127267</v>
       </c>
       <c r="W56" s="11">
-        <v>323127267</v>
+        <v>514284920</v>
       </c>
       <c r="X56" s="11">
-        <v>514284920</v>
+        <v>691890405</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.3">
@@ -3634,14 +3634,14 @@
       <c r="O57" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P57" s="9" t="s">
-        <v>41</v>
+      <c r="P57" s="9">
+        <v>642819696</v>
       </c>
       <c r="Q57" s="9">
-        <v>642819696</v>
-      </c>
-      <c r="R57" s="9">
         <v>454478711</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="S57" s="9" t="s">
         <v>41</v>
@@ -3739,41 +3739,41 @@
         <v>44</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="9">
+      <c r="E59" s="9">
         <v>752363710</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>41</v>
+      <c r="F59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="9">
+        <v>657785800</v>
       </c>
       <c r="H59" s="9">
-        <v>657785800</v>
+        <v>781070748</v>
       </c>
       <c r="I59" s="9">
-        <v>781070748</v>
+        <v>712600896</v>
       </c>
       <c r="J59" s="9">
-        <v>712600896</v>
+        <v>349702014</v>
       </c>
       <c r="K59" s="9">
-        <v>349702014</v>
+        <v>792900792</v>
       </c>
       <c r="L59" s="9">
-        <v>792900792</v>
+        <v>685114591</v>
       </c>
       <c r="M59" s="9">
-        <v>685114591</v>
+        <v>723223052</v>
       </c>
       <c r="N59" s="9">
-        <v>723223052</v>
+        <v>582358299</v>
       </c>
       <c r="O59" s="9">
-        <v>582358299</v>
-      </c>
-      <c r="P59" s="9">
         <v>737215879</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="Q59" s="9" t="s">
         <v>41</v>
@@ -3808,35 +3808,35 @@
         <v>40</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="11">
+      <c r="E60" s="11">
         <v>329834425</v>
       </c>
-      <c r="G60" s="11" t="s">
-        <v>41</v>
+      <c r="F60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="11">
+        <v>279449343</v>
       </c>
       <c r="H60" s="11">
-        <v>279449343</v>
+        <v>337397739</v>
       </c>
       <c r="I60" s="11">
-        <v>337397739</v>
+        <v>308590962</v>
       </c>
       <c r="J60" s="11">
-        <v>308590962</v>
+        <v>156064255</v>
       </c>
       <c r="K60" s="11">
-        <v>156064255</v>
+        <v>343220432</v>
       </c>
       <c r="L60" s="11">
-        <v>343220432</v>
+        <v>307240700</v>
       </c>
       <c r="M60" s="11">
-        <v>307240700</v>
-      </c>
-      <c r="N60" s="11">
         <v>308151369</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>41</v>
@@ -3945,64 +3945,64 @@
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>0</v>
+        <v>1082198135</v>
       </c>
       <c r="F62" s="13">
-        <v>1082198135</v>
+        <v>0</v>
       </c>
       <c r="G62" s="13">
-        <v>0</v>
+        <v>937235143</v>
       </c>
       <c r="H62" s="13">
-        <v>937235143</v>
+        <v>1118468487</v>
       </c>
       <c r="I62" s="13">
-        <v>1118468487</v>
+        <v>1021191858</v>
       </c>
       <c r="J62" s="13">
-        <v>1021191858</v>
+        <v>505766269</v>
       </c>
       <c r="K62" s="13">
-        <v>505766269</v>
+        <v>1136121224</v>
       </c>
       <c r="L62" s="13">
-        <v>1136121224</v>
+        <v>992355291</v>
       </c>
       <c r="M62" s="13">
-        <v>992355291</v>
+        <v>1031374421</v>
       </c>
       <c r="N62" s="13">
-        <v>1031374421</v>
+        <v>582358299</v>
       </c>
       <c r="O62" s="13">
-        <v>582358299</v>
+        <v>737215879</v>
       </c>
       <c r="P62" s="13">
-        <v>737215879</v>
+        <v>642819696</v>
       </c>
       <c r="Q62" s="13">
-        <v>642819696</v>
+        <v>454478711</v>
       </c>
       <c r="R62" s="13">
-        <v>454478711</v>
+        <v>489202226</v>
       </c>
       <c r="S62" s="13">
-        <v>489202226</v>
+        <v>664140620</v>
       </c>
       <c r="T62" s="13">
-        <v>664140620</v>
+        <v>593621250</v>
       </c>
       <c r="U62" s="13">
-        <v>593621250</v>
+        <v>571069216</v>
       </c>
       <c r="V62" s="13">
-        <v>571069216</v>
+        <v>323127267</v>
       </c>
       <c r="W62" s="13">
-        <v>323127267</v>
+        <v>514284920</v>
       </c>
       <c r="X62" s="13">
-        <v>514284920</v>
+        <v>691890405</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.3">
@@ -4244,8 +4244,8 @@
       <c r="Q69" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R69" s="11" t="s">
-        <v>41</v>
+      <c r="R69" s="11">
+        <v>0</v>
       </c>
       <c r="S69" s="11">
         <v>0</v>
@@ -4307,14 +4307,14 @@
       <c r="O70" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P70" s="9" t="s">
-        <v>41</v>
+      <c r="P70" s="9">
+        <v>0</v>
       </c>
       <c r="Q70" s="9">
         <v>0</v>
       </c>
-      <c r="R70" s="9">
-        <v>0</v>
+      <c r="R70" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="S70" s="9" t="s">
         <v>41</v>
@@ -4346,11 +4346,11 @@
       <c r="E71" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="11">
-        <v>0</v>
+      <c r="F71" s="11">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>41</v>
@@ -4415,11 +4415,11 @@
       <c r="E72" s="9">
         <v>0</v>
       </c>
-      <c r="F72" s="9">
-        <v>0</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>41</v>
+      <c r="F72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0</v>
       </c>
       <c r="H72" s="9">
         <v>0</v>
@@ -4445,8 +4445,8 @@
       <c r="O72" s="9">
         <v>0</v>
       </c>
-      <c r="P72" s="9">
-        <v>0</v>
+      <c r="P72" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="Q72" s="9" t="s">
         <v>41</v>
@@ -4484,11 +4484,11 @@
       <c r="E73" s="11">
         <v>0</v>
       </c>
-      <c r="F73" s="11">
-        <v>0</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>41</v>
+      <c r="F73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
       </c>
       <c r="H73" s="11">
         <v>0</v>
@@ -4508,8 +4508,8 @@
       <c r="M73" s="11">
         <v>0</v>
       </c>
-      <c r="N73" s="11">
-        <v>0</v>
+      <c r="N73" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="O73" s="11" t="s">
         <v>41</v>
@@ -4553,11 +4553,11 @@
       <c r="E74" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="9">
-        <v>0</v>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>41</v>
@@ -4917,8 +4917,8 @@
       <c r="Q82" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R82" s="11" t="s">
-        <v>41</v>
+      <c r="R82" s="11">
+        <v>0</v>
       </c>
       <c r="S82" s="11">
         <v>0</v>
@@ -4947,8 +4947,8 @@
         <v>51</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>41</v>
+      <c r="E83" s="9">
+        <v>0</v>
       </c>
       <c r="F83" s="9">
         <v>0</v>
@@ -4986,8 +4986,8 @@
       <c r="Q83" s="9">
         <v>0</v>
       </c>
-      <c r="R83" s="9">
-        <v>0</v>
+      <c r="R83" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="S83" s="9" t="s">
         <v>41</v>
@@ -5016,14 +5016,14 @@
         <v>51</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" s="11">
-        <v>0</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>41</v>
+      <c r="E84" s="11">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" s="11">
+        <v>0</v>
       </c>
       <c r="H84" s="11">
         <v>0</v>
@@ -5043,8 +5043,8 @@
       <c r="M84" s="11">
         <v>0</v>
       </c>
-      <c r="N84" s="11">
-        <v>0</v>
+      <c r="N84" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="O84" s="11" t="s">
         <v>41</v>
@@ -5383,26 +5383,26 @@
       <c r="Q92" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R92" s="11" t="s">
-        <v>41</v>
+      <c r="R92" s="11">
+        <v>41770886</v>
       </c>
       <c r="S92" s="11">
-        <v>41770886</v>
+        <v>33266140</v>
       </c>
       <c r="T92" s="11">
-        <v>33266140</v>
+        <v>29733894</v>
       </c>
       <c r="U92" s="11">
-        <v>29733894</v>
+        <v>28604286</v>
       </c>
       <c r="V92" s="11">
-        <v>28604286</v>
+        <v>16206626</v>
       </c>
       <c r="W92" s="11">
-        <v>16206626</v>
+        <v>25760017</v>
       </c>
       <c r="X92" s="11">
-        <v>25760017</v>
+        <v>40047353</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.3">
@@ -5413,47 +5413,47 @@
         <v>51</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>41</v>
+      <c r="E93" s="9">
+        <v>8628492</v>
       </c>
       <c r="F93" s="9">
-        <v>8628492</v>
+        <v>6278342</v>
       </c>
       <c r="G93" s="9">
-        <v>6278342</v>
+        <v>4572658</v>
       </c>
       <c r="H93" s="9">
-        <v>4572658</v>
+        <v>5328350</v>
       </c>
       <c r="I93" s="9">
-        <v>5328350</v>
+        <v>6145173</v>
       </c>
       <c r="J93" s="9">
-        <v>6145173</v>
+        <v>4493838</v>
       </c>
       <c r="K93" s="9">
-        <v>4493838</v>
+        <v>4990686</v>
       </c>
       <c r="L93" s="9">
-        <v>4990686</v>
+        <v>6973473</v>
       </c>
       <c r="M93" s="9">
-        <v>6973473</v>
+        <v>16136339</v>
       </c>
       <c r="N93" s="9">
-        <v>16136339</v>
+        <v>15432712</v>
       </c>
       <c r="O93" s="9">
-        <v>15432712</v>
+        <v>14951267</v>
       </c>
       <c r="P93" s="9">
-        <v>14951267</v>
+        <v>20809319</v>
       </c>
       <c r="Q93" s="9">
-        <v>20809319</v>
-      </c>
-      <c r="R93" s="9">
         <v>27533527</v>
+      </c>
+      <c r="R93" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="S93" s="9" t="s">
         <v>41</v>
@@ -5482,35 +5482,35 @@
         <v>51</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F94" s="11">
+      <c r="E94" s="11">
         <v>1550182</v>
       </c>
-      <c r="G94" s="11" t="s">
-        <v>41</v>
+      <c r="F94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" s="11">
+        <v>1244108</v>
       </c>
       <c r="H94" s="11">
-        <v>1244108</v>
+        <v>1248612</v>
       </c>
       <c r="I94" s="11">
-        <v>1248612</v>
+        <v>2729527</v>
       </c>
       <c r="J94" s="11">
-        <v>2729527</v>
+        <v>2134131</v>
       </c>
       <c r="K94" s="11">
-        <v>2134131</v>
+        <v>2334585</v>
       </c>
       <c r="L94" s="11">
-        <v>2334585</v>
+        <v>2089852</v>
       </c>
       <c r="M94" s="11">
-        <v>2089852</v>
-      </c>
-      <c r="N94" s="11">
         <v>2096044</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="O94" s="11" t="s">
         <v>41</v>
@@ -5550,64 +5550,64 @@
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>0</v>
+        <v>10178674</v>
       </c>
       <c r="F95" s="15">
-        <v>10178674</v>
+        <v>6278342</v>
       </c>
       <c r="G95" s="15">
-        <v>6278342</v>
+        <v>5816766</v>
       </c>
       <c r="H95" s="15">
-        <v>5816766</v>
+        <v>6576962</v>
       </c>
       <c r="I95" s="15">
-        <v>6576962</v>
+        <v>8874700</v>
       </c>
       <c r="J95" s="15">
-        <v>8874700</v>
+        <v>6627969</v>
       </c>
       <c r="K95" s="15">
-        <v>6627969</v>
+        <v>7325271</v>
       </c>
       <c r="L95" s="15">
-        <v>7325271</v>
+        <v>9063325</v>
       </c>
       <c r="M95" s="15">
-        <v>9063325</v>
+        <v>18232383</v>
       </c>
       <c r="N95" s="15">
-        <v>18232383</v>
+        <v>15432712</v>
       </c>
       <c r="O95" s="15">
-        <v>15432712</v>
+        <v>14951267</v>
       </c>
       <c r="P95" s="15">
-        <v>14951267</v>
+        <v>20809319</v>
       </c>
       <c r="Q95" s="15">
-        <v>20809319</v>
+        <v>27533527</v>
       </c>
       <c r="R95" s="15">
-        <v>27533527</v>
+        <v>41770886</v>
       </c>
       <c r="S95" s="15">
-        <v>41770886</v>
+        <v>33266140</v>
       </c>
       <c r="T95" s="15">
-        <v>33266140</v>
+        <v>29733894</v>
       </c>
       <c r="U95" s="15">
-        <v>29733894</v>
+        <v>28604286</v>
       </c>
       <c r="V95" s="15">
-        <v>28604286</v>
+        <v>16206626</v>
       </c>
       <c r="W95" s="15">
-        <v>16206626</v>
+        <v>25760017</v>
       </c>
       <c r="X95" s="15">
-        <v>25760017</v>
+        <v>40047353</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.3">
@@ -5849,26 +5849,26 @@
       <c r="Q102" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R102" s="11" t="s">
-        <v>41</v>
+      <c r="R102" s="11">
+        <v>41770886</v>
       </c>
       <c r="S102" s="11">
-        <v>41770886</v>
+        <v>33266140</v>
       </c>
       <c r="T102" s="11">
-        <v>33266140</v>
+        <v>29733894</v>
       </c>
       <c r="U102" s="11">
-        <v>29733894</v>
+        <v>28604286</v>
       </c>
       <c r="V102" s="11">
-        <v>28604286</v>
+        <v>16206626</v>
       </c>
       <c r="W102" s="11">
-        <v>16206626</v>
+        <v>25760017</v>
       </c>
       <c r="X102" s="11">
-        <v>25760017</v>
+        <v>40047353</v>
       </c>
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.3">
@@ -5879,47 +5879,47 @@
         <v>51</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>41</v>
+      <c r="E103" s="9">
+        <v>8628492</v>
       </c>
       <c r="F103" s="9">
-        <v>8628492</v>
+        <v>6278342</v>
       </c>
       <c r="G103" s="9">
-        <v>6278342</v>
+        <v>4572658</v>
       </c>
       <c r="H103" s="9">
-        <v>4572658</v>
+        <v>5328350</v>
       </c>
       <c r="I103" s="9">
-        <v>5328350</v>
+        <v>6145173</v>
       </c>
       <c r="J103" s="9">
-        <v>6145173</v>
+        <v>4493838</v>
       </c>
       <c r="K103" s="9">
-        <v>4493838</v>
+        <v>4990686</v>
       </c>
       <c r="L103" s="9">
-        <v>4990686</v>
+        <v>6973473</v>
       </c>
       <c r="M103" s="9">
-        <v>6973473</v>
+        <v>16136339</v>
       </c>
       <c r="N103" s="9">
-        <v>16136339</v>
+        <v>15432712</v>
       </c>
       <c r="O103" s="9">
-        <v>15432712</v>
+        <v>14951267</v>
       </c>
       <c r="P103" s="9">
-        <v>14951267</v>
+        <v>20809319</v>
       </c>
       <c r="Q103" s="9">
-        <v>20809319</v>
-      </c>
-      <c r="R103" s="9">
         <v>27533527</v>
+      </c>
+      <c r="R103" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="S103" s="9" t="s">
         <v>41</v>
@@ -5948,35 +5948,35 @@
         <v>51</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F104" s="11">
+      <c r="E104" s="11">
         <v>1550182</v>
       </c>
-      <c r="G104" s="11" t="s">
-        <v>41</v>
+      <c r="F104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="11">
+        <v>1244108</v>
       </c>
       <c r="H104" s="11">
-        <v>1244108</v>
+        <v>1248612</v>
       </c>
       <c r="I104" s="11">
-        <v>1248612</v>
+        <v>2729527</v>
       </c>
       <c r="J104" s="11">
-        <v>2729527</v>
+        <v>2134131</v>
       </c>
       <c r="K104" s="11">
-        <v>2134131</v>
+        <v>2334585</v>
       </c>
       <c r="L104" s="11">
-        <v>2334585</v>
+        <v>2089852</v>
       </c>
       <c r="M104" s="11">
-        <v>2089852</v>
-      </c>
-      <c r="N104" s="11">
         <v>2096044</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="O104" s="11" t="s">
         <v>41</v>
@@ -6016,64 +6016,64 @@
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
-        <v>0</v>
+        <v>10178674</v>
       </c>
       <c r="F105" s="15">
-        <v>10178674</v>
+        <v>6278342</v>
       </c>
       <c r="G105" s="15">
-        <v>6278342</v>
+        <v>5816766</v>
       </c>
       <c r="H105" s="15">
-        <v>5816766</v>
+        <v>6576962</v>
       </c>
       <c r="I105" s="15">
-        <v>6576962</v>
+        <v>8874700</v>
       </c>
       <c r="J105" s="15">
-        <v>8874700</v>
+        <v>6627969</v>
       </c>
       <c r="K105" s="15">
-        <v>6627969</v>
+        <v>7325271</v>
       </c>
       <c r="L105" s="15">
-        <v>7325271</v>
+        <v>9063325</v>
       </c>
       <c r="M105" s="15">
-        <v>9063325</v>
+        <v>18232383</v>
       </c>
       <c r="N105" s="15">
-        <v>18232383</v>
+        <v>15432712</v>
       </c>
       <c r="O105" s="15">
-        <v>15432712</v>
+        <v>14951267</v>
       </c>
       <c r="P105" s="15">
-        <v>14951267</v>
+        <v>20809319</v>
       </c>
       <c r="Q105" s="15">
-        <v>20809319</v>
+        <v>27533527</v>
       </c>
       <c r="R105" s="15">
-        <v>27533527</v>
+        <v>41770886</v>
       </c>
       <c r="S105" s="15">
-        <v>41770886</v>
+        <v>33266140</v>
       </c>
       <c r="T105" s="15">
-        <v>33266140</v>
+        <v>29733894</v>
       </c>
       <c r="U105" s="15">
-        <v>29733894</v>
+        <v>28604286</v>
       </c>
       <c r="V105" s="15">
-        <v>28604286</v>
+        <v>16206626</v>
       </c>
       <c r="W105" s="15">
-        <v>16206626</v>
+        <v>25760017</v>
       </c>
       <c r="X105" s="15">
-        <v>25760017</v>
+        <v>40047353</v>
       </c>
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.3">
@@ -6315,8 +6315,8 @@
       <c r="Q112" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R112" s="11" t="s">
-        <v>41</v>
+      <c r="R112" s="11">
+        <v>0</v>
       </c>
       <c r="S112" s="11">
         <v>0</v>
@@ -6384,8 +6384,8 @@
       <c r="Q113" s="9">
         <v>0</v>
       </c>
-      <c r="R113" s="9">
-        <v>0</v>
+      <c r="R113" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="S113" s="9" t="s">
         <v>41</v>
@@ -6417,11 +6417,11 @@
       <c r="E114" s="11">
         <v>0</v>
       </c>
-      <c r="F114" s="11">
-        <v>0</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>41</v>
+      <c r="F114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114" s="11">
+        <v>0</v>
       </c>
       <c r="H114" s="11">
         <v>0</v>
@@ -6441,8 +6441,8 @@
       <c r="M114" s="11">
         <v>0</v>
       </c>
-      <c r="N114" s="11">
-        <v>0</v>
+      <c r="N114" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="O114" s="11" t="s">
         <v>41</v>
@@ -6781,11 +6781,11 @@
       <c r="Q122" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R122" s="11" t="s">
-        <v>41</v>
+      <c r="R122" s="11">
+        <v>85386</v>
       </c>
       <c r="S122" s="11">
-        <v>85386</v>
+        <v>50089</v>
       </c>
       <c r="T122" s="11">
         <v>50089</v>
@@ -6794,13 +6794,13 @@
         <v>50089</v>
       </c>
       <c r="V122" s="11">
+        <v>50156</v>
+      </c>
+      <c r="W122" s="11">
         <v>50089</v>
       </c>
-      <c r="W122" s="11">
-        <v>50156</v>
-      </c>
       <c r="X122" s="11">
-        <v>50089</v>
+        <v>57881</v>
       </c>
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.3">
@@ -6811,47 +6811,47 @@
         <v>57</v>
       </c>
       <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F123" s="9">
+      <c r="E123" s="9">
         <v>11469</v>
       </c>
-      <c r="G123" s="9" t="s">
-        <v>41</v>
+      <c r="F123" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" s="9">
+        <v>6952</v>
       </c>
       <c r="H123" s="9">
-        <v>6952</v>
+        <v>6822</v>
       </c>
       <c r="I123" s="9">
-        <v>6822</v>
+        <v>8624</v>
       </c>
       <c r="J123" s="9">
-        <v>8624</v>
+        <v>12850</v>
       </c>
       <c r="K123" s="9">
-        <v>12850</v>
+        <v>6294</v>
       </c>
       <c r="L123" s="9">
-        <v>6294</v>
+        <v>10179</v>
       </c>
       <c r="M123" s="9">
-        <v>10179</v>
+        <v>22312</v>
       </c>
       <c r="N123" s="9">
-        <v>22312</v>
+        <v>26500</v>
       </c>
       <c r="O123" s="9">
-        <v>26500</v>
+        <v>20281</v>
       </c>
       <c r="P123" s="9">
-        <v>20281</v>
+        <v>32372</v>
       </c>
       <c r="Q123" s="9">
-        <v>32372</v>
-      </c>
-      <c r="R123" s="9">
         <v>60583</v>
+      </c>
+      <c r="R123" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="S123" s="9" t="s">
         <v>41</v>
@@ -6880,26 +6880,26 @@
         <v>56</v>
       </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F124" s="11">
+      <c r="E124" s="11">
         <v>4700</v>
       </c>
-      <c r="G124" s="11" t="s">
-        <v>41</v>
+      <c r="F124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G124" s="11">
+        <v>4452</v>
       </c>
       <c r="H124" s="11">
-        <v>4452</v>
+        <v>3701</v>
       </c>
       <c r="I124" s="11">
-        <v>3701</v>
+        <v>8845</v>
       </c>
       <c r="J124" s="11">
-        <v>8845</v>
+        <v>13675</v>
       </c>
       <c r="K124" s="11">
-        <v>13675</v>
+        <v>6802</v>
       </c>
       <c r="L124" s="11">
         <v>6802</v>
@@ -6907,8 +6907,8 @@
       <c r="M124" s="11">
         <v>6802</v>
       </c>
-      <c r="N124" s="11">
-        <v>6802</v>
+      <c r="N124" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="O124" s="11" t="s">
         <v>41</v>
@@ -7180,11 +7180,11 @@
       <c r="Q131" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R131" s="11" t="s">
-        <v>41</v>
+      <c r="R131" s="11">
+        <v>85386</v>
       </c>
       <c r="S131" s="11">
-        <v>85386</v>
+        <v>50089</v>
       </c>
       <c r="T131" s="11">
         <v>50089</v>
@@ -7193,13 +7193,13 @@
         <v>50089</v>
       </c>
       <c r="V131" s="11">
+        <v>50156</v>
+      </c>
+      <c r="W131" s="11">
         <v>50089</v>
       </c>
-      <c r="W131" s="11">
-        <v>50156</v>
-      </c>
       <c r="X131" s="11">
-        <v>50089</v>
+        <v>57881</v>
       </c>
     </row>
     <row r="132" spans="2:24" x14ac:dyDescent="0.3">
@@ -7210,47 +7210,47 @@
         <v>57</v>
       </c>
       <c r="D132" s="9"/>
-      <c r="E132" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F132" s="9">
+      <c r="E132" s="9">
         <v>11469</v>
       </c>
-      <c r="G132" s="9" t="s">
-        <v>41</v>
+      <c r="F132" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G132" s="9">
+        <v>6952</v>
       </c>
       <c r="H132" s="9">
-        <v>6952</v>
+        <v>6822</v>
       </c>
       <c r="I132" s="9">
-        <v>6822</v>
+        <v>8624</v>
       </c>
       <c r="J132" s="9">
-        <v>8624</v>
+        <v>12850</v>
       </c>
       <c r="K132" s="9">
-        <v>12850</v>
+        <v>6294</v>
       </c>
       <c r="L132" s="9">
-        <v>6294</v>
+        <v>10179</v>
       </c>
       <c r="M132" s="9">
-        <v>10179</v>
+        <v>22312</v>
       </c>
       <c r="N132" s="9">
-        <v>22312</v>
+        <v>26500</v>
       </c>
       <c r="O132" s="9">
-        <v>26500</v>
+        <v>20281</v>
       </c>
       <c r="P132" s="9">
-        <v>20281</v>
+        <v>32372</v>
       </c>
       <c r="Q132" s="9">
-        <v>32372</v>
-      </c>
-      <c r="R132" s="9">
         <v>60583</v>
+      </c>
+      <c r="R132" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="S132" s="9" t="s">
         <v>41</v>
@@ -7279,26 +7279,26 @@
         <v>56</v>
       </c>
       <c r="D133" s="11"/>
-      <c r="E133" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F133" s="11">
+      <c r="E133" s="11">
         <v>4700</v>
       </c>
-      <c r="G133" s="11" t="s">
-        <v>41</v>
+      <c r="F133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G133" s="11">
+        <v>4452</v>
       </c>
       <c r="H133" s="11">
-        <v>4452</v>
+        <v>3701</v>
       </c>
       <c r="I133" s="11">
-        <v>3701</v>
+        <v>8845</v>
       </c>
       <c r="J133" s="11">
-        <v>8845</v>
+        <v>13675</v>
       </c>
       <c r="K133" s="11">
-        <v>13675</v>
+        <v>6802</v>
       </c>
       <c r="L133" s="11">
         <v>6802</v>
@@ -7306,8 +7306,8 @@
       <c r="M133" s="11">
         <v>6802</v>
       </c>
-      <c r="N133" s="11">
-        <v>6802</v>
+      <c r="N133" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="O133" s="11" t="s">
         <v>41</v>
@@ -7513,8 +7513,8 @@
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>41</v>
+      <c r="E139" s="9">
+        <v>0</v>
       </c>
       <c r="F139" s="9">
         <v>0</v>
@@ -7580,8 +7580,8 @@
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
-        <v>41</v>
+      <c r="E140" s="11">
+        <v>0</v>
       </c>
       <c r="F140" s="11">
         <v>0</v>
@@ -7647,8 +7647,8 @@
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>41</v>
+      <c r="E141" s="9">
+        <v>0</v>
       </c>
       <c r="F141" s="9">
         <v>0</v>
@@ -7714,8 +7714,8 @@
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>41</v>
+      <c r="E142" s="11">
+        <v>0</v>
       </c>
       <c r="F142" s="11">
         <v>0</v>
@@ -7781,65 +7781,65 @@
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
-        <v>41</v>
+      <c r="E143" s="9">
+        <v>-81133</v>
       </c>
       <c r="F143" s="9">
-        <v>-81133</v>
+        <v>391548</v>
       </c>
       <c r="G143" s="9">
-        <v>391548</v>
+        <v>87806</v>
       </c>
       <c r="H143" s="9">
-        <v>87806</v>
+        <v>102835</v>
       </c>
       <c r="I143" s="9">
-        <v>102835</v>
+        <v>38788</v>
       </c>
       <c r="J143" s="9">
-        <v>38788</v>
+        <v>325999</v>
       </c>
       <c r="K143" s="9">
-        <v>325999</v>
+        <v>111053</v>
       </c>
       <c r="L143" s="9">
-        <v>111053</v>
+        <v>204730</v>
       </c>
       <c r="M143" s="9">
-        <v>204730</v>
+        <v>203360</v>
       </c>
       <c r="N143" s="9">
-        <v>203360</v>
+        <v>460099</v>
       </c>
       <c r="O143" s="9">
-        <v>460099</v>
+        <v>194335</v>
       </c>
       <c r="P143" s="9">
-        <v>194335</v>
+        <v>455574</v>
       </c>
       <c r="Q143" s="9">
-        <v>455574</v>
+        <v>83060</v>
       </c>
       <c r="R143" s="9">
-        <v>83060</v>
+        <v>1662789</v>
       </c>
       <c r="S143" s="9">
-        <v>1662789</v>
+        <v>268969</v>
       </c>
       <c r="T143" s="9">
-        <v>268969</v>
+        <v>873627</v>
       </c>
       <c r="U143" s="9">
-        <v>873627</v>
+        <v>52559</v>
       </c>
       <c r="V143" s="9">
-        <v>52559</v>
+        <v>1375749</v>
       </c>
       <c r="W143" s="9">
-        <v>1375749</v>
+        <v>239039</v>
       </c>
       <c r="X143" s="9">
-        <v>239039</v>
+        <v>768011</v>
       </c>
     </row>
     <row r="144" spans="2:24" x14ac:dyDescent="0.3">
@@ -7848,38 +7848,38 @@
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>41</v>
+      <c r="E144" s="11">
+        <v>1133</v>
       </c>
       <c r="F144" s="11">
-        <v>1133</v>
+        <v>945</v>
       </c>
       <c r="G144" s="11">
-        <v>945</v>
+        <v>532</v>
       </c>
       <c r="H144" s="11">
-        <v>532</v>
+        <v>1593</v>
       </c>
       <c r="I144" s="11">
-        <v>1593</v>
+        <v>1043</v>
       </c>
       <c r="J144" s="11">
-        <v>1043</v>
+        <v>-3168</v>
       </c>
       <c r="K144" s="11">
-        <v>-3168</v>
+        <v>167</v>
       </c>
       <c r="L144" s="11">
-        <v>167</v>
+        <v>1683</v>
       </c>
       <c r="M144" s="11">
-        <v>1683</v>
+        <v>1079</v>
       </c>
       <c r="N144" s="11">
-        <v>1079</v>
+        <v>-2929</v>
       </c>
       <c r="O144" s="11">
-        <v>-2929</v>
+        <v>0</v>
       </c>
       <c r="P144" s="11">
         <v>0</v>
@@ -7888,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="R144" s="11">
-        <v>0</v>
+        <v>36047411</v>
       </c>
       <c r="S144" s="11">
-        <v>36047411</v>
+        <v>0</v>
       </c>
       <c r="T144" s="11">
         <v>0</v>
@@ -7900,13 +7900,13 @@
         <v>0</v>
       </c>
       <c r="V144" s="11">
-        <v>0</v>
+        <v>23089420</v>
       </c>
       <c r="W144" s="11">
-        <v>23089420</v>
+        <v>6198010</v>
       </c>
       <c r="X144" s="11">
-        <v>6198010</v>
+        <v>8877217</v>
       </c>
     </row>
     <row r="145" spans="2:24" x14ac:dyDescent="0.3">
@@ -7915,65 +7915,65 @@
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
-        <v>41</v>
+      <c r="E145" s="9">
+        <v>163818</v>
       </c>
       <c r="F145" s="9">
-        <v>163818</v>
+        <v>143049</v>
       </c>
       <c r="G145" s="9">
-        <v>143049</v>
+        <v>153922</v>
       </c>
       <c r="H145" s="9">
-        <v>153922</v>
+        <v>155029</v>
       </c>
       <c r="I145" s="9">
-        <v>155029</v>
+        <v>157082</v>
       </c>
       <c r="J145" s="9">
-        <v>157082</v>
+        <v>159130</v>
       </c>
       <c r="K145" s="9">
-        <v>159130</v>
+        <v>162748</v>
       </c>
       <c r="L145" s="9">
-        <v>162748</v>
+        <v>166334</v>
       </c>
       <c r="M145" s="9">
-        <v>166334</v>
+        <v>165796</v>
       </c>
       <c r="N145" s="9">
-        <v>165796</v>
+        <v>222963</v>
       </c>
       <c r="O145" s="9">
-        <v>222963</v>
+        <v>190851</v>
       </c>
       <c r="P145" s="9">
-        <v>190851</v>
+        <v>260643</v>
       </c>
       <c r="Q145" s="9">
-        <v>260643</v>
+        <v>212553</v>
       </c>
       <c r="R145" s="9">
-        <v>212553</v>
+        <v>273324</v>
       </c>
       <c r="S145" s="9">
-        <v>273324</v>
+        <v>265061</v>
       </c>
       <c r="T145" s="9">
-        <v>265061</v>
+        <v>319007</v>
       </c>
       <c r="U145" s="9">
-        <v>319007</v>
+        <v>343777</v>
       </c>
       <c r="V145" s="9">
-        <v>343777</v>
+        <v>340207</v>
       </c>
       <c r="W145" s="9">
-        <v>340207</v>
+        <v>334344</v>
       </c>
       <c r="X145" s="9">
-        <v>334344</v>
+        <v>340584</v>
       </c>
     </row>
     <row r="146" spans="2:24" x14ac:dyDescent="0.3">
@@ -7982,65 +7982,65 @@
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>41</v>
+      <c r="E146" s="11">
+        <v>379061</v>
       </c>
       <c r="F146" s="11">
-        <v>379061</v>
+        <v>569647</v>
       </c>
       <c r="G146" s="11">
-        <v>569647</v>
+        <v>468791</v>
       </c>
       <c r="H146" s="11">
-        <v>468791</v>
+        <v>574815</v>
       </c>
       <c r="I146" s="11">
-        <v>574815</v>
+        <v>416751</v>
       </c>
       <c r="J146" s="11">
-        <v>416751</v>
+        <v>630825</v>
       </c>
       <c r="K146" s="11">
-        <v>630825</v>
+        <v>573897</v>
       </c>
       <c r="L146" s="11">
-        <v>573897</v>
+        <v>876919</v>
       </c>
       <c r="M146" s="11">
-        <v>876919</v>
+        <v>563431</v>
       </c>
       <c r="N146" s="11">
-        <v>563431</v>
+        <v>957954</v>
       </c>
       <c r="O146" s="11">
-        <v>957954</v>
+        <v>1048416</v>
       </c>
       <c r="P146" s="11">
-        <v>1048416</v>
+        <v>1532913</v>
       </c>
       <c r="Q146" s="11">
-        <v>1532913</v>
+        <v>366863</v>
       </c>
       <c r="R146" s="11">
-        <v>366863</v>
+        <v>1780345</v>
       </c>
       <c r="S146" s="11">
-        <v>1780345</v>
+        <v>1889046</v>
       </c>
       <c r="T146" s="11">
-        <v>1889046</v>
+        <v>1492083</v>
       </c>
       <c r="U146" s="11">
-        <v>1492083</v>
+        <v>1749031</v>
       </c>
       <c r="V146" s="11">
-        <v>1749031</v>
+        <v>2549825</v>
       </c>
       <c r="W146" s="11">
-        <v>2549825</v>
+        <v>2373964</v>
       </c>
       <c r="X146" s="11">
-        <v>2373964</v>
+        <v>2461316</v>
       </c>
     </row>
     <row r="147" spans="2:24" x14ac:dyDescent="0.3">
@@ -8049,8 +8049,8 @@
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="9" t="s">
-        <v>41</v>
+      <c r="E147" s="9">
+        <v>0</v>
       </c>
       <c r="F147" s="9">
         <v>0</v>
@@ -8116,65 +8116,65 @@
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
-      <c r="E148" s="11" t="s">
-        <v>41</v>
+      <c r="E148" s="11">
+        <v>634623</v>
       </c>
       <c r="F148" s="11">
-        <v>634623</v>
+        <v>301671</v>
       </c>
       <c r="G148" s="11">
-        <v>301671</v>
+        <v>323915</v>
       </c>
       <c r="H148" s="11">
-        <v>323915</v>
+        <v>800465</v>
       </c>
       <c r="I148" s="11">
-        <v>800465</v>
+        <v>1277724</v>
       </c>
       <c r="J148" s="11">
-        <v>1277724</v>
+        <v>7527779</v>
       </c>
       <c r="K148" s="11">
-        <v>7527779</v>
+        <v>508180</v>
       </c>
       <c r="L148" s="11">
-        <v>508180</v>
+        <v>842342</v>
       </c>
       <c r="M148" s="11">
-        <v>842342</v>
+        <v>442613</v>
       </c>
       <c r="N148" s="11">
-        <v>442613</v>
+        <v>11183670</v>
       </c>
       <c r="O148" s="11">
-        <v>11183670</v>
+        <v>3524185</v>
       </c>
       <c r="P148" s="11">
-        <v>3524185</v>
+        <v>4553557</v>
       </c>
       <c r="Q148" s="11">
-        <v>4553557</v>
+        <v>4050453</v>
       </c>
       <c r="R148" s="11">
-        <v>4050453</v>
+        <v>-10215091</v>
       </c>
       <c r="S148" s="11">
-        <v>-10215091</v>
+        <v>7716272</v>
       </c>
       <c r="T148" s="11">
-        <v>7716272</v>
+        <v>6964825</v>
       </c>
       <c r="U148" s="11">
-        <v>6964825</v>
+        <v>6825609</v>
       </c>
       <c r="V148" s="11">
-        <v>6825609</v>
+        <v>-17630710</v>
       </c>
       <c r="W148" s="11">
-        <v>-17630710</v>
+        <v>923338</v>
       </c>
       <c r="X148" s="11">
-        <v>923338</v>
+        <v>7187567</v>
       </c>
     </row>
     <row r="149" spans="2:24" x14ac:dyDescent="0.3">
@@ -8184,64 +8184,64 @@
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
-        <v>0</v>
+        <v>1097502</v>
       </c>
       <c r="F149" s="15">
-        <v>1097502</v>
+        <v>1406860</v>
       </c>
       <c r="G149" s="15">
-        <v>1406860</v>
+        <v>1034966</v>
       </c>
       <c r="H149" s="15">
-        <v>1034966</v>
+        <v>1634737</v>
       </c>
       <c r="I149" s="15">
-        <v>1634737</v>
+        <v>1891388</v>
       </c>
       <c r="J149" s="15">
-        <v>1891388</v>
+        <v>8640565</v>
       </c>
       <c r="K149" s="15">
-        <v>8640565</v>
+        <v>1356045</v>
       </c>
       <c r="L149" s="15">
-        <v>1356045</v>
+        <v>2092008</v>
       </c>
       <c r="M149" s="15">
-        <v>2092008</v>
+        <v>1376279</v>
       </c>
       <c r="N149" s="15">
-        <v>1376279</v>
+        <v>12821757</v>
       </c>
       <c r="O149" s="15">
-        <v>12821757</v>
+        <v>4957787</v>
       </c>
       <c r="P149" s="15">
-        <v>4957787</v>
+        <v>6802687</v>
       </c>
       <c r="Q149" s="15">
-        <v>6802687</v>
+        <v>4712929</v>
       </c>
       <c r="R149" s="15">
-        <v>4712929</v>
+        <v>29548778</v>
       </c>
       <c r="S149" s="15">
-        <v>29548778</v>
+        <v>10139348</v>
       </c>
       <c r="T149" s="15">
-        <v>10139348</v>
+        <v>9649542</v>
       </c>
       <c r="U149" s="15">
-        <v>9649542</v>
+        <v>8970976</v>
       </c>
       <c r="V149" s="15">
-        <v>8970976</v>
+        <v>9724491</v>
       </c>
       <c r="W149" s="15">
-        <v>9724491</v>
+        <v>10068695</v>
       </c>
       <c r="X149" s="15">
-        <v>10068695</v>
+        <v>19634695</v>
       </c>
     </row>
     <row r="150" spans="2:24" x14ac:dyDescent="0.3">
